--- a/@SystematicLearning/LearningPlan.xlsx
+++ b/@SystematicLearning/LearningPlan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27870" windowHeight="13140" activeTab="1"/>
+    <workbookView windowWidth="19560" windowHeight="8460" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="总纲" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="65">
   <si>
     <t>文章分类</t>
   </si>
@@ -166,6 +166,30 @@
   </si>
   <si>
     <t>JavaScript专题之解读v8排序源码</t>
+  </si>
+  <si>
+    <t>深入掌握 ES6异步编程</t>
+  </si>
+  <si>
+    <t>Generator 函数的含义与用法</t>
+  </si>
+  <si>
+    <t>深入掌握 ES7异步编程</t>
+  </si>
+  <si>
+    <t>Thunk 函数的含义和用法</t>
+  </si>
+  <si>
+    <t>深入掌握 ES8异步编程</t>
+  </si>
+  <si>
+    <t>co 函数库的含义和用法</t>
+  </si>
+  <si>
+    <t>深入掌握 ES9异步编程</t>
+  </si>
+  <si>
+    <t>async 函数的含义和用法</t>
   </si>
   <si>
     <t>JS 万字总结 重量级干货！！！2.6万字JS干货分享，带你领略前端魅力！</t>
@@ -199,7 +223,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,90 +265,89 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color theme="1" tint="0.35"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1" tint="0.35"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.35"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -339,14 +362,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -369,36 +424,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -431,18 +463,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -455,163 +649,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -736,89 +774,87 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color theme="1" tint="0.5"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.5"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.5"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color theme="1" tint="0.5"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color theme="1" tint="0.5"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color theme="1" tint="0.5"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color theme="1" tint="0.5"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color auto="1"/>
+        <color theme="1" tint="0.5"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color theme="1" tint="0.5"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color theme="1" tint="0.5"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color theme="1" tint="0.5"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.5"/>
       </left>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color theme="1" tint="0.5"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color theme="1" tint="0.5"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -847,6 +883,47 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -870,196 +947,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1120,25 +1158,37 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="13" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1">
@@ -1515,10 +1565,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="24" customHeight="1" outlineLevelCol="4"/>
@@ -1797,7 +1847,7 @@
         <v>30</v>
       </c>
       <c r="C24" s="21"/>
-      <c r="D24" s="22"/>
+      <c r="D24" s="21"/>
       <c r="E24" s="22"/>
     </row>
     <row r="25" customHeight="1" spans="1:5">
@@ -1808,7 +1858,7 @@
         <v>31</v>
       </c>
       <c r="C25" s="21"/>
-      <c r="D25" s="22"/>
+      <c r="D25" s="21"/>
       <c r="E25" s="22"/>
     </row>
     <row r="26" customHeight="1" spans="1:5">
@@ -1819,7 +1869,7 @@
         <v>32</v>
       </c>
       <c r="C26" s="21"/>
-      <c r="D26" s="22"/>
+      <c r="D26" s="21"/>
       <c r="E26" s="22"/>
     </row>
     <row r="27" customHeight="1" spans="1:5">
@@ -1830,7 +1880,7 @@
         <v>33</v>
       </c>
       <c r="C27" s="21"/>
-      <c r="D27" s="22"/>
+      <c r="D27" s="21"/>
       <c r="E27" s="22"/>
     </row>
     <row r="28" customHeight="1" spans="1:5">
@@ -1841,7 +1891,7 @@
         <v>34</v>
       </c>
       <c r="C28" s="21"/>
-      <c r="D28" s="22"/>
+      <c r="D28" s="21"/>
       <c r="E28" s="22"/>
     </row>
     <row r="29" customHeight="1" spans="1:5">
@@ -1852,7 +1902,7 @@
         <v>35</v>
       </c>
       <c r="C29" s="21"/>
-      <c r="D29" s="22"/>
+      <c r="D29" s="21"/>
       <c r="E29" s="22"/>
     </row>
     <row r="30" customHeight="1" spans="1:5">
@@ -1863,7 +1913,7 @@
         <v>36</v>
       </c>
       <c r="C30" s="21"/>
-      <c r="D30" s="22"/>
+      <c r="D30" s="21"/>
       <c r="E30" s="22"/>
     </row>
     <row r="31" customHeight="1" spans="1:5">
@@ -1874,7 +1924,7 @@
         <v>37</v>
       </c>
       <c r="C31" s="21"/>
-      <c r="D31" s="22"/>
+      <c r="D31" s="21"/>
       <c r="E31" s="22"/>
     </row>
     <row r="32" customHeight="1" spans="1:5">
@@ -1885,7 +1935,7 @@
         <v>38</v>
       </c>
       <c r="C32" s="21"/>
-      <c r="D32" s="22"/>
+      <c r="D32" s="21"/>
       <c r="E32" s="22"/>
     </row>
     <row r="33" customHeight="1" spans="1:5">
@@ -1896,7 +1946,7 @@
         <v>39</v>
       </c>
       <c r="C33" s="21"/>
-      <c r="D33" s="22"/>
+      <c r="D33" s="21"/>
       <c r="E33" s="22"/>
     </row>
     <row r="34" customHeight="1" spans="1:5">
@@ -1907,7 +1957,7 @@
         <v>40</v>
       </c>
       <c r="C34" s="21"/>
-      <c r="D34" s="22"/>
+      <c r="D34" s="21"/>
       <c r="E34" s="22"/>
     </row>
     <row r="35" customHeight="1" spans="1:5">
@@ -1918,7 +1968,7 @@
         <v>41</v>
       </c>
       <c r="C35" s="21"/>
-      <c r="D35" s="22"/>
+      <c r="D35" s="21"/>
       <c r="E35" s="22"/>
     </row>
     <row r="36" customHeight="1" spans="1:5">
@@ -1929,7 +1979,7 @@
         <v>42</v>
       </c>
       <c r="C36" s="21"/>
-      <c r="D36" s="22"/>
+      <c r="D36" s="21"/>
       <c r="E36" s="22"/>
     </row>
     <row r="37" customHeight="1" spans="1:5">
@@ -1940,7 +1990,7 @@
         <v>43</v>
       </c>
       <c r="C37" s="21"/>
-      <c r="D37" s="22"/>
+      <c r="D37" s="21"/>
       <c r="E37" s="22"/>
     </row>
     <row r="38" customHeight="1" spans="1:5">
@@ -1951,7 +2001,7 @@
         <v>44</v>
       </c>
       <c r="C38" s="21"/>
-      <c r="D38" s="22"/>
+      <c r="D38" s="21"/>
       <c r="E38" s="22"/>
     </row>
     <row r="39" customHeight="1" spans="1:5">
@@ -1962,7 +2012,7 @@
         <v>45</v>
       </c>
       <c r="C39" s="21"/>
-      <c r="D39" s="22"/>
+      <c r="D39" s="21"/>
       <c r="E39" s="22"/>
     </row>
     <row r="40" customHeight="1" spans="1:5">
@@ -1973,7 +2023,7 @@
         <v>46</v>
       </c>
       <c r="C40" s="21"/>
-      <c r="D40" s="22"/>
+      <c r="D40" s="21"/>
       <c r="E40" s="22"/>
     </row>
     <row r="41" customHeight="1" spans="1:5">
@@ -1984,7 +2034,7 @@
         <v>47</v>
       </c>
       <c r="C41" s="21"/>
-      <c r="D41" s="22"/>
+      <c r="D41" s="21"/>
       <c r="E41" s="22"/>
     </row>
     <row r="42" customHeight="1" spans="1:5">
@@ -1995,55 +2045,102 @@
         <v>48</v>
       </c>
       <c r="C42" s="21"/>
-      <c r="D42" s="22"/>
+      <c r="D42" s="21"/>
       <c r="E42" s="22"/>
     </row>
     <row r="43" customHeight="1" spans="1:5">
-      <c r="A43" s="23" t="s">
+      <c r="A43" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C43" s="25"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
-    </row>
-    <row r="44" customHeight="1" spans="1:2">
-      <c r="A44" s="27"/>
-      <c r="B44" s="28" t="s">
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="22"/>
+    </row>
+    <row r="44" customHeight="1" spans="1:5">
+      <c r="A44" s="23" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="45" customHeight="1" spans="2:2">
+      <c r="B44" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="26"/>
+    </row>
+    <row r="45" customHeight="1" spans="1:5">
+      <c r="A45" s="27" t="s">
+        <v>52</v>
+      </c>
       <c r="B45" s="28" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="46" customHeight="1" spans="2:2">
+        <v>53</v>
+      </c>
+      <c r="C45" s="29"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="30"/>
+    </row>
+    <row r="46" customHeight="1" spans="1:5">
+      <c r="A46" s="27" t="s">
+        <v>54</v>
+      </c>
       <c r="B46" s="28" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="47" customHeight="1" spans="2:2">
+        <v>55</v>
+      </c>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="30"/>
+    </row>
+    <row r="47" customHeight="1" spans="1:5">
+      <c r="A47" s="27" t="s">
+        <v>56</v>
+      </c>
       <c r="B47" s="28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="48" customHeight="1" spans="2:2">
-      <c r="B48" s="28" t="s">
-        <v>54</v>
+        <v>57</v>
+      </c>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="30"/>
+    </row>
+    <row r="48" customHeight="1" spans="1:2">
+      <c r="A48" s="31"/>
+      <c r="B48" s="32" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="2:2">
-      <c r="B49" s="28" t="s">
-        <v>55</v>
+      <c r="B49" s="32" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="2:2">
-      <c r="B50" s="28" t="s">
-        <v>56</v>
-      </c>
+      <c r="B50" s="32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="2:2">
+      <c r="B51" s="32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="2:2">
+      <c r="B52" s="32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="2:2">
+      <c r="B53" s="32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="2:2">
+      <c r="B54" s="32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" spans="1:1">
+      <c r="A59"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2131,13 +2228,17 @@
     <hyperlink ref="B6" r:id="rId43" display="jQuery"/>
     <hyperlink ref="B7" r:id="rId44" display="错误处理"/>
     <hyperlink ref="B8" r:id="rId45" display="underscore"/>
-    <hyperlink ref="B44" r:id="rId46" display="JS 万字总结 重量级干货！！！2.6万字JS干货分享，带你领略前端魅力！" tooltip="https://juejin.im/post/6844904136161361933"/>
-    <hyperlink ref="B45" r:id="rId47" display="想自学JS吗？想提升JS底层原理吗？76张脑图带你彻底搞懂原生JS" tooltip="https://juejin.im/post/6844904166192578567"/>
-    <hyperlink ref="B46" r:id="rId48" display="细说JS循环方法" tooltip="https://juejin.im/post/6844903880145240072"/>
-    <hyperlink ref="B47" r:id="rId49" display="JavaScript规定了几种语言类型？" tooltip="https://www.cnblogs.com/angel648/p/11090366.html"/>
-    <hyperlink ref="B48" r:id="rId50" display="js 面向对象编程(OOP) ps 函数式编程(FP)"/>
-    <hyperlink ref="B49" r:id="rId51" display="探索JS引擎工作原理" tooltip="https://www.cnblogs.com/onepixel/p/5090799.html"/>
-    <hyperlink ref="B50" r:id="rId52" display="import 和require的区别(超级无敌详细版)" tooltip="https://juejin.im/post/6844903912487518221"/>
+    <hyperlink ref="B48" r:id="rId46" display="JS 万字总结 重量级干货！！！2.6万字JS干货分享，带你领略前端魅力！" tooltip="https://juejin.im/post/6844904136161361933"/>
+    <hyperlink ref="B49" r:id="rId47" display="想自学JS吗？想提升JS底层原理吗？76张脑图带你彻底搞懂原生JS" tooltip="https://juejin.im/post/6844904166192578567"/>
+    <hyperlink ref="B50" r:id="rId48" display="细说JS循环方法" tooltip="https://juejin.im/post/6844903880145240072"/>
+    <hyperlink ref="B51" r:id="rId49" display="JavaScript规定了几种语言类型？" tooltip="https://www.cnblogs.com/angel648/p/11090366.html"/>
+    <hyperlink ref="B52" r:id="rId50" display="js 面向对象编程(OOP) ps 函数式编程(FP)"/>
+    <hyperlink ref="B53" r:id="rId51" display="探索JS引擎工作原理" tooltip="https://www.cnblogs.com/onepixel/p/5090799.html"/>
+    <hyperlink ref="B54" r:id="rId52" display="import 和require的区别(超级无敌详细版)" tooltip="https://juejin.im/post/6844903912487518221"/>
+    <hyperlink ref="B44" r:id="rId53" display="Generator 函数的含义与用法"/>
+    <hyperlink ref="B45" r:id="rId54" display="Thunk 函数的含义和用法"/>
+    <hyperlink ref="B46" r:id="rId55" display="co 函数库的含义和用法"/>
+    <hyperlink ref="B47" r:id="rId56" display="async 函数的含义和用法"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/@SystematicLearning/LearningPlan.xlsx
+++ b/@SystematicLearning/LearningPlan.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19560" windowHeight="8460" activeTab="1"/>
+    <workbookView windowWidth="19560" windowHeight="8460" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="总纲" sheetId="1" r:id="rId1"/>
     <sheet name="JS" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="前端工程化" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="71">
   <si>
     <t>文章分类</t>
   </si>
@@ -211,6 +211,24 @@
   </si>
   <si>
     <t>import 和require的区别(超级无敌详细版)</t>
+  </si>
+  <si>
+    <t>前端工程化</t>
+  </si>
+  <si>
+    <t>篇一 扬帆起航：开发环境</t>
+  </si>
+  <si>
+    <t>√</t>
+  </si>
+  <si>
+    <t>篇二 白璧微瑕-包管理器</t>
+  </si>
+  <si>
+    <t>篇三 席卷八荒-Webpack（基础）</t>
+  </si>
+  <si>
+    <t>篇四 席卷八荒-Webpack（进阶）</t>
   </si>
 </sst>
 </file>
@@ -219,8 +237,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -295,7 +313,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -309,14 +327,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,6 +335,68 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -338,10 +411,17 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -353,84 +433,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -445,6 +463,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.4"/>
         <bgColor theme="8"/>
       </patternFill>
@@ -469,55 +493,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,127 +673,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -850,11 +874,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -870,6 +909,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -894,6 +948,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -908,45 +971,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -955,10 +979,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -967,16 +991,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -985,119 +1009,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1107,88 +1131,100 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="10" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="13" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="13" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1">
@@ -1567,17 +1603,17 @@
   <sheetPr/>
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="24" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="23.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="62.75" style="1" customWidth="1"/>
-    <col min="3" max="4" width="10.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="42.5" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="62.75" style="6" customWidth="1"/>
+    <col min="3" max="4" width="10.625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="42.5" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="10.625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" customHeight="1" spans="1:5">
@@ -1598,544 +1634,544 @@
       </c>
     </row>
     <row r="2" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
     </row>
     <row r="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
     </row>
     <row r="4" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
     </row>
     <row r="5" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
     </row>
     <row r="6" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
     </row>
     <row r="7" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
     </row>
     <row r="8" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
     </row>
     <row r="9" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
     </row>
     <row r="10" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
     </row>
     <row r="11" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
     </row>
     <row r="12" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
     </row>
     <row r="13" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
     </row>
     <row r="14" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
     </row>
     <row r="15" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
     </row>
     <row r="16" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
     </row>
     <row r="17" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
     </row>
     <row r="18" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
     </row>
     <row r="19" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
     </row>
     <row r="20" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
     </row>
     <row r="21" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
     </row>
     <row r="22" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
     </row>
     <row r="23" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
     </row>
     <row r="24" customHeight="1" spans="1:5">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="22"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="26"/>
     </row>
     <row r="25" customHeight="1" spans="1:5">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="22"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="26"/>
     </row>
     <row r="26" customHeight="1" spans="1:5">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="22"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="26"/>
     </row>
     <row r="27" customHeight="1" spans="1:5">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="22"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="26"/>
     </row>
     <row r="28" customHeight="1" spans="1:5">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="22"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="26"/>
     </row>
     <row r="29" customHeight="1" spans="1:5">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="22"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="26"/>
     </row>
     <row r="30" customHeight="1" spans="1:5">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="22"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="26"/>
     </row>
     <row r="31" customHeight="1" spans="1:5">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="22"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="26"/>
     </row>
     <row r="32" customHeight="1" spans="1:5">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="22"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="26"/>
     </row>
     <row r="33" customHeight="1" spans="1:5">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="22"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="26"/>
     </row>
     <row r="34" customHeight="1" spans="1:5">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="22"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="26"/>
     </row>
     <row r="35" customHeight="1" spans="1:5">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="22"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="26"/>
     </row>
     <row r="36" customHeight="1" spans="1:5">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="20" t="s">
+      <c r="B36" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="22"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="26"/>
     </row>
     <row r="37" customHeight="1" spans="1:5">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B37" s="20" t="s">
+      <c r="B37" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="22"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="26"/>
     </row>
     <row r="38" customHeight="1" spans="1:5">
-      <c r="A38" s="19" t="s">
+      <c r="A38" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B38" s="20" t="s">
+      <c r="B38" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="22"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="26"/>
     </row>
     <row r="39" customHeight="1" spans="1:5">
-      <c r="A39" s="19" t="s">
+      <c r="A39" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B39" s="20" t="s">
+      <c r="B39" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="22"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="26"/>
     </row>
     <row r="40" customHeight="1" spans="1:5">
-      <c r="A40" s="19" t="s">
+      <c r="A40" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="22"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="26"/>
     </row>
     <row r="41" customHeight="1" spans="1:5">
-      <c r="A41" s="19" t="s">
+      <c r="A41" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B41" s="20" t="s">
+      <c r="B41" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="22"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="26"/>
     </row>
     <row r="42" customHeight="1" spans="1:5">
-      <c r="A42" s="19" t="s">
+      <c r="A42" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B42" s="20" t="s">
+      <c r="B42" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="22"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="26"/>
     </row>
     <row r="43" customHeight="1" spans="1:5">
-      <c r="A43" s="19" t="s">
+      <c r="A43" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B43" s="20" t="s">
+      <c r="B43" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="22"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="26"/>
     </row>
     <row r="44" customHeight="1" spans="1:5">
-      <c r="A44" s="23" t="s">
+      <c r="A44" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="26"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="30"/>
     </row>
     <row r="45" customHeight="1" spans="1:5">
-      <c r="A45" s="27" t="s">
+      <c r="A45" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="B45" s="28" t="s">
+      <c r="B45" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="C45" s="29"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="30"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="34"/>
     </row>
     <row r="46" customHeight="1" spans="1:5">
-      <c r="A46" s="27" t="s">
+      <c r="A46" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="B46" s="28" t="s">
+      <c r="B46" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="30"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="34"/>
     </row>
     <row r="47" customHeight="1" spans="1:5">
-      <c r="A47" s="27" t="s">
+      <c r="A47" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="B47" s="28" t="s">
+      <c r="B47" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="C47" s="29"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="30"/>
+      <c r="C47" s="33"/>
+      <c r="D47" s="33"/>
+      <c r="E47" s="34"/>
     </row>
     <row r="48" customHeight="1" spans="1:2">
-      <c r="A48" s="31"/>
-      <c r="B48" s="32" t="s">
+      <c r="A48" s="35"/>
+      <c r="B48" s="36" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="2:2">
-      <c r="B49" s="32" t="s">
+      <c r="B49" s="36" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="2:2">
-      <c r="B50" s="32" t="s">
+      <c r="B50" s="36" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="2:2">
-      <c r="B51" s="32" t="s">
+      <c r="B51" s="36" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="2:2">
-      <c r="B52" s="32" t="s">
+      <c r="B52" s="36" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="2:2">
-      <c r="B53" s="32" t="s">
+      <c r="B53" s="36" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="2:2">
-      <c r="B54" s="32" t="s">
+      <c r="B54" s="36" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2249,14 +2285,90 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" outlineLevelRow="4" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="10.875" customWidth="1"/>
+    <col min="2" max="2" width="30.5" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="32.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="3"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="篇一 扬帆起航：开发环境"/>
+    <hyperlink ref="B3" r:id="rId2" display="篇二 白璧微瑕-包管理器"/>
+    <hyperlink ref="B4" r:id="rId3" display="篇三 席卷八荒-Webpack（基础）"/>
+    <hyperlink ref="B5" r:id="rId4" display="篇四 席卷八荒-Webpack（进阶）"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/@SystematicLearning/LearningPlan.xlsx
+++ b/@SystematicLearning/LearningPlan.xlsx
@@ -4,19 +4,108 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19560" windowHeight="8460" activeTab="2"/>
+    <workbookView windowWidth="27870" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="总纲" sheetId="1" r:id="rId1"/>
     <sheet name="JS" sheetId="2" r:id="rId2"/>
     <sheet name="前端工程化" sheetId="3" r:id="rId3"/>
+    <sheet name="面试" sheetId="4" r:id="rId4"/>
+    <sheet name="收藏夹" sheetId="5" r:id="rId5"/>
+    <sheet name="Vue" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="118">
+  <si>
+    <t>Vue
+源码剖析</t>
+  </si>
+  <si>
+    <t>vue-router 原理及实现</t>
+  </si>
+  <si>
+    <t>参考：web全栈架构师进阶班课程大纲</t>
+  </si>
+  <si>
+    <t>vuex 设计思路与实现</t>
+  </si>
+  <si>
+    <t>手写 vue</t>
+  </si>
+  <si>
+    <t>vue 初始化流程</t>
+  </si>
+  <si>
+    <t>vue 1.x/2.x/3.x 响应式原理纵向分析</t>
+  </si>
+  <si>
+    <t>vue 异步更新策略</t>
+  </si>
+  <si>
+    <t>虚拟 DOM</t>
+  </si>
+  <si>
+    <t>diff 算法</t>
+  </si>
+  <si>
+    <t>模板编译器原理</t>
+  </si>
+  <si>
+    <t>常见指令工作原理</t>
+  </si>
+  <si>
+    <t>vue 组件化机制</t>
+  </si>
+  <si>
+    <t>vue 事件机制</t>
+  </si>
+  <si>
+    <t>vue 双向绑定原理</t>
+  </si>
+  <si>
+    <t>插槽实现原理</t>
+  </si>
+  <si>
+    <t>组件化
+实战</t>
+  </si>
+  <si>
+    <t>组件通信 N 种策略</t>
+  </si>
+  <si>
+    <t>内容分发技术</t>
+  </si>
+  <si>
+    <t>通用组件的设计和实现思路</t>
+  </si>
+  <si>
+    <t>组件配置、构造函数和实例的关系</t>
+  </si>
+  <si>
+    <t>渲染函数、挂载方法的本质和应用</t>
+  </si>
+  <si>
+    <t>递归组件、函数式组件的使用</t>
+  </si>
+  <si>
+    <t>KForm 表单组件实战</t>
+  </si>
+  <si>
+    <t>KTable 表格组件实战</t>
+  </si>
+  <si>
+    <t>全局弹窗类组件实战</t>
+  </si>
+  <si>
+    <t>树形菜单组件实战</t>
+  </si>
+  <si>
+    <t>组件测试</t>
+  </si>
   <si>
     <t>文章分类</t>
   </si>
@@ -229,6 +318,63 @@
   </si>
   <si>
     <t>篇四 席卷八荒-Webpack（进阶）</t>
+  </si>
+  <si>
+    <t>未分类文章</t>
+  </si>
+  <si>
+    <t>JavaScript 基础</t>
+  </si>
+  <si>
+    <t>2万字！90个前端开发面试必问基础大总结</t>
+  </si>
+  <si>
+    <t>25 个最基本的 JavaScript 面试问题及答案</t>
+  </si>
+  <si>
+    <t>一名【合格】前端工程师的自检清单</t>
+  </si>
+  <si>
+    <t>前端知识点 来自掘金官方</t>
+  </si>
+  <si>
+    <t>Internet</t>
+  </si>
+  <si>
+    <t>详解三次握手和四次挥手 — 遇到心动的女孩时，如何去把握？</t>
+  </si>
+  <si>
+    <t>面试经常被问的web安全问题</t>
+  </si>
+  <si>
+    <t>浏览器原理</t>
+  </si>
+  <si>
+    <t>前端都该懂的浏览器工作原理，你懂了吗？</t>
+  </si>
+  <si>
+    <t>操作dom影响性能的原因</t>
+  </si>
+  <si>
+    <t>面试经验与总结</t>
+  </si>
+  <si>
+    <t>拼多多和酷家乐面试总结(已拿offer)</t>
+  </si>
+  <si>
+    <t>为什么会堆栈溢出问题？</t>
+  </si>
+  <si>
+    <t>IaaS、PaaS、SaaS服务模式的区别</t>
+  </si>
+  <si>
+    <t>面试题</t>
+  </si>
+  <si>
+    <t>vue常见面试题</t>
+  </si>
+  <si>
+    <t>Vue 最全知识点，面试必备，覆盖 Vue 3.0</t>
   </si>
 </sst>
 </file>
@@ -237,11 +383,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -312,15 +458,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -335,6 +497,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -364,13 +533,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -380,7 +542,23 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -388,15 +566,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -425,14 +595,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -441,14 +603,14 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -493,49 +655,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -545,140 +845,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="24">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -875,25 +1043,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7030A0"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7030A0"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7030A0"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF7030A0"/>
       </bottom>
       <diagonal/>
     </border>
@@ -909,6 +1068,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -930,15 +1104,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -951,8 +1116,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -971,6 +1136,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -979,10 +1162,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -991,146 +1174,149 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1140,9 +1326,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1232,6 +1415,33 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1581,17 +1791,184 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="B1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="24" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="24" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="16384" width="9.625" customWidth="1"/>
+    <col min="1" max="2" width="9.625" customWidth="1"/>
+    <col min="3" max="3" width="37.625" customWidth="1"/>
+    <col min="4" max="16384" width="9.625" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" customHeight="1" spans="2:5">
+      <c r="B1" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="2:3">
+      <c r="B2" s="39"/>
+      <c r="C2" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="2:3">
+      <c r="B3" s="39"/>
+      <c r="C3" s="40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="2:3">
+      <c r="B4" s="39"/>
+      <c r="C4" s="41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="2:3">
+      <c r="B5" s="39"/>
+      <c r="C5" s="38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="2:3">
+      <c r="B6" s="39"/>
+      <c r="C6" s="41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="2:3">
+      <c r="B7" s="39"/>
+      <c r="C7" s="38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="2:3">
+      <c r="B8" s="39"/>
+      <c r="C8" s="38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="2:3">
+      <c r="B9" s="39"/>
+      <c r="C9" s="41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="2:3">
+      <c r="B10" s="39"/>
+      <c r="C10" s="41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="2:3">
+      <c r="B11" s="39"/>
+      <c r="C11" s="38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="2:3">
+      <c r="B12" s="39"/>
+      <c r="C12" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="2:3">
+      <c r="B13" s="39"/>
+      <c r="C13" s="38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="2:3">
+      <c r="B14" s="39"/>
+      <c r="C14" s="41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="2:3">
+      <c r="B15" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="2:3">
+      <c r="B16" s="44"/>
+      <c r="C16" s="43" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="2:3">
+      <c r="B17" s="44"/>
+      <c r="C17" s="43" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="2:3">
+      <c r="B18" s="44"/>
+      <c r="C18" s="43" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="2:3">
+      <c r="B19" s="44"/>
+      <c r="C19" s="43" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="2:3">
+      <c r="B20" s="44"/>
+      <c r="C20" s="43" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="2:3">
+      <c r="B21" s="44"/>
+      <c r="C21" s="45" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="2:3">
+      <c r="B22" s="44"/>
+      <c r="C22" s="45" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="2:3">
+      <c r="B23" s="44"/>
+      <c r="C23" s="45" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="2:3">
+      <c r="B24" s="44"/>
+      <c r="C24" s="45" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="2:3">
+      <c r="B25" s="44"/>
+      <c r="C25" s="43" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:B14"/>
+    <mergeCell ref="B15:B25"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E1" r:id="rId1" display="参考：web全栈架构师进阶班课程大纲"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1609,36 +1986,36 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="24" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="23.125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="62.75" style="6" customWidth="1"/>
-    <col min="3" max="4" width="10.625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="42.5" style="6" customWidth="1"/>
-    <col min="6" max="16384" width="10.625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="23.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="62.75" style="3" customWidth="1"/>
+    <col min="3" max="4" width="10.625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="42.5" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="10.625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
+      <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="2" customFormat="1" customHeight="1" spans="1:5">
       <c r="A2" s="7" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="10"/>
@@ -1646,10 +2023,10 @@
     </row>
     <row r="3" customFormat="1" customHeight="1" spans="1:5">
       <c r="A3" s="7" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="10"/>
@@ -1657,10 +2034,10 @@
     </row>
     <row r="4" customFormat="1" customHeight="1" spans="1:5">
       <c r="A4" s="7" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="10"/>
@@ -1668,10 +2045,10 @@
     </row>
     <row r="5" customFormat="1" customHeight="1" spans="1:5">
       <c r="A5" s="7" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="10"/>
@@ -1679,10 +2056,10 @@
     </row>
     <row r="6" customFormat="1" customHeight="1" spans="1:5">
       <c r="A6" s="7" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="10"/>
@@ -1690,10 +2067,10 @@
     </row>
     <row r="7" customFormat="1" customHeight="1" spans="1:5">
       <c r="A7" s="7" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="10"/>
@@ -1701,10 +2078,10 @@
     </row>
     <row r="8" customFormat="1" customHeight="1" spans="1:5">
       <c r="A8" s="7" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="10"/>
@@ -1712,10 +2089,10 @@
     </row>
     <row r="9" customFormat="1" customHeight="1" spans="1:5">
       <c r="A9" s="11" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="14"/>
@@ -1723,10 +2100,10 @@
     </row>
     <row r="10" customFormat="1" customHeight="1" spans="1:5">
       <c r="A10" s="15" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="18"/>
@@ -1734,10 +2111,10 @@
     </row>
     <row r="11" customFormat="1" customHeight="1" spans="1:5">
       <c r="A11" s="15" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="18"/>
@@ -1745,10 +2122,10 @@
     </row>
     <row r="12" customFormat="1" customHeight="1" spans="1:5">
       <c r="A12" s="15" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="18"/>
@@ -1756,10 +2133,10 @@
     </row>
     <row r="13" customFormat="1" customHeight="1" spans="1:5">
       <c r="A13" s="15" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="18"/>
@@ -1767,10 +2144,10 @@
     </row>
     <row r="14" customFormat="1" customHeight="1" spans="1:5">
       <c r="A14" s="15" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="18"/>
@@ -1778,10 +2155,10 @@
     </row>
     <row r="15" customFormat="1" customHeight="1" spans="1:5">
       <c r="A15" s="15" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="18"/>
@@ -1789,10 +2166,10 @@
     </row>
     <row r="16" customFormat="1" customHeight="1" spans="1:5">
       <c r="A16" s="15" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="C16" s="17"/>
       <c r="D16" s="18"/>
@@ -1800,10 +2177,10 @@
     </row>
     <row r="17" customFormat="1" customHeight="1" spans="1:5">
       <c r="A17" s="15" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="18"/>
@@ -1811,10 +2188,10 @@
     </row>
     <row r="18" customFormat="1" customHeight="1" spans="1:5">
       <c r="A18" s="15" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="18"/>
@@ -1822,10 +2199,10 @@
     </row>
     <row r="19" customFormat="1" customHeight="1" spans="1:5">
       <c r="A19" s="15" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="18"/>
@@ -1833,10 +2210,10 @@
     </row>
     <row r="20" customFormat="1" customHeight="1" spans="1:5">
       <c r="A20" s="15" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="18"/>
@@ -1844,10 +2221,10 @@
     </row>
     <row r="21" customFormat="1" customHeight="1" spans="1:5">
       <c r="A21" s="15" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="18"/>
@@ -1855,10 +2232,10 @@
     </row>
     <row r="22" customFormat="1" customHeight="1" spans="1:5">
       <c r="A22" s="15" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="18"/>
@@ -1866,10 +2243,10 @@
     </row>
     <row r="23" customFormat="1" customHeight="1" spans="1:5">
       <c r="A23" s="19" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="C23" s="21"/>
       <c r="D23" s="22"/>
@@ -1877,10 +2254,10 @@
     </row>
     <row r="24" customHeight="1" spans="1:5">
       <c r="A24" s="23" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
@@ -1888,10 +2265,10 @@
     </row>
     <row r="25" customHeight="1" spans="1:5">
       <c r="A25" s="23" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
@@ -1899,10 +2276,10 @@
     </row>
     <row r="26" customHeight="1" spans="1:5">
       <c r="A26" s="23" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
@@ -1910,10 +2287,10 @@
     </row>
     <row r="27" customHeight="1" spans="1:5">
       <c r="A27" s="23" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>
@@ -1921,10 +2298,10 @@
     </row>
     <row r="28" customHeight="1" spans="1:5">
       <c r="A28" s="23" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
@@ -1932,10 +2309,10 @@
     </row>
     <row r="29" customHeight="1" spans="1:5">
       <c r="A29" s="23" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
@@ -1943,10 +2320,10 @@
     </row>
     <row r="30" customHeight="1" spans="1:5">
       <c r="A30" s="23" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
@@ -1954,10 +2331,10 @@
     </row>
     <row r="31" customHeight="1" spans="1:5">
       <c r="A31" s="23" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
@@ -1965,10 +2342,10 @@
     </row>
     <row r="32" customHeight="1" spans="1:5">
       <c r="A32" s="23" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
@@ -1976,10 +2353,10 @@
     </row>
     <row r="33" customHeight="1" spans="1:5">
       <c r="A33" s="23" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="C33" s="25"/>
       <c r="D33" s="25"/>
@@ -1987,10 +2364,10 @@
     </row>
     <row r="34" customHeight="1" spans="1:5">
       <c r="A34" s="23" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="C34" s="25"/>
       <c r="D34" s="25"/>
@@ -1998,10 +2375,10 @@
     </row>
     <row r="35" customHeight="1" spans="1:5">
       <c r="A35" s="23" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
@@ -2009,10 +2386,10 @@
     </row>
     <row r="36" customHeight="1" spans="1:5">
       <c r="A36" s="23" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
@@ -2020,10 +2397,10 @@
     </row>
     <row r="37" customHeight="1" spans="1:5">
       <c r="A37" s="23" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
@@ -2031,10 +2408,10 @@
     </row>
     <row r="38" customHeight="1" spans="1:5">
       <c r="A38" s="23" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
@@ -2042,10 +2419,10 @@
     </row>
     <row r="39" customHeight="1" spans="1:5">
       <c r="A39" s="23" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="C39" s="25"/>
       <c r="D39" s="25"/>
@@ -2053,10 +2430,10 @@
     </row>
     <row r="40" customHeight="1" spans="1:5">
       <c r="A40" s="23" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
@@ -2064,10 +2441,10 @@
     </row>
     <row r="41" customHeight="1" spans="1:5">
       <c r="A41" s="23" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="C41" s="25"/>
       <c r="D41" s="25"/>
@@ -2075,10 +2452,10 @@
     </row>
     <row r="42" customHeight="1" spans="1:5">
       <c r="A42" s="23" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="C42" s="25"/>
       <c r="D42" s="25"/>
@@ -2086,10 +2463,10 @@
     </row>
     <row r="43" customHeight="1" spans="1:5">
       <c r="A43" s="23" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="C43" s="25"/>
       <c r="D43" s="25"/>
@@ -2097,10 +2474,10 @@
     </row>
     <row r="44" customHeight="1" spans="1:5">
       <c r="A44" s="27" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="B44" s="28" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="C44" s="29"/>
       <c r="D44" s="29"/>
@@ -2108,10 +2485,10 @@
     </row>
     <row r="45" customHeight="1" spans="1:5">
       <c r="A45" s="31" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="B45" s="32" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="C45" s="33"/>
       <c r="D45" s="33"/>
@@ -2119,10 +2496,10 @@
     </row>
     <row r="46" customHeight="1" spans="1:5">
       <c r="A46" s="31" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="B46" s="32" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="C46" s="33"/>
       <c r="D46" s="33"/>
@@ -2130,10 +2507,10 @@
     </row>
     <row r="47" customHeight="1" spans="1:5">
       <c r="A47" s="31" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="B47" s="32" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="C47" s="33"/>
       <c r="D47" s="33"/>
@@ -2142,37 +2519,37 @@
     <row r="48" customHeight="1" spans="1:2">
       <c r="A48" s="35"/>
       <c r="B48" s="36" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="2:2">
       <c r="B49" s="36" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="2:2">
       <c r="B50" s="36" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="2:2">
       <c r="B51" s="36" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="2:2">
       <c r="B52" s="36" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="2:2">
       <c r="B53" s="36" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="2:2">
       <c r="B54" s="36" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="1:1">
@@ -2287,80 +2664,80 @@
   <sheetPr/>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="10.875" customWidth="1"/>
     <col min="2" max="2" width="30.5" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1"/>
+    <col min="4" max="4" width="9" style="3"/>
     <col min="5" max="5" width="32.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:5">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
+      <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:5">
-      <c r="A2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" s="3"/>
+      <c r="A2" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" customHeight="1" spans="1:5">
-      <c r="A3" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="3"/>
+      <c r="A3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" customHeight="1" spans="1:5">
-      <c r="A4" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="3"/>
+      <c r="A4" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" customHeight="1" spans="1:5">
-      <c r="A5" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="3"/>
+      <c r="A5" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2373,4 +2750,232 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="17.75" customWidth="1"/>
+    <col min="2" max="2" width="55.5" customWidth="1"/>
+    <col min="8" max="8" width="37.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:2">
+      <c r="A2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:8">
+      <c r="A3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="8:8">
+      <c r="H4" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:2">
+      <c r="A5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:2">
+      <c r="A6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:2">
+      <c r="A8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:2">
+      <c r="A9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="2:2">
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:2">
+      <c r="A11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="2万字！90个前端开发面试必问基础大总结"/>
+    <hyperlink ref="H3" r:id="rId2" display="一名【合格】前端工程师的自检清单"/>
+    <hyperlink ref="B3" r:id="rId3" display="25 个最基本的 JavaScript 面试问题及答案"/>
+    <hyperlink ref="B5" r:id="rId4" display="详解三次握手和四次挥手 — 遇到心动的女孩时，如何去把握？"/>
+    <hyperlink ref="H4" r:id="rId5" display="前端知识点 来自掘金官方"/>
+    <hyperlink ref="B8" r:id="rId6" display="前端都该懂的浏览器工作原理，你懂了吗？"/>
+    <hyperlink ref="B11" r:id="rId7" display="拼多多和酷家乐面试总结(已拿offer)"/>
+    <hyperlink ref="B9" r:id="rId8" display="操作dom影响性能的原因"/>
+    <hyperlink ref="B6" r:id="rId9" display="面试经常被问的web安全问题"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" outlineLevelRow="2" outlineLevelCol="4"/>
+  <cols>
+    <col min="2" max="2" width="31.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="2:2">
+      <c r="B2" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="2:2">
+      <c r="B3" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="为什么会堆栈溢出问题？"/>
+    <hyperlink ref="B3" r:id="rId2" display="IaaS、PaaS、SaaS服务模式的区别"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" outlineLevelRow="3" outlineLevelCol="4"/>
+  <cols>
+    <col min="2" max="2" width="38.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:2">
+      <c r="A3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:2">
+      <c r="A4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" display="vue常见面试题"/>
+    <hyperlink ref="B4" r:id="rId2" display="Vue 最全知识点，面试必备，覆盖 Vue 3.0"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/@SystematicLearning/LearningPlan.xlsx
+++ b/@SystematicLearning/LearningPlan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27870" windowHeight="13140"/>
+    <workbookView windowWidth="19560" windowHeight="8460" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="总纲" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,15 @@
     <sheet name="面试" sheetId="4" r:id="rId4"/>
     <sheet name="收藏夹" sheetId="5" r:id="rId5"/>
     <sheet name="Vue" sheetId="6" r:id="rId6"/>
+    <sheet name="Node" sheetId="7" r:id="rId7"/>
+    <sheet name="算法" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="143">
   <si>
     <t>Vue
 源码剖析</t>
@@ -302,6 +304,9 @@
     <t>import 和require的区别(超级无敌详细版)</t>
   </si>
   <si>
+    <t>大部分人都会做错的经典 JS 闭包面试题</t>
+  </si>
+  <si>
     <t>前端工程化</t>
   </si>
   <si>
@@ -320,10 +325,37 @@
     <t>篇四 席卷八荒-Webpack（进阶）</t>
   </si>
   <si>
+    <t>重点内容</t>
+  </si>
+  <si>
     <t>未分类文章</t>
   </si>
   <si>
-    <t>JavaScript 基础</t>
+    <t>挑战一轮大厂后的面试总结</t>
+  </si>
+  <si>
+    <t>挑战一轮大厂后的面试总结 (含六个方向) - javascript 篇(万字长文)</t>
+  </si>
+  <si>
+    <t>挑战一轮大厂后的面试总结 (含六个方向) - nodejs 篇</t>
+  </si>
+  <si>
+    <t>一名【合格】前端工程师的自检清单</t>
+  </si>
+  <si>
+    <t>挑战一轮大厂后的面试总结 (含六个方向) - 浏览器 篇</t>
+  </si>
+  <si>
+    <t>前端知识点 来自掘金官方</t>
+  </si>
+  <si>
+    <t>挑战一轮大厂后的面试总结 (含六个方向) - css 篇</t>
+  </si>
+  <si>
+    <t>挑战一轮大厂后的面试总结 - 框架(vue)和工程相关</t>
+  </si>
+  <si>
+    <t>JavaScript 面试题</t>
   </si>
   <si>
     <t>2万字！90个前端开发面试必问基础大总结</t>
@@ -332,10 +364,19 @@
     <t>25 个最基本的 JavaScript 面试问题及答案</t>
   </si>
   <si>
-    <t>一名【合格】前端工程师的自检清单</t>
-  </si>
-  <si>
-    <t>前端知识点 来自掘金官方</t>
+    <t>这儿有20道大厂面试题等你查收</t>
+  </si>
+  <si>
+    <t>浏览器原理</t>
+  </si>
+  <si>
+    <t>前端都该懂的浏览器工作原理，你懂了吗？</t>
+  </si>
+  <si>
+    <t>操作dom影响性能的原因</t>
+  </si>
+  <si>
+    <t>深入理解浏览器的缓存机制</t>
   </si>
   <si>
     <t>Internet</t>
@@ -347,27 +388,45 @@
     <t>面试经常被问的web安全问题</t>
   </si>
   <si>
-    <t>浏览器原理</t>
-  </si>
-  <si>
-    <t>前端都该懂的浏览器工作原理，你懂了吗？</t>
-  </si>
-  <si>
-    <t>操作dom影响性能的原因</t>
-  </si>
-  <si>
     <t>面试经验与总结</t>
   </si>
   <si>
     <t>拼多多和酷家乐面试总结(已拿offer)</t>
   </si>
   <si>
+    <t>前端工程师面试复习思维图，送福利！</t>
+  </si>
+  <si>
+    <t>热乎的滴滴前端面经「现在实习生面试也不简单呀」</t>
+  </si>
+  <si>
+    <t>蚂蚁、字节、滴滴面试经历总结(都已过)</t>
+  </si>
+  <si>
     <t>为什么会堆栈溢出问题？</t>
   </si>
   <si>
     <t>IaaS、PaaS、SaaS服务模式的区别</t>
   </si>
   <si>
+    <t>15年程序员经验分享：40个改变你编程技能的小技巧！</t>
+  </si>
+  <si>
+    <t>太骚了！GitHub上重磅开源爬虫工具箱，竟然可以爬小电影！</t>
+  </si>
+  <si>
+    <t>H5秒开方案思考与实践</t>
+  </si>
+  <si>
+    <t>如何 1 人 5 天开发完 3D 数据可视化大屏，超炫酷！</t>
+  </si>
+  <si>
+    <t>【实战入门】你不知道的 VSCode 插件开发教程</t>
+  </si>
+  <si>
+    <t>使用这些思路和技巧，读懂高质量源码再也不难！</t>
+  </si>
+  <si>
     <t>面试题</t>
   </si>
   <si>
@@ -375,6 +434,24 @@
   </si>
   <si>
     <t>Vue 最全知识点，面试必备，覆盖 Vue 3.0</t>
+  </si>
+  <si>
+    <t>面试官：聊聊对Vue.js框架的理解</t>
+  </si>
+  <si>
+    <t>知识点梳理</t>
+  </si>
+  <si>
+    <t>Vue 超清晰思维导图，带你详细梳理知识点</t>
+  </si>
+  <si>
+    <t>未归类文章</t>
+  </si>
+  <si>
+    <t>写给前端的 Nest.js 教程——10分钟上手后端接口开发</t>
+  </si>
+  <si>
+    <t>算法模板</t>
   </si>
 </sst>
 </file>
@@ -382,12 +459,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -407,6 +484,44 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.5"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="5" tint="-0.5"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -475,21 +590,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -497,45 +598,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -550,14 +612,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -566,7 +620,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -574,7 +628,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -596,9 +650,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -609,8 +693,31 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="40">
+  <fills count="45">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -631,6 +738,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.4"/>
         <bgColor theme="8"/>
       </patternFill>
@@ -661,187 +798,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -870,7 +1007,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color theme="8"/>
+      </left>
       <right style="thin">
         <color theme="8"/>
       </right>
@@ -881,9 +1020,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="8"/>
-      </left>
+      <left/>
       <right style="thin">
         <color theme="8"/>
       </right>
@@ -1057,32 +1194,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1098,17 +1214,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1137,11 +1242,43 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1162,10 +1299,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1174,16 +1311,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1192,119 +1329,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1314,6 +1451,111 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="10" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="10" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1326,121 +1568,121 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="10" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="13" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="13" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="10" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1793,7 +2035,7 @@
   <sheetPr/>
   <dimension ref="B1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -1805,10 +2047,10 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="2:5">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="73" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -1816,148 +2058,148 @@
       </c>
     </row>
     <row r="2" customHeight="1" spans="2:3">
-      <c r="B2" s="39"/>
-      <c r="C2" s="38" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="73" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:3">
-      <c r="B3" s="39"/>
-      <c r="C3" s="40" t="s">
+      <c r="B3" s="74"/>
+      <c r="C3" s="75" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:3">
-      <c r="B4" s="39"/>
-      <c r="C4" s="41" t="s">
+      <c r="B4" s="74"/>
+      <c r="C4" s="76" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:3">
-      <c r="B5" s="39"/>
-      <c r="C5" s="38" t="s">
+      <c r="B5" s="74"/>
+      <c r="C5" s="73" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:3">
-      <c r="B6" s="39"/>
-      <c r="C6" s="41" t="s">
+      <c r="B6" s="74"/>
+      <c r="C6" s="76" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:3">
-      <c r="B7" s="39"/>
-      <c r="C7" s="38" t="s">
+      <c r="B7" s="74"/>
+      <c r="C7" s="73" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:3">
-      <c r="B8" s="39"/>
-      <c r="C8" s="38" t="s">
+      <c r="B8" s="74"/>
+      <c r="C8" s="73" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:3">
-      <c r="B9" s="39"/>
-      <c r="C9" s="41" t="s">
+      <c r="B9" s="74"/>
+      <c r="C9" s="76" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:3">
-      <c r="B10" s="39"/>
-      <c r="C10" s="41" t="s">
+      <c r="B10" s="74"/>
+      <c r="C10" s="76" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:3">
-      <c r="B11" s="39"/>
-      <c r="C11" s="38" t="s">
+      <c r="B11" s="74"/>
+      <c r="C11" s="73" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:3">
-      <c r="B12" s="39"/>
-      <c r="C12" s="41" t="s">
+      <c r="B12" s="74"/>
+      <c r="C12" s="76" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:3">
-      <c r="B13" s="39"/>
-      <c r="C13" s="38" t="s">
+      <c r="B13" s="74"/>
+      <c r="C13" s="73" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:3">
-      <c r="B14" s="39"/>
-      <c r="C14" s="41" t="s">
+      <c r="B14" s="74"/>
+      <c r="C14" s="76" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="2:3">
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="43" t="s">
+      <c r="C15" s="78" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="2:3">
-      <c r="B16" s="44"/>
-      <c r="C16" s="43" t="s">
+      <c r="B16" s="79"/>
+      <c r="C16" s="78" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:3">
-      <c r="B17" s="44"/>
-      <c r="C17" s="43" t="s">
+      <c r="B17" s="79"/>
+      <c r="C17" s="78" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:3">
-      <c r="B18" s="44"/>
-      <c r="C18" s="43" t="s">
+      <c r="B18" s="79"/>
+      <c r="C18" s="78" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:3">
-      <c r="B19" s="44"/>
-      <c r="C19" s="43" t="s">
+      <c r="B19" s="79"/>
+      <c r="C19" s="78" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:3">
-      <c r="B20" s="44"/>
-      <c r="C20" s="43" t="s">
+      <c r="B20" s="79"/>
+      <c r="C20" s="78" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:3">
-      <c r="B21" s="44"/>
-      <c r="C21" s="45" t="s">
+      <c r="B21" s="79"/>
+      <c r="C21" s="80" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="2:3">
-      <c r="B22" s="44"/>
-      <c r="C22" s="45" t="s">
+      <c r="B22" s="79"/>
+      <c r="C22" s="80" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="2:3">
-      <c r="B23" s="44"/>
-      <c r="C23" s="45" t="s">
+      <c r="B23" s="79"/>
+      <c r="C23" s="80" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="2:3">
-      <c r="B24" s="44"/>
-      <c r="C24" s="45" t="s">
+      <c r="B24" s="79"/>
+      <c r="C24" s="80" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="2:3">
-      <c r="B25" s="44"/>
-      <c r="C25" s="43" t="s">
+      <c r="B25" s="79"/>
+      <c r="C25" s="78" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1980,17 +2222,17 @@
   <sheetPr/>
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E1"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="24" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="23.125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="62.75" style="3" customWidth="1"/>
-    <col min="3" max="4" width="10.625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="42.5" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="10.625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="23.125" style="38" customWidth="1"/>
+    <col min="2" max="2" width="62.75" style="38" customWidth="1"/>
+    <col min="3" max="4" width="10.625" style="38" customWidth="1"/>
+    <col min="5" max="5" width="42.5" style="38" customWidth="1"/>
+    <col min="6" max="16384" width="10.625" style="38" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" customHeight="1" spans="1:5">
@@ -2011,545 +2253,550 @@
       </c>
     </row>
     <row r="2" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
     </row>
     <row r="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
     </row>
     <row r="4" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
     </row>
     <row r="5" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
     </row>
     <row r="6" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
     </row>
     <row r="7" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
     </row>
     <row r="8" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
     </row>
     <row r="9" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
     </row>
     <row r="10" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
     </row>
     <row r="11" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
     </row>
     <row r="12" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
     </row>
     <row r="13" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
     </row>
     <row r="14" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
     </row>
     <row r="15" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
     </row>
     <row r="16" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
     </row>
     <row r="17" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
     </row>
     <row r="18" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
     </row>
     <row r="19" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
     </row>
     <row r="20" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
     </row>
     <row r="21" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
     </row>
     <row r="22" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
     </row>
     <row r="23" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
     </row>
     <row r="24" customHeight="1" spans="1:5">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="26"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="61"/>
     </row>
     <row r="25" customHeight="1" spans="1:5">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="26"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="61"/>
     </row>
     <row r="26" customHeight="1" spans="1:5">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="26"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="61"/>
     </row>
     <row r="27" customHeight="1" spans="1:5">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="26"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="61"/>
     </row>
     <row r="28" customHeight="1" spans="1:5">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="26"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="61"/>
     </row>
     <row r="29" customHeight="1" spans="1:5">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="26"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="61"/>
     </row>
     <row r="30" customHeight="1" spans="1:5">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="26"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="61"/>
     </row>
     <row r="31" customHeight="1" spans="1:5">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="B31" s="24" t="s">
+      <c r="B31" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="26"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="61"/>
     </row>
     <row r="32" customHeight="1" spans="1:5">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="B32" s="24" t="s">
+      <c r="B32" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="26"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="61"/>
     </row>
     <row r="33" customHeight="1" spans="1:5">
-      <c r="A33" s="23" t="s">
+      <c r="A33" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="B33" s="24" t="s">
+      <c r="B33" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="26"/>
+      <c r="C33" s="60"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="61"/>
     </row>
     <row r="34" customHeight="1" spans="1:5">
-      <c r="A34" s="23" t="s">
+      <c r="A34" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="B34" s="24" t="s">
+      <c r="B34" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="26"/>
+      <c r="C34" s="60"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="61"/>
     </row>
     <row r="35" customHeight="1" spans="1:5">
-      <c r="A35" s="23" t="s">
+      <c r="A35" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="B35" s="24" t="s">
+      <c r="B35" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="26"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="61"/>
     </row>
     <row r="36" customHeight="1" spans="1:5">
-      <c r="A36" s="23" t="s">
+      <c r="A36" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="B36" s="24" t="s">
+      <c r="B36" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="26"/>
+      <c r="C36" s="60"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="61"/>
     </row>
     <row r="37" customHeight="1" spans="1:5">
-      <c r="A37" s="23" t="s">
+      <c r="A37" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="B37" s="24" t="s">
+      <c r="B37" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="26"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="61"/>
     </row>
     <row r="38" customHeight="1" spans="1:5">
-      <c r="A38" s="23" t="s">
+      <c r="A38" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="B38" s="24" t="s">
+      <c r="B38" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="26"/>
+      <c r="C38" s="60"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="61"/>
     </row>
     <row r="39" customHeight="1" spans="1:5">
-      <c r="A39" s="23" t="s">
+      <c r="A39" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="B39" s="24" t="s">
+      <c r="B39" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="26"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="61"/>
     </row>
     <row r="40" customHeight="1" spans="1:5">
-      <c r="A40" s="23" t="s">
+      <c r="A40" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="B40" s="24" t="s">
+      <c r="B40" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="26"/>
+      <c r="C40" s="60"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="61"/>
     </row>
     <row r="41" customHeight="1" spans="1:5">
-      <c r="A41" s="23" t="s">
+      <c r="A41" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="B41" s="24" t="s">
+      <c r="B41" s="59" t="s">
         <v>75</v>
       </c>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="26"/>
+      <c r="C41" s="60"/>
+      <c r="D41" s="60"/>
+      <c r="E41" s="61"/>
     </row>
     <row r="42" customHeight="1" spans="1:5">
-      <c r="A42" s="23" t="s">
+      <c r="A42" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="24" t="s">
+      <c r="B42" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="26"/>
+      <c r="C42" s="60"/>
+      <c r="D42" s="60"/>
+      <c r="E42" s="61"/>
     </row>
     <row r="43" customHeight="1" spans="1:5">
-      <c r="A43" s="23" t="s">
+      <c r="A43" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="26"/>
+      <c r="C43" s="60"/>
+      <c r="D43" s="60"/>
+      <c r="E43" s="61"/>
     </row>
     <row r="44" customHeight="1" spans="1:5">
-      <c r="A44" s="27" t="s">
+      <c r="A44" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="B44" s="28" t="s">
+      <c r="B44" s="63" t="s">
         <v>79</v>
       </c>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="30"/>
+      <c r="C44" s="64"/>
+      <c r="D44" s="64"/>
+      <c r="E44" s="65"/>
     </row>
     <row r="45" customHeight="1" spans="1:5">
-      <c r="A45" s="31" t="s">
+      <c r="A45" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="B45" s="32" t="s">
+      <c r="B45" s="67" t="s">
         <v>81</v>
       </c>
-      <c r="C45" s="33"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="34"/>
+      <c r="C45" s="68"/>
+      <c r="D45" s="68"/>
+      <c r="E45" s="69"/>
     </row>
     <row r="46" customHeight="1" spans="1:5">
-      <c r="A46" s="31" t="s">
+      <c r="A46" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="B46" s="32" t="s">
+      <c r="B46" s="67" t="s">
         <v>83</v>
       </c>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="34"/>
+      <c r="C46" s="68"/>
+      <c r="D46" s="68"/>
+      <c r="E46" s="69"/>
     </row>
     <row r="47" customHeight="1" spans="1:5">
-      <c r="A47" s="31" t="s">
+      <c r="A47" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="B47" s="32" t="s">
+      <c r="B47" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="C47" s="33"/>
-      <c r="D47" s="33"/>
-      <c r="E47" s="34"/>
+      <c r="C47" s="68"/>
+      <c r="D47" s="68"/>
+      <c r="E47" s="69"/>
     </row>
     <row r="48" customHeight="1" spans="1:2">
-      <c r="A48" s="35"/>
-      <c r="B48" s="36" t="s">
+      <c r="A48" s="70"/>
+      <c r="B48" s="71" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="2:2">
-      <c r="B49" s="36" t="s">
+      <c r="B49" s="71" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="2:2">
-      <c r="B50" s="36" t="s">
+      <c r="B50" s="71" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="2:2">
-      <c r="B51" s="36" t="s">
+      <c r="B51" s="71" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="2:2">
-      <c r="B52" s="36" t="s">
+      <c r="B52" s="71" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="2:2">
-      <c r="B53" s="36" t="s">
+      <c r="B53" s="71" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="2:2">
-      <c r="B54" s="36" t="s">
+      <c r="B54" s="71" t="s">
         <v>92</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="2:2">
+      <c r="B55" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="1:1">
@@ -2652,6 +2899,7 @@
     <hyperlink ref="B45" r:id="rId54" display="Thunk 函数的含义和用法"/>
     <hyperlink ref="B46" r:id="rId55" display="co 函数库的含义和用法"/>
     <hyperlink ref="B47" r:id="rId56" display="async 函数的含义和用法"/>
+    <hyperlink ref="B55" r:id="rId57" display="大部分人都会做错的经典 JS 闭包面试题"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2672,7 +2920,7 @@
   <cols>
     <col min="1" max="1" width="10.875" customWidth="1"/>
     <col min="2" max="2" width="30.5" customWidth="1"/>
-    <col min="4" max="4" width="9" style="3"/>
+    <col min="4" max="4" width="9" style="38"/>
     <col min="5" max="5" width="32.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2694,50 +2942,50 @@
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:5">
-      <c r="A2" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" s="39"/>
     </row>
     <row r="3" customHeight="1" spans="1:5">
-      <c r="A3" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="4"/>
+      <c r="A3" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="39"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="39"/>
     </row>
     <row r="4" customHeight="1" spans="1:5">
-      <c r="A4" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="4"/>
+      <c r="A4" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="39"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="39"/>
     </row>
     <row r="5" customHeight="1" spans="1:5">
-      <c r="A5" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="4"/>
+      <c r="A5" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="39"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="39"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2755,20 +3003,22 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.75" customWidth="1"/>
-    <col min="2" max="2" width="55.5" customWidth="1"/>
-    <col min="8" max="8" width="37.875" customWidth="1"/>
+    <col min="1" max="1" width="23.125" customWidth="1"/>
+    <col min="2" max="2" width="62.5" customWidth="1"/>
+    <col min="9" max="9" width="37.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:8">
+    <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -2782,90 +3032,280 @@
         <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:2">
-      <c r="A2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:8">
-      <c r="A3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="2" customHeight="1" spans="1:6">
+      <c r="A2" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="4" customHeight="1" spans="8:8">
-      <c r="H4" s="2" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:9">
+      <c r="A3" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:2">
-      <c r="A5" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="I3" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B5" s="2" t="s">
+    </row>
+    <row r="4" customHeight="1" spans="1:9">
+      <c r="A4" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:2">
-      <c r="A6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="I4" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:2">
-      <c r="A8" t="s">
+    <row r="5" customHeight="1" spans="1:9">
+      <c r="A5" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:6">
+      <c r="A6" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:2">
-      <c r="A9" t="s">
-        <v>108</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:6">
+      <c r="A7" s="11" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="10" customHeight="1" spans="2:2">
-      <c r="B10" s="2"/>
-    </row>
-    <row r="11" customHeight="1" spans="1:2">
-      <c r="A11" t="s">
+      <c r="B7" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:6">
+      <c r="A8" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" s="15" t="s">
         <v>112</v>
       </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+    </row>
+    <row r="9" customHeight="1" spans="1:6">
+      <c r="A9" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:6">
+      <c r="A10" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:6">
+      <c r="A11" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+    </row>
+    <row r="12" customHeight="1" spans="1:6">
+      <c r="A12" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:6">
+      <c r="A13" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+    </row>
+    <row r="14" customHeight="1" spans="1:6">
+      <c r="A14" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="21"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+    </row>
+    <row r="15" customHeight="1" spans="1:6">
+      <c r="A15" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+    </row>
+    <row r="16" customHeight="1" spans="1:6">
+      <c r="A16" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+    </row>
+    <row r="17" customHeight="1" spans="1:6">
+      <c r="A17" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="B17" s="27"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+    </row>
+    <row r="18" customHeight="1" spans="1:6">
+      <c r="A18" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+    </row>
+    <row r="19" customHeight="1" spans="1:6">
+      <c r="A19" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+    </row>
+    <row r="20" customHeight="1" spans="1:6">
+      <c r="A20" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+    </row>
+    <row r="21" customHeight="1" spans="1:6">
+      <c r="A21" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="B21" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+    </row>
+    <row r="27" customHeight="1" spans="1:1">
+      <c r="A27" s="37"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="2万字！90个前端开发面试必问基础大总结"/>
-    <hyperlink ref="H3" r:id="rId2" display="一名【合格】前端工程师的自检清单"/>
-    <hyperlink ref="B3" r:id="rId3" display="25 个最基本的 JavaScript 面试问题及答案"/>
-    <hyperlink ref="B5" r:id="rId4" display="详解三次握手和四次挥手 — 遇到心动的女孩时，如何去把握？"/>
-    <hyperlink ref="H4" r:id="rId5" display="前端知识点 来自掘金官方"/>
-    <hyperlink ref="B8" r:id="rId6" display="前端都该懂的浏览器工作原理，你懂了吗？"/>
-    <hyperlink ref="B11" r:id="rId7" display="拼多多和酷家乐面试总结(已拿offer)"/>
-    <hyperlink ref="B9" r:id="rId8" display="操作dom影响性能的原因"/>
-    <hyperlink ref="B6" r:id="rId9" display="面试经常被问的web安全问题"/>
+    <hyperlink ref="B7" r:id="rId1" display="2万字！90个前端开发面试必问基础大总结"/>
+    <hyperlink ref="I3" r:id="rId2" display="一名【合格】前端工程师的自检清单"/>
+    <hyperlink ref="B8" r:id="rId3" display="25 个最基本的 JavaScript 面试问题及答案"/>
+    <hyperlink ref="B15" r:id="rId4" display="详解三次握手和四次挥手 — 遇到心动的女孩时，如何去把握？"/>
+    <hyperlink ref="I4" r:id="rId5" display="前端知识点 来自掘金官方"/>
+    <hyperlink ref="B11" r:id="rId6" display="前端都该懂的浏览器工作原理，你懂了吗？"/>
+    <hyperlink ref="B18" r:id="rId7" display="拼多多和酷家乐面试总结(已拿offer)"/>
+    <hyperlink ref="B12" r:id="rId8" display="操作dom影响性能的原因"/>
+    <hyperlink ref="B2" r:id="rId9" display="挑战一轮大厂后的面试总结 (含六个方向) - javascript 篇(万字长文)"/>
+    <hyperlink ref="B3" r:id="rId10" display="挑战一轮大厂后的面试总结 (含六个方向) - nodejs 篇"/>
+    <hyperlink ref="B4" r:id="rId11" display="挑战一轮大厂后的面试总结 (含六个方向) - 浏览器 篇"/>
+    <hyperlink ref="B5" r:id="rId12" display="挑战一轮大厂后的面试总结 (含六个方向) - css 篇"/>
+    <hyperlink ref="B6" r:id="rId13" display="挑战一轮大厂后的面试总结 - 框架(vue)和工程相关"/>
+    <hyperlink ref="B19" r:id="rId14" display="前端工程师面试复习思维图，送福利！"/>
+    <hyperlink ref="B16" r:id="rId15" display="面试经常被问的web安全问题"/>
+    <hyperlink ref="B13" r:id="rId16" display="深入理解浏览器的缓存机制"/>
+    <hyperlink ref="B9" r:id="rId17" display="这儿有20道大厂面试题等你查收"/>
+    <hyperlink ref="B20" r:id="rId18" display="热乎的滴滴前端面经「现在实习生面试也不简单呀」"/>
+    <hyperlink ref="B21" r:id="rId19" display="蚂蚁、字节、滴滴面试经历总结(都已过)"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2875,15 +3315,15 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="31.125" customWidth="1"/>
+    <col min="2" max="2" width="52.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:5">
@@ -2905,18 +3345,54 @@
     </row>
     <row r="2" customHeight="1" spans="2:2">
       <c r="B2" s="2" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:2">
       <c r="B3" s="2" t="s">
-        <v>114</v>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="2:2">
+      <c r="B4" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="2:2">
+      <c r="B5" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="2:2">
+      <c r="B7" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="2:2">
+      <c r="B8" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="2:2">
+      <c r="B9" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="2:2">
+      <c r="B10" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="为什么会堆栈溢出问题？"/>
     <hyperlink ref="B3" r:id="rId2" display="IaaS、PaaS、SaaS服务模式的区别"/>
+    <hyperlink ref="B4" r:id="rId3" display="15年程序员经验分享：40个改变你编程技能的小技巧！"/>
+    <hyperlink ref="B5" r:id="rId4" display="太骚了！GitHub上重磅开源爬虫工具箱，竟然可以爬小电影！"/>
+    <hyperlink ref="B7" r:id="rId5" display="H5秒开方案思考与实践"/>
+    <hyperlink ref="B8" r:id="rId6" display="如何 1 人 5 天开发完 3D 数据可视化大屏，超炫酷！"/>
+    <hyperlink ref="B9" r:id="rId7" display="【实战入门】你不知道的 VSCode 插件开发教程"/>
+    <hyperlink ref="B10" r:id="rId8" display="使用这些思路和技巧，读懂高质量源码再也不难！"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2926,14 +3402,15 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A2" sqref="A2:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="38.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2954,26 +3431,153 @@
         <v>32</v>
       </c>
     </row>
+    <row r="2" customHeight="1" spans="1:2">
+      <c r="A2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
     <row r="3" customHeight="1" spans="1:2">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
       <c r="A4" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>117</v>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:2">
+      <c r="A5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:2">
+      <c r="A6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:1">
+      <c r="A7" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="vue常见面试题"/>
-    <hyperlink ref="B4" r:id="rId2" display="Vue 最全知识点，面试必备，覆盖 Vue 3.0"/>
+    <hyperlink ref="B2" r:id="rId1" display="vue常见面试题"/>
+    <hyperlink ref="B3" r:id="rId2" display="Vue 最全知识点，面试必备，覆盖 Vue 3.0"/>
+    <hyperlink ref="B6" r:id="rId3" display="Vue 超清晰思维导图，带你详细梳理知识点"/>
+    <hyperlink ref="B4" r:id="rId4" display="面试官：聊聊对Vue.js框架的理解"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" outlineLevelRow="1" outlineLevelCol="7"/>
+  <cols>
+    <col min="8" max="8" width="48.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="8:8">
+      <c r="H2" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" display="写给前端的 Nest.js 教程——10分钟上手后端接口开发"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="2:2">
+      <c r="B2" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="算法模板"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/@SystematicLearning/LearningPlan.xlsx
+++ b/@SystematicLearning/LearningPlan.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19560" windowHeight="8460" activeTab="4"/>
+    <workbookView windowWidth="27870" windowHeight="13140"/>
   </bookViews>
   <sheets>
-    <sheet name="总纲" sheetId="1" r:id="rId1"/>
+    <sheet name="全站进阶大纲" sheetId="1" r:id="rId1"/>
     <sheet name="JS" sheetId="2" r:id="rId2"/>
     <sheet name="前端工程化" sheetId="3" r:id="rId3"/>
     <sheet name="面试" sheetId="4" r:id="rId4"/>
@@ -21,7 +21,35 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="218">
+  <si>
+    <t>参考：web全栈架构师进阶班课程大纲</t>
+  </si>
+  <si>
+    <t>章节</t>
+  </si>
+  <si>
+    <t>知识点</t>
+  </si>
+  <si>
+    <t>是否训练营</t>
+  </si>
+  <si>
+    <t>开始学习</t>
+  </si>
+  <si>
+    <t>结束学习</t>
+  </si>
+  <si>
+    <t>复盘</t>
+  </si>
+  <si>
+    <t>Vue.js2.6
+全家桶
+&amp;
+备战
+Vue3.0</t>
+  </si>
   <si>
     <t>Vue
 源码剖析</t>
@@ -30,9 +58,6 @@
     <t>vue-router 原理及实现</t>
   </si>
   <si>
-    <t>参考：web全栈架构师进阶班课程大纲</t>
-  </si>
-  <si>
     <t>vuex 设计思路与实现</t>
   </si>
   <si>
@@ -109,6 +134,220 @@
     <t>组件测试</t>
   </si>
   <si>
+    <t>Vue 项目
+最佳实践</t>
+  </si>
+  <si>
+    <t>项目配置策略</t>
+  </si>
+  <si>
+    <t>目录结构和命名规范</t>
+  </si>
+  <si>
+    <t>代码编写规范</t>
+  </si>
+  <si>
+    <t>基于角色的权限控制</t>
+  </si>
+  <si>
+    <t>动态路由添加</t>
+  </si>
+  <si>
+    <t>动态导航菜单生成</t>
+  </si>
+  <si>
+    <t>路由懒加载</t>
+  </si>
+  <si>
+    <t>路由配置模块化</t>
+  </si>
+  <si>
+    <t>vuex 模块化和持久化</t>
+  </si>
+  <si>
+    <t>数据 Mock</t>
+  </si>
+  <si>
+    <t>服务封装</t>
+  </si>
+  <si>
+    <t>请求代理</t>
+  </si>
+  <si>
+    <t>项目测试</t>
+  </si>
+  <si>
+    <t>Vue SSR
+实战</t>
+  </si>
+  <si>
+    <t>SSR 原理和设计理念</t>
+  </si>
+  <si>
+    <t>SSR 使用场景分析</t>
+  </si>
+  <si>
+    <t>服务端继承 - Koa</t>
+  </si>
+  <si>
+    <t>路由和代码分割</t>
+  </si>
+  <si>
+    <t>数据预取和状态管理</t>
+  </si>
+  <si>
+    <t>客户端激活</t>
+  </si>
+  <si>
+    <t>webpack 构建配置</t>
+  </si>
+  <si>
+    <t>打包和部署注意事项</t>
+  </si>
+  <si>
+    <t>通用框架 nuxt.js 实战</t>
+  </si>
+  <si>
+    <t>nuxt 架构分析</t>
+  </si>
+  <si>
+    <t>动态路由的使用</t>
+  </si>
+  <si>
+    <t>全局状态管理的变化</t>
+  </si>
+  <si>
+    <t>数据预取和状态预取</t>
+  </si>
+  <si>
+    <t>插件、中间件的概念和应用</t>
+  </si>
+  <si>
+    <t>权限控制的变化 cookie + token</t>
+  </si>
+  <si>
+    <t>Vue + TS
+实战</t>
+  </si>
+  <si>
+    <t>vue + TypeScript 开发环境准备</t>
+  </si>
+  <si>
+    <t>组件编写的三种方式</t>
+  </si>
+  <si>
+    <t>类型注解和静态类型检测</t>
+  </si>
+  <si>
+    <t>类型别名和接口</t>
+  </si>
+  <si>
+    <t>基于 class 的面向对象变成</t>
+  </si>
+  <si>
+    <t>泛型</t>
+  </si>
+  <si>
+    <t>装饰器</t>
+  </si>
+  <si>
+    <t>声明文件</t>
+  </si>
+  <si>
+    <t>路由声明的变化</t>
+  </si>
+  <si>
+    <t>高逼格的全局状态管理</t>
+  </si>
+  <si>
+    <t>装饰器应用及其原理</t>
+  </si>
+  <si>
+    <t>vue-property-decorator 源码分析</t>
+  </si>
+  <si>
+    <t>备战
+Vue3.0</t>
+  </si>
+  <si>
+    <t>vue3 变化分析</t>
+  </si>
+  <si>
+    <t>vue3 初探</t>
+  </si>
+  <si>
+    <t>学习方法总结</t>
+  </si>
+  <si>
+    <t>Composition API实践</t>
+  </si>
+  <si>
+    <t>源码结构和调试环境搭建</t>
+  </si>
+  <si>
+    <t>vue3 响应式原理剖析</t>
+  </si>
+  <si>
+    <t>手写实现 vue3 数据响应式</t>
+  </si>
+  <si>
+    <t>vue3 展望</t>
+  </si>
+  <si>
+    <t>vue 实战
+kkb-honor</t>
+  </si>
+  <si>
+    <t>项目需求分析</t>
+  </si>
+  <si>
+    <t>开发环境搭建：nuxt.js + ts + koa + mongodb</t>
+  </si>
+  <si>
+    <t>通用组件实现：ButtonImage、Avatar、Tabs 等</t>
+  </si>
+  <si>
+    <t>基于装饰器的模块化状态管理</t>
+  </si>
+  <si>
+    <t>状态持久化的实现</t>
+  </si>
+  <si>
+    <t>第三方登录和鉴权</t>
+  </si>
+  <si>
+    <t>后台相关接口实现</t>
+  </si>
+  <si>
+    <t>websocket 实现用户实时通信</t>
+  </si>
+  <si>
+    <t>基于 vue-typescript-admin-template B端管理后台</t>
+  </si>
+  <si>
+    <t>基于 swagger 的数据 mock</t>
+  </si>
+  <si>
+    <t>数据查询和分页管理</t>
+  </si>
+  <si>
+    <t>基于 echarts 数据统计分析</t>
+  </si>
+  <si>
+    <t>三方组件改造和二次封装</t>
+  </si>
+  <si>
+    <t>项目发布和部署</t>
+  </si>
+  <si>
+    <t>vue 面试
+通关宝典</t>
+  </si>
+  <si>
+    <t>经典 20 道面试题分析讲解，教你如何浅入深出回答
+问题，从竞争者中脱颖而出，高薪 offer 轻松 get!</t>
+  </si>
+  <si>
     <t>文章分类</t>
   </si>
   <si>
@@ -119,9 +358,6 @@
   </si>
   <si>
     <t>完成状态</t>
-  </si>
-  <si>
-    <t>复盘</t>
   </si>
   <si>
     <t>JavaScript教程廖雪峰</t>
@@ -459,12 +695,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="39">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -575,7 +811,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -590,7 +841,43 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="9" tint="0.4"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8" tint="0.8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -605,14 +892,44 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -626,9 +943,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -649,20 +973,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -671,53 +990,14 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="45">
+  <fills count="48">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -738,12 +1018,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -792,198 +1066,222 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="25">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -1180,16 +1478,59 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7030A0"/>
+        <color theme="2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7030A0"/>
+        <color theme="2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7030A0"/>
+        <color theme="2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7030A0"/>
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="0.8"/>
+      </left>
+      <right style="thin">
+        <color theme="9" tint="0.8"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="9" tint="0.8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="0.8"/>
+      </left>
+      <right style="thin">
+        <color theme="9" tint="0.8"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="0.8"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1199,6 +1540,30 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1227,6 +1592,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1241,56 +1617,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1299,10 +1625,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="35" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1311,16 +1637,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1332,116 +1658,116 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="39" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1457,40 +1783,34 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1499,58 +1819,28 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="10" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="10" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="10" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="10" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1568,88 +1858,88 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="10" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="10" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="13" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="10" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="13" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="10" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1">
@@ -1658,32 +1948,128 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="16" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2033,183 +2419,705 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:E25"/>
+  <dimension ref="A1:G91"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="24" customHeight="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="24" customHeight="1" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="2" width="9.625" customWidth="1"/>
-    <col min="3" max="3" width="37.625" customWidth="1"/>
-    <col min="4" max="16384" width="9.625" customWidth="1"/>
+    <col min="3" max="3" width="47" customWidth="1"/>
+    <col min="4" max="4" width="10.875" customWidth="1"/>
+    <col min="5" max="6" width="9.625" customWidth="1"/>
+    <col min="7" max="7" width="30.875" customWidth="1"/>
+    <col min="8" max="16384" width="9.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="2:5">
-      <c r="B1" s="72" t="s">
+    <row r="1" customHeight="1" spans="1:3">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="73" t="s">
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+    </row>
+    <row r="2" customHeight="1" spans="1:7">
+      <c r="A2" s="61"/>
+      <c r="B2" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="C2" s="62" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" customHeight="1" spans="2:3">
-      <c r="B2" s="74"/>
-      <c r="C2" s="73" t="s">
+      <c r="D2" s="62" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" customHeight="1" spans="2:3">
-      <c r="B3" s="74"/>
-      <c r="C3" s="75" t="s">
+      <c r="E2" s="62" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" customHeight="1" spans="2:3">
-      <c r="B4" s="74"/>
-      <c r="C4" s="76" t="s">
+      <c r="F2" s="62" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" customHeight="1" spans="2:3">
-      <c r="B5" s="74"/>
-      <c r="C5" s="73" t="s">
+      <c r="G2" s="62" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="2:3">
-      <c r="B6" s="74"/>
-      <c r="C6" s="76" t="s">
+    <row r="3" customHeight="1" spans="1:3">
+      <c r="A3" s="63" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" customHeight="1" spans="2:3">
-      <c r="B7" s="74"/>
-      <c r="C7" s="73" t="s">
+      <c r="B3" s="64" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" customHeight="1" spans="2:3">
-      <c r="B8" s="74"/>
-      <c r="C8" s="73" t="s">
+      <c r="C3" s="65" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="2:3">
-      <c r="B9" s="74"/>
-      <c r="C9" s="76" t="s">
+    <row r="4" customHeight="1" spans="1:3">
+      <c r="A4" s="66"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="68" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="2:3">
-      <c r="B10" s="74"/>
-      <c r="C10" s="76" t="s">
+    <row r="5" customHeight="1" spans="1:3">
+      <c r="A5" s="66"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="69" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="2:3">
-      <c r="B11" s="74"/>
-      <c r="C11" s="73" t="s">
+    <row r="6" customHeight="1" spans="1:3">
+      <c r="A6" s="66"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="70" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="2:3">
-      <c r="B12" s="74"/>
-      <c r="C12" s="76" t="s">
+    <row r="7" customHeight="1" spans="1:3">
+      <c r="A7" s="66"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="68" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="2:3">
-      <c r="B13" s="74"/>
-      <c r="C13" s="73" t="s">
+    <row r="8" customHeight="1" spans="1:3">
+      <c r="A8" s="66"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="70" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="2:3">
-      <c r="B14" s="74"/>
-      <c r="C14" s="76" t="s">
+    <row r="9" customHeight="1" spans="1:3">
+      <c r="A9" s="66"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="68" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="2:3">
-      <c r="B15" s="77" t="s">
+    <row r="10" customHeight="1" spans="1:3">
+      <c r="A10" s="66"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="78" t="s">
+    </row>
+    <row r="11" customHeight="1" spans="1:3">
+      <c r="A11" s="66"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="70" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="2:3">
-      <c r="B16" s="79"/>
-      <c r="C16" s="78" t="s">
+    <row r="12" customHeight="1" spans="1:3">
+      <c r="A12" s="66"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="70" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="2:3">
-      <c r="B17" s="79"/>
-      <c r="C17" s="78" t="s">
+    <row r="13" customHeight="1" spans="1:3">
+      <c r="A13" s="66"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="68" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="2:3">
-      <c r="B18" s="79"/>
-      <c r="C18" s="78" t="s">
+    <row r="14" customHeight="1" spans="1:3">
+      <c r="A14" s="66"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="70" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" customHeight="1" spans="2:3">
-      <c r="B19" s="79"/>
-      <c r="C19" s="78" t="s">
+    <row r="15" customHeight="1" spans="1:3">
+      <c r="A15" s="66"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="68" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" customHeight="1" spans="2:3">
-      <c r="B20" s="79"/>
-      <c r="C20" s="78" t="s">
+    <row r="16" customHeight="1" spans="1:3">
+      <c r="A16" s="66"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="70" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" customHeight="1" spans="2:3">
-      <c r="B21" s="79"/>
-      <c r="C21" s="80" t="s">
+    <row r="17" customHeight="1" spans="1:3">
+      <c r="A17" s="66"/>
+      <c r="B17" s="71" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="22" customHeight="1" spans="2:3">
-      <c r="B22" s="79"/>
-      <c r="C22" s="80" t="s">
+      <c r="C17" s="72" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" customHeight="1" spans="2:3">
-      <c r="B23" s="79"/>
-      <c r="C23" s="80" t="s">
+    <row r="18" customHeight="1" spans="1:3">
+      <c r="A18" s="66"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="72" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" customHeight="1" spans="2:3">
-      <c r="B24" s="79"/>
-      <c r="C24" s="80" t="s">
+    <row r="19" customHeight="1" spans="1:3">
+      <c r="A19" s="66"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="72" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" customHeight="1" spans="2:3">
-      <c r="B25" s="79"/>
-      <c r="C25" s="78" t="s">
+    <row r="20" customHeight="1" spans="1:3">
+      <c r="A20" s="66"/>
+      <c r="B20" s="73"/>
+      <c r="C20" s="72" t="s">
         <v>27</v>
       </c>
     </row>
+    <row r="21" customHeight="1" spans="1:3">
+      <c r="A21" s="66"/>
+      <c r="B21" s="73"/>
+      <c r="C21" s="72" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:3">
+      <c r="A22" s="66"/>
+      <c r="B22" s="73"/>
+      <c r="C22" s="72" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="1:3">
+      <c r="A23" s="66"/>
+      <c r="B23" s="73"/>
+      <c r="C23" s="74" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:3">
+      <c r="A24" s="66"/>
+      <c r="B24" s="73"/>
+      <c r="C24" s="74" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="1:3">
+      <c r="A25" s="66"/>
+      <c r="B25" s="73"/>
+      <c r="C25" s="74" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="1:3">
+      <c r="A26" s="66"/>
+      <c r="B26" s="73"/>
+      <c r="C26" s="74" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="1:3">
+      <c r="A27" s="66"/>
+      <c r="B27" s="73"/>
+      <c r="C27" s="72" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="1:3">
+      <c r="A28" s="66"/>
+      <c r="B28" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="76" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="1:3">
+      <c r="A29" s="66"/>
+      <c r="B29" s="77"/>
+      <c r="C29" s="78" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="1:3">
+      <c r="A30" s="66"/>
+      <c r="B30" s="77"/>
+      <c r="C30" s="78" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="1:3">
+      <c r="A31" s="66"/>
+      <c r="B31" s="77"/>
+      <c r="C31" s="76" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="1:3">
+      <c r="A32" s="66"/>
+      <c r="B32" s="77"/>
+      <c r="C32" s="76" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="1:3">
+      <c r="A33" s="66"/>
+      <c r="B33" s="77"/>
+      <c r="C33" s="76" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="1:3">
+      <c r="A34" s="66"/>
+      <c r="B34" s="77"/>
+      <c r="C34" s="78" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="1:3">
+      <c r="A35" s="66"/>
+      <c r="B35" s="77"/>
+      <c r="C35" s="78" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="1:3">
+      <c r="A36" s="66"/>
+      <c r="B36" s="77"/>
+      <c r="C36" s="78" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="1:3">
+      <c r="A37" s="66"/>
+      <c r="B37" s="77"/>
+      <c r="C37" s="78" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="1:3">
+      <c r="A38" s="66"/>
+      <c r="B38" s="77"/>
+      <c r="C38" s="78" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="1:3">
+      <c r="A39" s="66"/>
+      <c r="B39" s="77"/>
+      <c r="C39" s="78" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="1:3">
+      <c r="A40" s="66"/>
+      <c r="B40" s="77"/>
+      <c r="C40" s="78" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="1:3">
+      <c r="A41" s="66"/>
+      <c r="B41" s="79" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" s="80" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="1:3">
+      <c r="A42" s="66"/>
+      <c r="B42" s="81"/>
+      <c r="C42" s="82" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="1:3">
+      <c r="A43" s="66"/>
+      <c r="B43" s="81"/>
+      <c r="C43" s="82" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="1:3">
+      <c r="A44" s="66"/>
+      <c r="B44" s="81"/>
+      <c r="C44" s="82" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="1:3">
+      <c r="A45" s="66"/>
+      <c r="B45" s="81"/>
+      <c r="C45" s="82" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="1:3">
+      <c r="A46" s="66"/>
+      <c r="B46" s="81"/>
+      <c r="C46" s="82" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="1:3">
+      <c r="A47" s="66"/>
+      <c r="B47" s="81"/>
+      <c r="C47" s="82" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="1:3">
+      <c r="A48" s="66"/>
+      <c r="B48" s="81"/>
+      <c r="C48" s="82" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="1:3">
+      <c r="A49" s="66"/>
+      <c r="B49" s="81"/>
+      <c r="C49" s="83" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="1:3">
+      <c r="A50" s="66"/>
+      <c r="B50" s="81"/>
+      <c r="C50" s="83" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="1:3">
+      <c r="A51" s="66"/>
+      <c r="B51" s="81"/>
+      <c r="C51" s="83" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="1:3">
+      <c r="A52" s="66"/>
+      <c r="B52" s="81"/>
+      <c r="C52" s="83" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="1:3">
+      <c r="A53" s="66"/>
+      <c r="B53" s="81"/>
+      <c r="C53" s="83" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="1:3">
+      <c r="A54" s="66"/>
+      <c r="B54" s="81"/>
+      <c r="C54" s="83" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="1:3">
+      <c r="A55" s="66"/>
+      <c r="B55" s="81"/>
+      <c r="C55" s="83" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="1:3">
+      <c r="A56" s="66"/>
+      <c r="B56" s="84" t="s">
+        <v>65</v>
+      </c>
+      <c r="C56" s="85" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="1:3">
+      <c r="A57" s="66"/>
+      <c r="B57" s="86"/>
+      <c r="C57" s="87" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" spans="1:3">
+      <c r="A58" s="66"/>
+      <c r="B58" s="86"/>
+      <c r="C58" s="87" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" spans="1:3">
+      <c r="A59" s="66"/>
+      <c r="B59" s="86"/>
+      <c r="C59" s="87" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="60" customHeight="1" spans="1:3">
+      <c r="A60" s="66"/>
+      <c r="B60" s="86"/>
+      <c r="C60" s="87" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="61" customHeight="1" spans="1:3">
+      <c r="A61" s="66"/>
+      <c r="B61" s="86"/>
+      <c r="C61" s="87" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" spans="1:3">
+      <c r="A62" s="66"/>
+      <c r="B62" s="86"/>
+      <c r="C62" s="87" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" customHeight="1" spans="1:3">
+      <c r="A63" s="66"/>
+      <c r="B63" s="86"/>
+      <c r="C63" s="87" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="64" customHeight="1" spans="1:3">
+      <c r="A64" s="66"/>
+      <c r="B64" s="86"/>
+      <c r="C64" s="87" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="65" customHeight="1" spans="1:3">
+      <c r="A65" s="66"/>
+      <c r="B65" s="86"/>
+      <c r="C65" s="88" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="66" customHeight="1" spans="1:3">
+      <c r="A66" s="66"/>
+      <c r="B66" s="86"/>
+      <c r="C66" s="88" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="67" customHeight="1" spans="1:3">
+      <c r="A67" s="66"/>
+      <c r="B67" s="86"/>
+      <c r="C67" s="88" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="68" customHeight="1" spans="1:3">
+      <c r="A68" s="66"/>
+      <c r="B68" s="89" t="s">
+        <v>78</v>
+      </c>
+      <c r="C68" s="90" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="69" customHeight="1" spans="1:3">
+      <c r="A69" s="66"/>
+      <c r="B69" s="91"/>
+      <c r="C69" s="92" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="70" customHeight="1" spans="1:3">
+      <c r="A70" s="66"/>
+      <c r="B70" s="91"/>
+      <c r="C70" s="92" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="71" customHeight="1" spans="1:3">
+      <c r="A71" s="66"/>
+      <c r="B71" s="91"/>
+      <c r="C71" s="92" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="72" customHeight="1" spans="1:3">
+      <c r="A72" s="66"/>
+      <c r="B72" s="91"/>
+      <c r="C72" s="92" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="73" customHeight="1" spans="1:3">
+      <c r="A73" s="66"/>
+      <c r="B73" s="91"/>
+      <c r="C73" s="93" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="74" customHeight="1" spans="1:3">
+      <c r="A74" s="66"/>
+      <c r="B74" s="91"/>
+      <c r="C74" s="93" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="75" customHeight="1" spans="1:3">
+      <c r="A75" s="66"/>
+      <c r="B75" s="91"/>
+      <c r="C75" s="92" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="76" customHeight="1" spans="1:3">
+      <c r="A76" s="66"/>
+      <c r="B76" s="94" t="s">
+        <v>87</v>
+      </c>
+      <c r="C76" s="95" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="77" customHeight="1" spans="1:3">
+      <c r="A77" s="66"/>
+      <c r="B77" s="96"/>
+      <c r="C77" s="97" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="78" customHeight="1" spans="1:3">
+      <c r="A78" s="66"/>
+      <c r="B78" s="96"/>
+      <c r="C78" s="97" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="79" customHeight="1" spans="1:3">
+      <c r="A79" s="66"/>
+      <c r="B79" s="96"/>
+      <c r="C79" s="97" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="80" customHeight="1" spans="1:3">
+      <c r="A80" s="66"/>
+      <c r="B80" s="96"/>
+      <c r="C80" s="97" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="81" customHeight="1" spans="1:3">
+      <c r="A81" s="66"/>
+      <c r="B81" s="96"/>
+      <c r="C81" s="97" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="82" customHeight="1" spans="1:3">
+      <c r="A82" s="66"/>
+      <c r="B82" s="96"/>
+      <c r="C82" s="97" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="83" customHeight="1" spans="1:3">
+      <c r="A83" s="66"/>
+      <c r="B83" s="96"/>
+      <c r="C83" s="97" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="84" customHeight="1" spans="1:3">
+      <c r="A84" s="66"/>
+      <c r="B84" s="96"/>
+      <c r="C84" s="97" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="85" customHeight="1" spans="1:3">
+      <c r="A85" s="66"/>
+      <c r="B85" s="96"/>
+      <c r="C85" s="97" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="86" customHeight="1" spans="1:3">
+      <c r="A86" s="66"/>
+      <c r="B86" s="96"/>
+      <c r="C86" s="97" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="87" customHeight="1" spans="1:3">
+      <c r="A87" s="66"/>
+      <c r="B87" s="96"/>
+      <c r="C87" s="97" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="88" customHeight="1" spans="1:3">
+      <c r="A88" s="66"/>
+      <c r="B88" s="96"/>
+      <c r="C88" s="97" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="89" customHeight="1" spans="1:3">
+      <c r="A89" s="66"/>
+      <c r="B89" s="96"/>
+      <c r="C89" s="97" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="90" customHeight="1" spans="1:3">
+      <c r="A90" s="66"/>
+      <c r="B90" s="98" t="s">
+        <v>102</v>
+      </c>
+      <c r="C90" s="98" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="91" customHeight="1" spans="1:3">
+      <c r="A91" s="66"/>
+      <c r="B91" s="99"/>
+      <c r="C91" s="100"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:B14"/>
-    <mergeCell ref="B15:B25"/>
+  <mergeCells count="11">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:A91"/>
+    <mergeCell ref="B3:B16"/>
+    <mergeCell ref="B17:B27"/>
+    <mergeCell ref="B28:B40"/>
+    <mergeCell ref="B41:B55"/>
+    <mergeCell ref="B56:B67"/>
+    <mergeCell ref="B68:B75"/>
+    <mergeCell ref="B76:B89"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="C90:C91"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E1" r:id="rId1" display="参考：web全栈架构师进阶班课程大纲"/>
+    <hyperlink ref="A1" r:id="rId1" display="参考：web全栈架构师进阶班课程大纲"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2228,575 +3136,575 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="24" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="23.125" style="38" customWidth="1"/>
-    <col min="2" max="2" width="62.75" style="38" customWidth="1"/>
-    <col min="3" max="4" width="10.625" style="38" customWidth="1"/>
-    <col min="5" max="5" width="42.5" style="38" customWidth="1"/>
-    <col min="6" max="16384" width="10.625" style="38" customWidth="1"/>
+    <col min="1" max="1" width="23.125" style="26" customWidth="1"/>
+    <col min="2" max="2" width="62.75" style="26" customWidth="1"/>
+    <col min="3" max="4" width="10.625" style="26" customWidth="1"/>
+    <col min="5" max="5" width="42.5" style="26" customWidth="1"/>
+    <col min="6" max="16384" width="10.625" style="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>104</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A2" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
+      <c r="A2" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
     </row>
     <row r="3" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A3" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
+      <c r="A3" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="32"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
     </row>
     <row r="4" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A4" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
+      <c r="A4" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="32"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
     </row>
     <row r="5" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A5" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
+      <c r="A5" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="32"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
     </row>
     <row r="6" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A6" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
+      <c r="A6" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" s="32"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
     </row>
     <row r="7" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A7" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
+      <c r="A7" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="32"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
     </row>
     <row r="8" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A8" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
+      <c r="A8" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="32"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
     </row>
     <row r="9" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A9" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="48"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
+      <c r="A9" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" s="36"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
     </row>
     <row r="10" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A10" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="52"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
+      <c r="A10" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" s="40"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
     </row>
     <row r="11" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A11" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="52"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
+      <c r="A11" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" s="40"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
     </row>
     <row r="12" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A12" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="51" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="52"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
+      <c r="A12" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" s="40"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
     </row>
     <row r="13" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A13" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="51" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="52"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
+      <c r="A13" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" s="40"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
     </row>
     <row r="14" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A14" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="52"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
+      <c r="A14" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" s="40"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
     </row>
     <row r="15" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A15" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="51" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="52"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
+      <c r="A15" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" s="40"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
     </row>
     <row r="16" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A16" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="52"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
+      <c r="A16" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="B16" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="C16" s="40"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
     </row>
     <row r="17" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A17" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="52"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
+      <c r="A17" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="B17" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="C17" s="40"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
     </row>
     <row r="18" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A18" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="52"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
+      <c r="A18" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="B18" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="C18" s="40"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
     </row>
     <row r="19" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A19" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="51" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="52"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
+      <c r="A19" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="B19" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="C19" s="40"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
     </row>
     <row r="20" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A20" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="52"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
+      <c r="A20" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="B20" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="C20" s="40"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
     </row>
     <row r="21" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A21" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="51" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="52"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
+      <c r="A21" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="B21" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="C21" s="40"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
     </row>
     <row r="22" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A22" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="51" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="52"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
+      <c r="A22" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="B22" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="C22" s="40"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
     </row>
     <row r="23" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A23" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="56"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
+      <c r="A23" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="B23" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="C23" s="44"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
     </row>
     <row r="24" customHeight="1" spans="1:5">
-      <c r="A24" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" s="59" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" s="60"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="61"/>
+      <c r="A24" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="B24" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="49"/>
     </row>
     <row r="25" customHeight="1" spans="1:5">
-      <c r="A25" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25" s="59" t="s">
-        <v>59</v>
-      </c>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="61"/>
+      <c r="A25" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="B25" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="49"/>
     </row>
     <row r="26" customHeight="1" spans="1:5">
-      <c r="A26" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" s="59" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="61"/>
+      <c r="A26" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="B26" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="49"/>
     </row>
     <row r="27" customHeight="1" spans="1:5">
-      <c r="A27" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="59" t="s">
-        <v>61</v>
-      </c>
-      <c r="C27" s="60"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="61"/>
+      <c r="A27" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="B27" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="49"/>
     </row>
     <row r="28" customHeight="1" spans="1:5">
-      <c r="A28" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="B28" s="59" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28" s="60"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="61"/>
+      <c r="A28" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="B28" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="49"/>
     </row>
     <row r="29" customHeight="1" spans="1:5">
-      <c r="A29" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="B29" s="59" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29" s="60"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="61"/>
+      <c r="A29" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="B29" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="49"/>
     </row>
     <row r="30" customHeight="1" spans="1:5">
-      <c r="A30" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="B30" s="59" t="s">
-        <v>64</v>
-      </c>
-      <c r="C30" s="60"/>
-      <c r="D30" s="60"/>
-      <c r="E30" s="61"/>
+      <c r="A30" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="B30" s="47" t="s">
+        <v>139</v>
+      </c>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="49"/>
     </row>
     <row r="31" customHeight="1" spans="1:5">
-      <c r="A31" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="B31" s="59" t="s">
-        <v>65</v>
-      </c>
-      <c r="C31" s="60"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="61"/>
+      <c r="A31" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="B31" s="47" t="s">
+        <v>140</v>
+      </c>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="49"/>
     </row>
     <row r="32" customHeight="1" spans="1:5">
-      <c r="A32" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="B32" s="59" t="s">
-        <v>66</v>
-      </c>
-      <c r="C32" s="60"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="61"/>
+      <c r="A32" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="B32" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="49"/>
     </row>
     <row r="33" customHeight="1" spans="1:5">
-      <c r="A33" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="B33" s="59" t="s">
-        <v>67</v>
-      </c>
-      <c r="C33" s="60"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="61"/>
+      <c r="A33" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="B33" s="47" t="s">
+        <v>142</v>
+      </c>
+      <c r="C33" s="48"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="49"/>
     </row>
     <row r="34" customHeight="1" spans="1:5">
-      <c r="A34" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="B34" s="59" t="s">
-        <v>68</v>
-      </c>
-      <c r="C34" s="60"/>
-      <c r="D34" s="60"/>
-      <c r="E34" s="61"/>
+      <c r="A34" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="B34" s="47" t="s">
+        <v>143</v>
+      </c>
+      <c r="C34" s="48"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="49"/>
     </row>
     <row r="35" customHeight="1" spans="1:5">
-      <c r="A35" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="B35" s="59" t="s">
-        <v>69</v>
-      </c>
-      <c r="C35" s="60"/>
-      <c r="D35" s="60"/>
-      <c r="E35" s="61"/>
+      <c r="A35" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="B35" s="47" t="s">
+        <v>144</v>
+      </c>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="49"/>
     </row>
     <row r="36" customHeight="1" spans="1:5">
-      <c r="A36" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" s="59" t="s">
-        <v>70</v>
-      </c>
-      <c r="C36" s="60"/>
-      <c r="D36" s="60"/>
-      <c r="E36" s="61"/>
+      <c r="A36" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="B36" s="47" t="s">
+        <v>145</v>
+      </c>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="49"/>
     </row>
     <row r="37" customHeight="1" spans="1:5">
-      <c r="A37" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="B37" s="59" t="s">
-        <v>71</v>
-      </c>
-      <c r="C37" s="60"/>
-      <c r="D37" s="60"/>
-      <c r="E37" s="61"/>
+      <c r="A37" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="B37" s="47" t="s">
+        <v>146</v>
+      </c>
+      <c r="C37" s="48"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="49"/>
     </row>
     <row r="38" customHeight="1" spans="1:5">
-      <c r="A38" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="B38" s="59" t="s">
-        <v>72</v>
-      </c>
-      <c r="C38" s="60"/>
-      <c r="D38" s="60"/>
-      <c r="E38" s="61"/>
+      <c r="A38" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="B38" s="47" t="s">
+        <v>147</v>
+      </c>
+      <c r="C38" s="48"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="49"/>
     </row>
     <row r="39" customHeight="1" spans="1:5">
-      <c r="A39" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="B39" s="59" t="s">
-        <v>73</v>
-      </c>
-      <c r="C39" s="60"/>
-      <c r="D39" s="60"/>
-      <c r="E39" s="61"/>
+      <c r="A39" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="B39" s="47" t="s">
+        <v>148</v>
+      </c>
+      <c r="C39" s="48"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="49"/>
     </row>
     <row r="40" customHeight="1" spans="1:5">
-      <c r="A40" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="B40" s="59" t="s">
-        <v>74</v>
-      </c>
-      <c r="C40" s="60"/>
-      <c r="D40" s="60"/>
-      <c r="E40" s="61"/>
+      <c r="A40" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="B40" s="47" t="s">
+        <v>149</v>
+      </c>
+      <c r="C40" s="48"/>
+      <c r="D40" s="48"/>
+      <c r="E40" s="49"/>
     </row>
     <row r="41" customHeight="1" spans="1:5">
-      <c r="A41" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="B41" s="59" t="s">
-        <v>75</v>
-      </c>
-      <c r="C41" s="60"/>
-      <c r="D41" s="60"/>
-      <c r="E41" s="61"/>
+      <c r="A41" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="B41" s="47" t="s">
+        <v>150</v>
+      </c>
+      <c r="C41" s="48"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="49"/>
     </row>
     <row r="42" customHeight="1" spans="1:5">
-      <c r="A42" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="B42" s="59" t="s">
-        <v>76</v>
-      </c>
-      <c r="C42" s="60"/>
-      <c r="D42" s="60"/>
-      <c r="E42" s="61"/>
+      <c r="A42" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="B42" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="C42" s="48"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="49"/>
     </row>
     <row r="43" customHeight="1" spans="1:5">
-      <c r="A43" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="B43" s="59" t="s">
-        <v>77</v>
-      </c>
-      <c r="C43" s="60"/>
-      <c r="D43" s="60"/>
-      <c r="E43" s="61"/>
+      <c r="A43" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="B43" s="47" t="s">
+        <v>152</v>
+      </c>
+      <c r="C43" s="48"/>
+      <c r="D43" s="48"/>
+      <c r="E43" s="49"/>
     </row>
     <row r="44" customHeight="1" spans="1:5">
-      <c r="A44" s="62" t="s">
-        <v>78</v>
-      </c>
-      <c r="B44" s="63" t="s">
-        <v>79</v>
-      </c>
-      <c r="C44" s="64"/>
-      <c r="D44" s="64"/>
-      <c r="E44" s="65"/>
+      <c r="A44" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="B44" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="C44" s="52"/>
+      <c r="D44" s="52"/>
+      <c r="E44" s="53"/>
     </row>
     <row r="45" customHeight="1" spans="1:5">
-      <c r="A45" s="66" t="s">
-        <v>80</v>
-      </c>
-      <c r="B45" s="67" t="s">
-        <v>81</v>
-      </c>
-      <c r="C45" s="68"/>
-      <c r="D45" s="68"/>
-      <c r="E45" s="69"/>
+      <c r="A45" s="54" t="s">
+        <v>155</v>
+      </c>
+      <c r="B45" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="C45" s="56"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="57"/>
     </row>
     <row r="46" customHeight="1" spans="1:5">
-      <c r="A46" s="66" t="s">
-        <v>82</v>
-      </c>
-      <c r="B46" s="67" t="s">
-        <v>83</v>
-      </c>
-      <c r="C46" s="68"/>
-      <c r="D46" s="68"/>
-      <c r="E46" s="69"/>
+      <c r="A46" s="54" t="s">
+        <v>157</v>
+      </c>
+      <c r="B46" s="55" t="s">
+        <v>158</v>
+      </c>
+      <c r="C46" s="56"/>
+      <c r="D46" s="56"/>
+      <c r="E46" s="57"/>
     </row>
     <row r="47" customHeight="1" spans="1:5">
-      <c r="A47" s="66" t="s">
-        <v>84</v>
-      </c>
-      <c r="B47" s="67" t="s">
-        <v>85</v>
-      </c>
-      <c r="C47" s="68"/>
-      <c r="D47" s="68"/>
-      <c r="E47" s="69"/>
+      <c r="A47" s="54" t="s">
+        <v>159</v>
+      </c>
+      <c r="B47" s="55" t="s">
+        <v>160</v>
+      </c>
+      <c r="C47" s="56"/>
+      <c r="D47" s="56"/>
+      <c r="E47" s="57"/>
     </row>
     <row r="48" customHeight="1" spans="1:2">
-      <c r="A48" s="70"/>
-      <c r="B48" s="71" t="s">
-        <v>86</v>
+      <c r="A48" s="58"/>
+      <c r="B48" s="59" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="2:2">
-      <c r="B49" s="71" t="s">
-        <v>87</v>
+      <c r="B49" s="59" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="2:2">
-      <c r="B50" s="71" t="s">
-        <v>88</v>
+      <c r="B50" s="59" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="2:2">
-      <c r="B51" s="71" t="s">
-        <v>89</v>
+      <c r="B51" s="59" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="2:2">
-      <c r="B52" s="71" t="s">
-        <v>90</v>
+      <c r="B52" s="59" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="2:2">
-      <c r="B53" s="71" t="s">
-        <v>91</v>
+      <c r="B53" s="59" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="2:2">
-      <c r="B54" s="71" t="s">
-        <v>92</v>
+      <c r="B54" s="59" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="2:2">
       <c r="B55" s="2" t="s">
-        <v>93</v>
+        <v>168</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="1:1">
@@ -2920,72 +3828,72 @@
   <cols>
     <col min="1" max="1" width="10.875" customWidth="1"/>
     <col min="2" max="2" width="30.5" customWidth="1"/>
-    <col min="4" max="4" width="9" style="38"/>
+    <col min="4" max="4" width="9" style="26"/>
     <col min="5" max="5" width="32.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>104</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:5">
-      <c r="A2" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="41" t="s">
-        <v>96</v>
-      </c>
-      <c r="E2" s="39"/>
+      <c r="A2" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" customHeight="1" spans="1:5">
-      <c r="A3" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="B3" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="39"/>
+      <c r="A3" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3" s="27"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="27"/>
     </row>
     <row r="4" customHeight="1" spans="1:5">
-      <c r="A4" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="B4" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="39"/>
+      <c r="A4" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="C4" s="27"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="27"/>
     </row>
     <row r="5" customHeight="1" spans="1:5">
-      <c r="A5" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="B5" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="39"/>
+      <c r="A5" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="C5" s="27"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="27"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3020,270 +3928,270 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>104</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>101</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>102</v>
+        <v>177</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+        <v>178</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" customHeight="1" spans="1:9">
-      <c r="A3" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+      <c r="A3" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
       <c r="I3" s="2" t="s">
-        <v>105</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:9">
-      <c r="A4" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
+      <c r="A4" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
       <c r="I4" s="2" t="s">
-        <v>107</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:9">
-      <c r="A5" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="A5" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
       <c r="I5" s="2"/>
     </row>
     <row r="6" customHeight="1" spans="1:6">
-      <c r="A6" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="A6" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
     </row>
     <row r="7" customHeight="1" spans="1:6">
-      <c r="A7" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
+      <c r="A7" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
     </row>
     <row r="8" customHeight="1" spans="1:6">
-      <c r="A8" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
+      <c r="A8" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
     </row>
     <row r="9" customHeight="1" spans="1:6">
-      <c r="A9" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
+      <c r="A9" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
     </row>
     <row r="10" customHeight="1" spans="1:6">
-      <c r="A10" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
+      <c r="A10" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" customHeight="1" spans="1:6">
-      <c r="A11" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
+      <c r="A11" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
     </row>
     <row r="12" customHeight="1" spans="1:6">
-      <c r="A12" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
+      <c r="A12" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
     </row>
     <row r="13" customHeight="1" spans="1:6">
-      <c r="A13" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
+      <c r="A13" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
     </row>
     <row r="14" customHeight="1" spans="1:6">
-      <c r="A14" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
+      <c r="A14" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
     </row>
     <row r="15" customHeight="1" spans="1:6">
-      <c r="A15" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
+      <c r="A15" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
     </row>
     <row r="16" customHeight="1" spans="1:6">
-      <c r="A16" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
+      <c r="A16" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
     </row>
     <row r="17" customHeight="1" spans="1:6">
-      <c r="A17" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
+      <c r="A17" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="B17" s="18"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
     </row>
     <row r="18" customHeight="1" spans="1:6">
-      <c r="A18" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="B18" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
+      <c r="A18" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
     </row>
     <row r="19" customHeight="1" spans="1:6">
-      <c r="A19" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="B19" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
+      <c r="A19" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
     </row>
     <row r="20" customHeight="1" spans="1:6">
-      <c r="A20" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="B20" s="35" t="s">
-        <v>124</v>
-      </c>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
+      <c r="A20" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
     </row>
     <row r="21" customHeight="1" spans="1:6">
-      <c r="A21" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="B21" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
+      <c r="A21" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
     </row>
     <row r="27" customHeight="1" spans="1:1">
-      <c r="A27" s="37"/>
+      <c r="A27" s="25"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3317,7 +4225,7 @@
   <sheetPr/>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -3328,59 +4236,59 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>104</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="2:2">
       <c r="B2" s="2" t="s">
-        <v>126</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:2">
       <c r="B3" s="2" t="s">
-        <v>127</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:2">
       <c r="B4" s="2" t="s">
-        <v>128</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:2">
       <c r="B5" s="2" t="s">
-        <v>129</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:2">
       <c r="B7" s="2" t="s">
-        <v>130</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:2">
       <c r="B8" s="2" t="s">
-        <v>131</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:2">
       <c r="B9" s="2" t="s">
-        <v>132</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:2">
       <c r="B10" s="2" t="s">
-        <v>133</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -3416,62 +4324,62 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>104</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:2">
       <c r="A2" t="s">
-        <v>134</v>
+        <v>209</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>135</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>209</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>136</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
       <c r="A4" t="s">
-        <v>134</v>
+        <v>209</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>137</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
       <c r="A5" t="s">
-        <v>134</v>
+        <v>209</v>
       </c>
       <c r="B5" s="2"/>
     </row>
     <row r="6" customHeight="1" spans="1:2">
       <c r="A6" t="s">
-        <v>138</v>
+        <v>213</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>139</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:1">
       <c r="A7" t="s">
-        <v>138</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -3504,30 +4412,30 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>104</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>140</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="8:8">
       <c r="H2" s="2" t="s">
-        <v>141</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -3552,27 +4460,27 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>104</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="2:2">
       <c r="B2" s="2" t="s">
-        <v>142</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>

--- a/@SystematicLearning/LearningPlan.xlsx
+++ b/@SystematicLearning/LearningPlan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19560" windowHeight="8460" tabRatio="733" activeTab="1"/>
+    <workbookView windowWidth="19560" windowHeight="8460" tabRatio="733" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="全站进阶大纲" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="311">
   <si>
     <t>参考：web全栈架构师进阶班课程大纲</t>
   </si>
@@ -554,6 +554,14 @@
   </si>
   <si>
     <t>细说JS循环方法</t>
+  </si>
+  <si>
+    <t>√</t>
+  </si>
+  <si>
+    <t>for...in/for...of/forEach
+Object.keys/values/entries
+array.map/filter/every/some/reduce</t>
   </si>
   <si>
     <t>JavaScript规定了几种语言类型？</t>
@@ -964,8 +972,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -1177,23 +1185,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1207,14 +1221,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -1222,16 +1228,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1252,15 +1274,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1275,29 +1298,14 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="63">
+  <fills count="56">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1336,19 +1344,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1402,18 +1398,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1433,24 +1417,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.25"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1492,7 +1458,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1504,37 +1488,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1552,7 +1506,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1564,7 +1536,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1576,97 +1632,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1754,54 +1720,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1823,13 +1741,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1848,6 +1770,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1856,158 +1822,155 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="42" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="36" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="36" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="40" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="50" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="56" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="56" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="40" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="200">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2023,9 +1986,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2035,9 +1995,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2056,44 +2013,32 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -2101,19 +2046,10 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -2122,89 +2058,143 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2212,268 +2202,49 @@
     <xf numFmtId="0" fontId="3" fillId="17" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="1" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="1" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="1" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="1" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="1" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2482,22 +2253,22 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -2509,94 +2280,94 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2964,671 +2735,671 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:3">
-      <c r="A1" s="160" t="s">
+      <c r="A1" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="160"/>
-      <c r="C1" s="160"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
     </row>
     <row r="2" customHeight="1" spans="1:7">
-      <c r="A2" s="161"/>
-      <c r="B2" s="161" t="s">
+      <c r="A2" s="96"/>
+      <c r="B2" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="161" t="s">
+      <c r="C2" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="161" t="s">
+      <c r="D2" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="161" t="s">
+      <c r="E2" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="161" t="s">
+      <c r="F2" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="161" t="s">
+      <c r="G2" s="96" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:3">
-      <c r="A3" s="162" t="s">
+      <c r="A3" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="163" t="s">
+      <c r="B3" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="164" t="s">
+      <c r="C3" s="99" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
-      <c r="A4" s="165"/>
-      <c r="B4" s="166"/>
-      <c r="C4" s="167" t="s">
+      <c r="A4" s="100"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="102" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
-      <c r="A5" s="165"/>
-      <c r="B5" s="166"/>
-      <c r="C5" s="168" t="s">
+      <c r="A5" s="100"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="103" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:3">
-      <c r="A6" s="165"/>
-      <c r="B6" s="166"/>
-      <c r="C6" s="169" t="s">
+      <c r="A6" s="100"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="104" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
-      <c r="A7" s="165"/>
-      <c r="B7" s="166"/>
-      <c r="C7" s="167" t="s">
+      <c r="A7" s="100"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="102" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:3">
-      <c r="A8" s="165"/>
-      <c r="B8" s="166"/>
-      <c r="C8" s="169" t="s">
+      <c r="A8" s="100"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="104" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:3">
-      <c r="A9" s="165"/>
-      <c r="B9" s="166"/>
-      <c r="C9" s="167" t="s">
+      <c r="A9" s="100"/>
+      <c r="B9" s="101"/>
+      <c r="C9" s="102" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:3">
-      <c r="A10" s="165"/>
-      <c r="B10" s="166"/>
-      <c r="C10" s="167" t="s">
+      <c r="A10" s="100"/>
+      <c r="B10" s="101"/>
+      <c r="C10" s="102" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:3">
-      <c r="A11" s="165"/>
-      <c r="B11" s="166"/>
-      <c r="C11" s="169" t="s">
+      <c r="A11" s="100"/>
+      <c r="B11" s="101"/>
+      <c r="C11" s="104" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:3">
-      <c r="A12" s="165"/>
-      <c r="B12" s="166"/>
-      <c r="C12" s="169" t="s">
+      <c r="A12" s="100"/>
+      <c r="B12" s="101"/>
+      <c r="C12" s="104" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:3">
-      <c r="A13" s="165"/>
-      <c r="B13" s="166"/>
-      <c r="C13" s="167" t="s">
+      <c r="A13" s="100"/>
+      <c r="B13" s="101"/>
+      <c r="C13" s="102" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:3">
-      <c r="A14" s="165"/>
-      <c r="B14" s="166"/>
-      <c r="C14" s="169" t="s">
+      <c r="A14" s="100"/>
+      <c r="B14" s="101"/>
+      <c r="C14" s="104" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:3">
-      <c r="A15" s="165"/>
-      <c r="B15" s="166"/>
-      <c r="C15" s="167" t="s">
+      <c r="A15" s="100"/>
+      <c r="B15" s="101"/>
+      <c r="C15" s="102" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:3">
-      <c r="A16" s="165"/>
-      <c r="B16" s="166"/>
-      <c r="C16" s="169" t="s">
+      <c r="A16" s="100"/>
+      <c r="B16" s="101"/>
+      <c r="C16" s="104" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:3">
-      <c r="A17" s="165"/>
-      <c r="B17" s="170" t="s">
+      <c r="A17" s="100"/>
+      <c r="B17" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="171" t="s">
+      <c r="C17" s="106" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:3">
-      <c r="A18" s="165"/>
-      <c r="B18" s="172"/>
-      <c r="C18" s="171" t="s">
+      <c r="A18" s="100"/>
+      <c r="B18" s="107"/>
+      <c r="C18" s="106" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:3">
-      <c r="A19" s="165"/>
-      <c r="B19" s="172"/>
-      <c r="C19" s="171" t="s">
+      <c r="A19" s="100"/>
+      <c r="B19" s="107"/>
+      <c r="C19" s="106" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:3">
-      <c r="A20" s="165"/>
-      <c r="B20" s="172"/>
-      <c r="C20" s="171" t="s">
+      <c r="A20" s="100"/>
+      <c r="B20" s="107"/>
+      <c r="C20" s="106" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:3">
-      <c r="A21" s="165"/>
-      <c r="B21" s="172"/>
-      <c r="C21" s="171" t="s">
+      <c r="A21" s="100"/>
+      <c r="B21" s="107"/>
+      <c r="C21" s="106" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:3">
-      <c r="A22" s="165"/>
-      <c r="B22" s="172"/>
-      <c r="C22" s="171" t="s">
+      <c r="A22" s="100"/>
+      <c r="B22" s="107"/>
+      <c r="C22" s="106" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:3">
-      <c r="A23" s="165"/>
-      <c r="B23" s="172"/>
-      <c r="C23" s="173" t="s">
+      <c r="A23" s="100"/>
+      <c r="B23" s="107"/>
+      <c r="C23" s="108" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:3">
-      <c r="A24" s="165"/>
-      <c r="B24" s="172"/>
-      <c r="C24" s="173" t="s">
+      <c r="A24" s="100"/>
+      <c r="B24" s="107"/>
+      <c r="C24" s="108" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:3">
-      <c r="A25" s="165"/>
-      <c r="B25" s="172"/>
-      <c r="C25" s="173" t="s">
+      <c r="A25" s="100"/>
+      <c r="B25" s="107"/>
+      <c r="C25" s="108" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:3">
-      <c r="A26" s="165"/>
-      <c r="B26" s="172"/>
-      <c r="C26" s="173" t="s">
+      <c r="A26" s="100"/>
+      <c r="B26" s="107"/>
+      <c r="C26" s="108" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:3">
-      <c r="A27" s="165"/>
-      <c r="B27" s="172"/>
-      <c r="C27" s="171" t="s">
+      <c r="A27" s="100"/>
+      <c r="B27" s="107"/>
+      <c r="C27" s="106" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:3">
-      <c r="A28" s="165"/>
-      <c r="B28" s="174" t="s">
+      <c r="A28" s="100"/>
+      <c r="B28" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="175" t="s">
+      <c r="C28" s="110" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:3">
-      <c r="A29" s="165"/>
-      <c r="B29" s="176"/>
-      <c r="C29" s="177" t="s">
+      <c r="A29" s="100"/>
+      <c r="B29" s="111"/>
+      <c r="C29" s="112" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:3">
-      <c r="A30" s="165"/>
-      <c r="B30" s="176"/>
-      <c r="C30" s="177" t="s">
+      <c r="A30" s="100"/>
+      <c r="B30" s="111"/>
+      <c r="C30" s="112" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:3">
-      <c r="A31" s="165"/>
-      <c r="B31" s="176"/>
-      <c r="C31" s="175" t="s">
+      <c r="A31" s="100"/>
+      <c r="B31" s="111"/>
+      <c r="C31" s="110" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:3">
-      <c r="A32" s="165"/>
-      <c r="B32" s="176"/>
-      <c r="C32" s="175" t="s">
+      <c r="A32" s="100"/>
+      <c r="B32" s="111"/>
+      <c r="C32" s="110" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:3">
-      <c r="A33" s="165"/>
-      <c r="B33" s="176"/>
-      <c r="C33" s="175" t="s">
+      <c r="A33" s="100"/>
+      <c r="B33" s="111"/>
+      <c r="C33" s="110" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:3">
-      <c r="A34" s="165"/>
-      <c r="B34" s="176"/>
-      <c r="C34" s="177" t="s">
+      <c r="A34" s="100"/>
+      <c r="B34" s="111"/>
+      <c r="C34" s="112" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:3">
-      <c r="A35" s="165"/>
-      <c r="B35" s="176"/>
-      <c r="C35" s="177" t="s">
+      <c r="A35" s="100"/>
+      <c r="B35" s="111"/>
+      <c r="C35" s="112" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:3">
-      <c r="A36" s="165"/>
-      <c r="B36" s="176"/>
-      <c r="C36" s="177" t="s">
+      <c r="A36" s="100"/>
+      <c r="B36" s="111"/>
+      <c r="C36" s="112" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:3">
-      <c r="A37" s="165"/>
-      <c r="B37" s="176"/>
-      <c r="C37" s="177" t="s">
+      <c r="A37" s="100"/>
+      <c r="B37" s="111"/>
+      <c r="C37" s="112" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:3">
-      <c r="A38" s="165"/>
-      <c r="B38" s="176"/>
-      <c r="C38" s="177" t="s">
+      <c r="A38" s="100"/>
+      <c r="B38" s="111"/>
+      <c r="C38" s="112" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:3">
-      <c r="A39" s="165"/>
-      <c r="B39" s="176"/>
-      <c r="C39" s="177" t="s">
+      <c r="A39" s="100"/>
+      <c r="B39" s="111"/>
+      <c r="C39" s="112" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:3">
-      <c r="A40" s="165"/>
-      <c r="B40" s="176"/>
-      <c r="C40" s="177" t="s">
+      <c r="A40" s="100"/>
+      <c r="B40" s="111"/>
+      <c r="C40" s="112" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:3">
-      <c r="A41" s="165"/>
-      <c r="B41" s="178" t="s">
+      <c r="A41" s="100"/>
+      <c r="B41" s="113" t="s">
         <v>49</v>
       </c>
-      <c r="C41" s="179" t="s">
+      <c r="C41" s="114" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:3">
-      <c r="A42" s="165"/>
-      <c r="B42" s="180"/>
-      <c r="C42" s="181" t="s">
+      <c r="A42" s="100"/>
+      <c r="B42" s="115"/>
+      <c r="C42" s="116" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:3">
-      <c r="A43" s="165"/>
-      <c r="B43" s="180"/>
-      <c r="C43" s="181" t="s">
+      <c r="A43" s="100"/>
+      <c r="B43" s="115"/>
+      <c r="C43" s="116" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:3">
-      <c r="A44" s="165"/>
-      <c r="B44" s="180"/>
-      <c r="C44" s="181" t="s">
+      <c r="A44" s="100"/>
+      <c r="B44" s="115"/>
+      <c r="C44" s="116" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:3">
-      <c r="A45" s="165"/>
-      <c r="B45" s="180"/>
-      <c r="C45" s="181" t="s">
+      <c r="A45" s="100"/>
+      <c r="B45" s="115"/>
+      <c r="C45" s="116" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:3">
-      <c r="A46" s="165"/>
-      <c r="B46" s="180"/>
-      <c r="C46" s="181" t="s">
+      <c r="A46" s="100"/>
+      <c r="B46" s="115"/>
+      <c r="C46" s="116" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:3">
-      <c r="A47" s="165"/>
-      <c r="B47" s="180"/>
-      <c r="C47" s="181" t="s">
+      <c r="A47" s="100"/>
+      <c r="B47" s="115"/>
+      <c r="C47" s="116" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="1:3">
-      <c r="A48" s="165"/>
-      <c r="B48" s="180"/>
-      <c r="C48" s="181" t="s">
+      <c r="A48" s="100"/>
+      <c r="B48" s="115"/>
+      <c r="C48" s="116" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:3">
-      <c r="A49" s="165"/>
-      <c r="B49" s="180"/>
-      <c r="C49" s="182" t="s">
+      <c r="A49" s="100"/>
+      <c r="B49" s="115"/>
+      <c r="C49" s="117" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="1:3">
-      <c r="A50" s="165"/>
-      <c r="B50" s="180"/>
-      <c r="C50" s="182" t="s">
+      <c r="A50" s="100"/>
+      <c r="B50" s="115"/>
+      <c r="C50" s="117" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="1:3">
-      <c r="A51" s="165"/>
-      <c r="B51" s="180"/>
-      <c r="C51" s="182" t="s">
+      <c r="A51" s="100"/>
+      <c r="B51" s="115"/>
+      <c r="C51" s="117" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="1:3">
-      <c r="A52" s="165"/>
-      <c r="B52" s="180"/>
-      <c r="C52" s="182" t="s">
+      <c r="A52" s="100"/>
+      <c r="B52" s="115"/>
+      <c r="C52" s="117" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="1:3">
-      <c r="A53" s="165"/>
-      <c r="B53" s="180"/>
-      <c r="C53" s="182" t="s">
+      <c r="A53" s="100"/>
+      <c r="B53" s="115"/>
+      <c r="C53" s="117" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="1:3">
-      <c r="A54" s="165"/>
-      <c r="B54" s="180"/>
-      <c r="C54" s="182" t="s">
+      <c r="A54" s="100"/>
+      <c r="B54" s="115"/>
+      <c r="C54" s="117" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="1:3">
-      <c r="A55" s="165"/>
-      <c r="B55" s="180"/>
-      <c r="C55" s="182" t="s">
+      <c r="A55" s="100"/>
+      <c r="B55" s="115"/>
+      <c r="C55" s="117" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="1:3">
-      <c r="A56" s="165"/>
-      <c r="B56" s="183" t="s">
+      <c r="A56" s="100"/>
+      <c r="B56" s="118" t="s">
         <v>65</v>
       </c>
-      <c r="C56" s="184" t="s">
+      <c r="C56" s="119" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="1:3">
-      <c r="A57" s="165"/>
-      <c r="B57" s="185"/>
-      <c r="C57" s="186" t="s">
+      <c r="A57" s="100"/>
+      <c r="B57" s="120"/>
+      <c r="C57" s="121" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="1:3">
-      <c r="A58" s="165"/>
-      <c r="B58" s="185"/>
-      <c r="C58" s="186" t="s">
+      <c r="A58" s="100"/>
+      <c r="B58" s="120"/>
+      <c r="C58" s="121" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="1:3">
-      <c r="A59" s="165"/>
-      <c r="B59" s="185"/>
-      <c r="C59" s="186" t="s">
+      <c r="A59" s="100"/>
+      <c r="B59" s="120"/>
+      <c r="C59" s="121" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="1:3">
-      <c r="A60" s="165"/>
-      <c r="B60" s="185"/>
-      <c r="C60" s="186" t="s">
+      <c r="A60" s="100"/>
+      <c r="B60" s="120"/>
+      <c r="C60" s="121" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="1:3">
-      <c r="A61" s="165"/>
-      <c r="B61" s="185"/>
-      <c r="C61" s="186" t="s">
+      <c r="A61" s="100"/>
+      <c r="B61" s="120"/>
+      <c r="C61" s="121" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="1:3">
-      <c r="A62" s="165"/>
-      <c r="B62" s="185"/>
-      <c r="C62" s="186" t="s">
+      <c r="A62" s="100"/>
+      <c r="B62" s="120"/>
+      <c r="C62" s="121" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="1:3">
-      <c r="A63" s="165"/>
-      <c r="B63" s="185"/>
-      <c r="C63" s="186" t="s">
+      <c r="A63" s="100"/>
+      <c r="B63" s="120"/>
+      <c r="C63" s="121" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="1:3">
-      <c r="A64" s="165"/>
-      <c r="B64" s="185"/>
-      <c r="C64" s="186" t="s">
+      <c r="A64" s="100"/>
+      <c r="B64" s="120"/>
+      <c r="C64" s="121" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="65" customHeight="1" spans="1:3">
-      <c r="A65" s="165"/>
-      <c r="B65" s="185"/>
-      <c r="C65" s="187" t="s">
+      <c r="A65" s="100"/>
+      <c r="B65" s="120"/>
+      <c r="C65" s="122" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="66" customHeight="1" spans="1:3">
-      <c r="A66" s="165"/>
-      <c r="B66" s="185"/>
-      <c r="C66" s="187" t="s">
+      <c r="A66" s="100"/>
+      <c r="B66" s="120"/>
+      <c r="C66" s="122" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="1:3">
-      <c r="A67" s="165"/>
-      <c r="B67" s="185"/>
-      <c r="C67" s="187" t="s">
+      <c r="A67" s="100"/>
+      <c r="B67" s="120"/>
+      <c r="C67" s="122" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="1:3">
-      <c r="A68" s="165"/>
-      <c r="B68" s="188" t="s">
+      <c r="A68" s="100"/>
+      <c r="B68" s="123" t="s">
         <v>78</v>
       </c>
-      <c r="C68" s="189" t="s">
+      <c r="C68" s="124" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="1:3">
-      <c r="A69" s="165"/>
-      <c r="B69" s="190"/>
-      <c r="C69" s="191" t="s">
+      <c r="A69" s="100"/>
+      <c r="B69" s="125"/>
+      <c r="C69" s="126" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="70" customHeight="1" spans="1:3">
-      <c r="A70" s="165"/>
-      <c r="B70" s="190"/>
-      <c r="C70" s="191" t="s">
+      <c r="A70" s="100"/>
+      <c r="B70" s="125"/>
+      <c r="C70" s="126" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="71" customHeight="1" spans="1:3">
-      <c r="A71" s="165"/>
-      <c r="B71" s="190"/>
-      <c r="C71" s="191" t="s">
+      <c r="A71" s="100"/>
+      <c r="B71" s="125"/>
+      <c r="C71" s="126" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="72" customHeight="1" spans="1:3">
-      <c r="A72" s="165"/>
-      <c r="B72" s="190"/>
-      <c r="C72" s="191" t="s">
+      <c r="A72" s="100"/>
+      <c r="B72" s="125"/>
+      <c r="C72" s="126" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="73" customHeight="1" spans="1:3">
-      <c r="A73" s="165"/>
-      <c r="B73" s="190"/>
-      <c r="C73" s="192" t="s">
+      <c r="A73" s="100"/>
+      <c r="B73" s="125"/>
+      <c r="C73" s="127" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="74" customHeight="1" spans="1:3">
-      <c r="A74" s="165"/>
-      <c r="B74" s="190"/>
-      <c r="C74" s="192" t="s">
+      <c r="A74" s="100"/>
+      <c r="B74" s="125"/>
+      <c r="C74" s="127" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="1:3">
-      <c r="A75" s="165"/>
-      <c r="B75" s="190"/>
-      <c r="C75" s="191" t="s">
+      <c r="A75" s="100"/>
+      <c r="B75" s="125"/>
+      <c r="C75" s="126" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="76" customHeight="1" spans="1:3">
-      <c r="A76" s="165"/>
-      <c r="B76" s="193" t="s">
+      <c r="A76" s="100"/>
+      <c r="B76" s="128" t="s">
         <v>87</v>
       </c>
-      <c r="C76" s="194" t="s">
+      <c r="C76" s="129" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="77" customHeight="1" spans="1:3">
-      <c r="A77" s="165"/>
-      <c r="B77" s="195"/>
-      <c r="C77" s="196" t="s">
+      <c r="A77" s="100"/>
+      <c r="B77" s="130"/>
+      <c r="C77" s="131" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="78" customHeight="1" spans="1:3">
-      <c r="A78" s="165"/>
-      <c r="B78" s="195"/>
-      <c r="C78" s="196" t="s">
+      <c r="A78" s="100"/>
+      <c r="B78" s="130"/>
+      <c r="C78" s="131" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="79" customHeight="1" spans="1:3">
-      <c r="A79" s="165"/>
-      <c r="B79" s="195"/>
-      <c r="C79" s="196" t="s">
+      <c r="A79" s="100"/>
+      <c r="B79" s="130"/>
+      <c r="C79" s="131" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="80" customHeight="1" spans="1:3">
-      <c r="A80" s="165"/>
-      <c r="B80" s="195"/>
-      <c r="C80" s="196" t="s">
+      <c r="A80" s="100"/>
+      <c r="B80" s="130"/>
+      <c r="C80" s="131" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="81" customHeight="1" spans="1:3">
-      <c r="A81" s="165"/>
-      <c r="B81" s="195"/>
-      <c r="C81" s="196" t="s">
+      <c r="A81" s="100"/>
+      <c r="B81" s="130"/>
+      <c r="C81" s="131" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="82" customHeight="1" spans="1:3">
-      <c r="A82" s="165"/>
-      <c r="B82" s="195"/>
-      <c r="C82" s="196" t="s">
+      <c r="A82" s="100"/>
+      <c r="B82" s="130"/>
+      <c r="C82" s="131" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="83" customHeight="1" spans="1:3">
-      <c r="A83" s="165"/>
-      <c r="B83" s="195"/>
-      <c r="C83" s="196" t="s">
+      <c r="A83" s="100"/>
+      <c r="B83" s="130"/>
+      <c r="C83" s="131" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="84" customHeight="1" spans="1:3">
-      <c r="A84" s="165"/>
-      <c r="B84" s="195"/>
-      <c r="C84" s="196" t="s">
+      <c r="A84" s="100"/>
+      <c r="B84" s="130"/>
+      <c r="C84" s="131" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="85" customHeight="1" spans="1:3">
-      <c r="A85" s="165"/>
-      <c r="B85" s="195"/>
-      <c r="C85" s="196" t="s">
+      <c r="A85" s="100"/>
+      <c r="B85" s="130"/>
+      <c r="C85" s="131" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="86" customHeight="1" spans="1:3">
-      <c r="A86" s="165"/>
-      <c r="B86" s="195"/>
-      <c r="C86" s="196" t="s">
+      <c r="A86" s="100"/>
+      <c r="B86" s="130"/>
+      <c r="C86" s="131" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="87" customHeight="1" spans="1:3">
-      <c r="A87" s="165"/>
-      <c r="B87" s="195"/>
-      <c r="C87" s="196" t="s">
+      <c r="A87" s="100"/>
+      <c r="B87" s="130"/>
+      <c r="C87" s="131" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="88" customHeight="1" spans="1:3">
-      <c r="A88" s="165"/>
-      <c r="B88" s="195"/>
-      <c r="C88" s="196" t="s">
+      <c r="A88" s="100"/>
+      <c r="B88" s="130"/>
+      <c r="C88" s="131" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="89" customHeight="1" spans="1:3">
-      <c r="A89" s="165"/>
-      <c r="B89" s="195"/>
-      <c r="C89" s="196" t="s">
+      <c r="A89" s="100"/>
+      <c r="B89" s="130"/>
+      <c r="C89" s="131" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="90" customHeight="1" spans="1:3">
-      <c r="A90" s="165"/>
-      <c r="B90" s="197" t="s">
+      <c r="A90" s="100"/>
+      <c r="B90" s="132" t="s">
         <v>102</v>
       </c>
-      <c r="C90" s="197" t="s">
+      <c r="C90" s="132" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="91" customHeight="1" spans="1:3">
-      <c r="A91" s="165"/>
-      <c r="B91" s="198"/>
-      <c r="C91" s="199"/>
+      <c r="A91" s="100"/>
+      <c r="B91" s="133"/>
+      <c r="C91" s="134"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3658,7 +3429,7 @@
   <sheetPr/>
   <dimension ref="A1:I84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="C41" sqref="C41"/>
@@ -3677,717 +3448,717 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A2" s="145">
+      <c r="A2" s="80">
         <v>1</v>
       </c>
-      <c r="B2" s="146" t="s">
+      <c r="B2" s="81" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="147" t="s">
+      <c r="C2" s="82" t="s">
         <v>111</v>
       </c>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
     </row>
     <row r="3" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A3" s="145">
+      <c r="A3" s="80">
         <v>2</v>
       </c>
-      <c r="B3" s="149" t="s">
+      <c r="B3" s="84" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="147" t="s">
+      <c r="C3" s="82" t="s">
         <v>112</v>
       </c>
-      <c r="D3" s="148"/>
-      <c r="E3" s="148"/>
-      <c r="F3" s="148"/>
-      <c r="G3" s="148"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
     </row>
     <row r="4" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A4" s="145">
+      <c r="A4" s="80">
         <v>3</v>
       </c>
-      <c r="B4" s="149" t="s">
+      <c r="B4" s="84" t="s">
         <v>110</v>
       </c>
-      <c r="C4" s="147" t="s">
+      <c r="C4" s="82" t="s">
         <v>113</v>
       </c>
-      <c r="D4" s="148"/>
-      <c r="E4" s="148"/>
-      <c r="F4" s="148"/>
-      <c r="G4" s="148"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
     </row>
     <row r="5" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A5" s="145">
+      <c r="A5" s="80">
         <v>4</v>
       </c>
-      <c r="B5" s="149" t="s">
+      <c r="B5" s="84" t="s">
         <v>110</v>
       </c>
-      <c r="C5" s="147" t="s">
+      <c r="C5" s="82" t="s">
         <v>114</v>
       </c>
-      <c r="D5" s="148"/>
-      <c r="E5" s="148"/>
-      <c r="F5" s="148"/>
-      <c r="G5" s="148"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
     </row>
     <row r="6" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A6" s="145">
+      <c r="A6" s="80">
         <v>5</v>
       </c>
-      <c r="B6" s="149" t="s">
+      <c r="B6" s="84" t="s">
         <v>110</v>
       </c>
-      <c r="C6" s="147" t="s">
+      <c r="C6" s="82" t="s">
         <v>115</v>
       </c>
-      <c r="D6" s="148"/>
-      <c r="E6" s="148"/>
-      <c r="F6" s="148"/>
-      <c r="G6" s="148"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
     </row>
     <row r="7" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A7" s="145">
+      <c r="A7" s="80">
         <v>6</v>
       </c>
-      <c r="B7" s="149" t="s">
+      <c r="B7" s="84" t="s">
         <v>110</v>
       </c>
-      <c r="C7" s="147" t="s">
+      <c r="C7" s="82" t="s">
         <v>116</v>
       </c>
-      <c r="D7" s="148"/>
-      <c r="E7" s="148"/>
-      <c r="F7" s="148"/>
-      <c r="G7" s="148"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
     </row>
     <row r="8" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A8" s="145">
+      <c r="A8" s="80">
         <v>7</v>
       </c>
-      <c r="B8" s="149" t="s">
+      <c r="B8" s="84" t="s">
         <v>110</v>
       </c>
-      <c r="C8" s="147" t="s">
+      <c r="C8" s="82" t="s">
         <v>117</v>
       </c>
-      <c r="D8" s="148"/>
-      <c r="E8" s="148"/>
-      <c r="F8" s="148"/>
-      <c r="G8" s="148"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="83"/>
     </row>
     <row r="9" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A9" s="145">
+      <c r="A9" s="80">
         <v>8</v>
       </c>
-      <c r="B9" s="150" t="s">
+      <c r="B9" s="85" t="s">
         <v>118</v>
       </c>
-      <c r="C9" s="151" t="s">
+      <c r="C9" s="86" t="s">
         <v>119</v>
       </c>
-      <c r="D9" s="152"/>
-      <c r="E9" s="152"/>
-      <c r="F9" s="152"/>
-      <c r="G9" s="152"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="87"/>
     </row>
     <row r="10" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A10" s="145">
+      <c r="A10" s="80">
         <v>9</v>
       </c>
-      <c r="B10" s="150" t="s">
+      <c r="B10" s="85" t="s">
         <v>118</v>
       </c>
-      <c r="C10" s="151" t="s">
+      <c r="C10" s="86" t="s">
         <v>120</v>
       </c>
-      <c r="D10" s="152"/>
-      <c r="E10" s="152"/>
-      <c r="F10" s="152"/>
-      <c r="G10" s="152"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="87"/>
     </row>
     <row r="11" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A11" s="145">
+      <c r="A11" s="80">
         <v>10</v>
       </c>
-      <c r="B11" s="150" t="s">
+      <c r="B11" s="85" t="s">
         <v>118</v>
       </c>
-      <c r="C11" s="151" t="s">
+      <c r="C11" s="86" t="s">
         <v>121</v>
       </c>
-      <c r="D11" s="152"/>
-      <c r="E11" s="152"/>
-      <c r="F11" s="152"/>
-      <c r="G11" s="152"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="87"/>
     </row>
     <row r="12" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A12" s="145">
+      <c r="A12" s="80">
         <v>11</v>
       </c>
-      <c r="B12" s="150" t="s">
+      <c r="B12" s="85" t="s">
         <v>118</v>
       </c>
-      <c r="C12" s="151" t="s">
+      <c r="C12" s="86" t="s">
         <v>122</v>
       </c>
-      <c r="D12" s="152"/>
-      <c r="E12" s="152"/>
-      <c r="F12" s="152"/>
-      <c r="G12" s="152"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="87"/>
     </row>
     <row r="13" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A13" s="145">
+      <c r="A13" s="80">
         <v>12</v>
       </c>
-      <c r="B13" s="150" t="s">
+      <c r="B13" s="85" t="s">
         <v>118</v>
       </c>
-      <c r="C13" s="151" t="s">
+      <c r="C13" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="D13" s="152"/>
-      <c r="E13" s="152"/>
-      <c r="F13" s="152"/>
-      <c r="G13" s="152"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
     </row>
     <row r="14" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A14" s="145">
+      <c r="A14" s="80">
         <v>13</v>
       </c>
-      <c r="B14" s="150" t="s">
+      <c r="B14" s="85" t="s">
         <v>118</v>
       </c>
-      <c r="C14" s="151" t="s">
+      <c r="C14" s="86" t="s">
         <v>124</v>
       </c>
-      <c r="D14" s="152"/>
-      <c r="E14" s="152"/>
-      <c r="F14" s="152"/>
-      <c r="G14" s="152"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="87"/>
+      <c r="F14" s="87"/>
+      <c r="G14" s="87"/>
     </row>
     <row r="15" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A15" s="145">
+      <c r="A15" s="80">
         <v>14</v>
       </c>
-      <c r="B15" s="150" t="s">
+      <c r="B15" s="85" t="s">
         <v>118</v>
       </c>
-      <c r="C15" s="151" t="s">
+      <c r="C15" s="86" t="s">
         <v>125</v>
       </c>
-      <c r="D15" s="152"/>
-      <c r="E15" s="152"/>
-      <c r="F15" s="152"/>
-      <c r="G15" s="152"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="87"/>
     </row>
     <row r="16" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A16" s="145">
+      <c r="A16" s="80">
         <v>15</v>
       </c>
-      <c r="B16" s="150" t="s">
+      <c r="B16" s="85" t="s">
         <v>118</v>
       </c>
-      <c r="C16" s="151" t="s">
+      <c r="C16" s="86" t="s">
         <v>126</v>
       </c>
-      <c r="D16" s="152"/>
-      <c r="E16" s="152"/>
-      <c r="F16" s="152"/>
-      <c r="G16" s="152"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="87"/>
     </row>
     <row r="17" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A17" s="145">
+      <c r="A17" s="80">
         <v>16</v>
       </c>
-      <c r="B17" s="150" t="s">
+      <c r="B17" s="85" t="s">
         <v>118</v>
       </c>
-      <c r="C17" s="151" t="s">
+      <c r="C17" s="86" t="s">
         <v>127</v>
       </c>
-      <c r="D17" s="152"/>
-      <c r="E17" s="152"/>
-      <c r="F17" s="152"/>
-      <c r="G17" s="152"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="87"/>
+      <c r="G17" s="87"/>
     </row>
     <row r="18" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A18" s="145">
+      <c r="A18" s="80">
         <v>17</v>
       </c>
-      <c r="B18" s="150" t="s">
+      <c r="B18" s="85" t="s">
         <v>118</v>
       </c>
-      <c r="C18" s="151" t="s">
+      <c r="C18" s="86" t="s">
         <v>128</v>
       </c>
-      <c r="D18" s="152"/>
-      <c r="E18" s="152"/>
-      <c r="F18" s="152"/>
-      <c r="G18" s="152"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="87"/>
+      <c r="G18" s="87"/>
     </row>
     <row r="19" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A19" s="145">
+      <c r="A19" s="80">
         <v>18</v>
       </c>
-      <c r="B19" s="150" t="s">
+      <c r="B19" s="85" t="s">
         <v>118</v>
       </c>
-      <c r="C19" s="151" t="s">
+      <c r="C19" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="D19" s="152"/>
-      <c r="E19" s="152"/>
-      <c r="F19" s="152"/>
-      <c r="G19" s="152"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="87"/>
+      <c r="F19" s="87"/>
+      <c r="G19" s="87"/>
     </row>
     <row r="20" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A20" s="145">
+      <c r="A20" s="80">
         <v>19</v>
       </c>
-      <c r="B20" s="150" t="s">
+      <c r="B20" s="85" t="s">
         <v>118</v>
       </c>
-      <c r="C20" s="151" t="s">
+      <c r="C20" s="86" t="s">
         <v>130</v>
       </c>
-      <c r="D20" s="152"/>
-      <c r="E20" s="152"/>
-      <c r="F20" s="152"/>
-      <c r="G20" s="152"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="87"/>
+      <c r="F20" s="87"/>
+      <c r="G20" s="87"/>
     </row>
     <row r="21" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A21" s="145">
+      <c r="A21" s="80">
         <v>20</v>
       </c>
-      <c r="B21" s="150" t="s">
+      <c r="B21" s="85" t="s">
         <v>118</v>
       </c>
-      <c r="C21" s="151" t="s">
+      <c r="C21" s="86" t="s">
         <v>131</v>
       </c>
-      <c r="D21" s="152"/>
-      <c r="E21" s="152"/>
-      <c r="F21" s="152"/>
-      <c r="G21" s="152"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="87"/>
+      <c r="F21" s="87"/>
+      <c r="G21" s="87"/>
     </row>
     <row r="22" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A22" s="145">
+      <c r="A22" s="80">
         <v>21</v>
       </c>
-      <c r="B22" s="150" t="s">
+      <c r="B22" s="85" t="s">
         <v>118</v>
       </c>
-      <c r="C22" s="151" t="s">
+      <c r="C22" s="86" t="s">
         <v>132</v>
       </c>
-      <c r="D22" s="152"/>
-      <c r="E22" s="152"/>
-      <c r="F22" s="152"/>
-      <c r="G22" s="152"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="87"/>
+      <c r="F22" s="87"/>
+      <c r="G22" s="87"/>
     </row>
     <row r="23" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A23" s="145">
+      <c r="A23" s="80">
         <v>22</v>
       </c>
-      <c r="B23" s="150" t="s">
+      <c r="B23" s="85" t="s">
         <v>118</v>
       </c>
-      <c r="C23" s="151" t="s">
+      <c r="C23" s="86" t="s">
         <v>133</v>
       </c>
-      <c r="D23" s="152"/>
-      <c r="E23" s="152"/>
-      <c r="F23" s="152"/>
-      <c r="G23" s="152"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="87"/>
+      <c r="F23" s="87"/>
+      <c r="G23" s="87"/>
     </row>
     <row r="24" customHeight="1" spans="1:7">
-      <c r="A24" s="145">
+      <c r="A24" s="80">
         <v>23</v>
       </c>
-      <c r="B24" s="153" t="s">
+      <c r="B24" s="88" t="s">
         <v>134</v>
       </c>
-      <c r="C24" s="154" t="s">
+      <c r="C24" s="89" t="s">
         <v>135</v>
       </c>
-      <c r="D24" s="155"/>
-      <c r="E24" s="155"/>
-      <c r="F24" s="155"/>
-      <c r="G24" s="155"/>
+      <c r="D24" s="90"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="90"/>
+      <c r="G24" s="90"/>
     </row>
     <row r="25" customHeight="1" spans="1:7">
-      <c r="A25" s="145">
+      <c r="A25" s="80">
         <v>24</v>
       </c>
-      <c r="B25" s="153" t="s">
+      <c r="B25" s="88" t="s">
         <v>134</v>
       </c>
-      <c r="C25" s="154" t="s">
+      <c r="C25" s="89" t="s">
         <v>136</v>
       </c>
-      <c r="D25" s="155"/>
-      <c r="E25" s="155"/>
-      <c r="F25" s="155"/>
-      <c r="G25" s="155"/>
+      <c r="D25" s="90"/>
+      <c r="E25" s="90"/>
+      <c r="F25" s="90"/>
+      <c r="G25" s="90"/>
     </row>
     <row r="26" customHeight="1" spans="1:7">
-      <c r="A26" s="145">
+      <c r="A26" s="80">
         <v>25</v>
       </c>
-      <c r="B26" s="153" t="s">
+      <c r="B26" s="88" t="s">
         <v>134</v>
       </c>
-      <c r="C26" s="154" t="s">
+      <c r="C26" s="89" t="s">
         <v>137</v>
       </c>
-      <c r="D26" s="155"/>
-      <c r="E26" s="155"/>
-      <c r="F26" s="155"/>
-      <c r="G26" s="155"/>
+      <c r="D26" s="90"/>
+      <c r="E26" s="90"/>
+      <c r="F26" s="90"/>
+      <c r="G26" s="90"/>
     </row>
     <row r="27" customHeight="1" spans="1:7">
-      <c r="A27" s="145">
+      <c r="A27" s="80">
         <v>26</v>
       </c>
-      <c r="B27" s="153" t="s">
+      <c r="B27" s="88" t="s">
         <v>134</v>
       </c>
-      <c r="C27" s="154" t="s">
+      <c r="C27" s="89" t="s">
         <v>138</v>
       </c>
-      <c r="D27" s="155"/>
-      <c r="E27" s="155"/>
-      <c r="F27" s="155"/>
-      <c r="G27" s="155"/>
+      <c r="D27" s="90"/>
+      <c r="E27" s="90"/>
+      <c r="F27" s="90"/>
+      <c r="G27" s="90"/>
     </row>
     <row r="28" customHeight="1" spans="1:7">
-      <c r="A28" s="145">
+      <c r="A28" s="80">
         <v>27</v>
       </c>
-      <c r="B28" s="153" t="s">
+      <c r="B28" s="88" t="s">
         <v>134</v>
       </c>
-      <c r="C28" s="154" t="s">
+      <c r="C28" s="89" t="s">
         <v>139</v>
       </c>
-      <c r="D28" s="155"/>
-      <c r="E28" s="155"/>
-      <c r="F28" s="155"/>
-      <c r="G28" s="155"/>
+      <c r="D28" s="90"/>
+      <c r="E28" s="90"/>
+      <c r="F28" s="90"/>
+      <c r="G28" s="90"/>
     </row>
     <row r="29" customHeight="1" spans="1:7">
-      <c r="A29" s="145">
+      <c r="A29" s="80">
         <v>28</v>
       </c>
-      <c r="B29" s="153" t="s">
+      <c r="B29" s="88" t="s">
         <v>134</v>
       </c>
-      <c r="C29" s="154" t="s">
+      <c r="C29" s="89" t="s">
         <v>140</v>
       </c>
-      <c r="D29" s="155"/>
-      <c r="E29" s="155"/>
-      <c r="F29" s="155"/>
-      <c r="G29" s="155"/>
+      <c r="D29" s="90"/>
+      <c r="E29" s="90"/>
+      <c r="F29" s="90"/>
+      <c r="G29" s="90"/>
     </row>
     <row r="30" customHeight="1" spans="1:7">
-      <c r="A30" s="145">
+      <c r="A30" s="80">
         <v>29</v>
       </c>
-      <c r="B30" s="153" t="s">
+      <c r="B30" s="88" t="s">
         <v>134</v>
       </c>
-      <c r="C30" s="154" t="s">
+      <c r="C30" s="89" t="s">
         <v>141</v>
       </c>
-      <c r="D30" s="155"/>
-      <c r="E30" s="155"/>
-      <c r="F30" s="155"/>
-      <c r="G30" s="155"/>
+      <c r="D30" s="90"/>
+      <c r="E30" s="90"/>
+      <c r="F30" s="90"/>
+      <c r="G30" s="90"/>
     </row>
     <row r="31" customHeight="1" spans="1:7">
-      <c r="A31" s="145">
+      <c r="A31" s="80">
         <v>30</v>
       </c>
-      <c r="B31" s="153" t="s">
+      <c r="B31" s="88" t="s">
         <v>134</v>
       </c>
-      <c r="C31" s="154" t="s">
+      <c r="C31" s="89" t="s">
         <v>142</v>
       </c>
-      <c r="D31" s="155"/>
-      <c r="E31" s="155"/>
-      <c r="F31" s="155"/>
-      <c r="G31" s="155"/>
+      <c r="D31" s="90"/>
+      <c r="E31" s="90"/>
+      <c r="F31" s="90"/>
+      <c r="G31" s="90"/>
     </row>
     <row r="32" customHeight="1" spans="1:7">
-      <c r="A32" s="145">
+      <c r="A32" s="80">
         <v>31</v>
       </c>
-      <c r="B32" s="153" t="s">
+      <c r="B32" s="88" t="s">
         <v>134</v>
       </c>
-      <c r="C32" s="154" t="s">
+      <c r="C32" s="89" t="s">
         <v>143</v>
       </c>
-      <c r="D32" s="155"/>
-      <c r="E32" s="155"/>
-      <c r="F32" s="155"/>
-      <c r="G32" s="155"/>
+      <c r="D32" s="90"/>
+      <c r="E32" s="90"/>
+      <c r="F32" s="90"/>
+      <c r="G32" s="90"/>
     </row>
     <row r="33" customHeight="1" spans="1:7">
-      <c r="A33" s="145">
+      <c r="A33" s="80">
         <v>32</v>
       </c>
-      <c r="B33" s="153" t="s">
+      <c r="B33" s="88" t="s">
         <v>134</v>
       </c>
-      <c r="C33" s="154" t="s">
+      <c r="C33" s="89" t="s">
         <v>144</v>
       </c>
-      <c r="D33" s="155"/>
-      <c r="E33" s="155"/>
-      <c r="F33" s="155"/>
-      <c r="G33" s="155"/>
+      <c r="D33" s="90"/>
+      <c r="E33" s="90"/>
+      <c r="F33" s="90"/>
+      <c r="G33" s="90"/>
     </row>
     <row r="34" customHeight="1" spans="1:7">
-      <c r="A34" s="145">
+      <c r="A34" s="80">
         <v>33</v>
       </c>
-      <c r="B34" s="153" t="s">
+      <c r="B34" s="88" t="s">
         <v>134</v>
       </c>
-      <c r="C34" s="154" t="s">
+      <c r="C34" s="89" t="s">
         <v>145</v>
       </c>
-      <c r="D34" s="155"/>
-      <c r="E34" s="155"/>
-      <c r="F34" s="155"/>
-      <c r="G34" s="155"/>
+      <c r="D34" s="90"/>
+      <c r="E34" s="90"/>
+      <c r="F34" s="90"/>
+      <c r="G34" s="90"/>
     </row>
     <row r="35" customHeight="1" spans="1:7">
-      <c r="A35" s="145">
+      <c r="A35" s="80">
         <v>34</v>
       </c>
-      <c r="B35" s="153" t="s">
+      <c r="B35" s="88" t="s">
         <v>134</v>
       </c>
-      <c r="C35" s="154" t="s">
+      <c r="C35" s="89" t="s">
         <v>146</v>
       </c>
-      <c r="D35" s="155"/>
-      <c r="E35" s="155"/>
-      <c r="F35" s="155"/>
-      <c r="G35" s="155"/>
+      <c r="D35" s="90"/>
+      <c r="E35" s="90"/>
+      <c r="F35" s="90"/>
+      <c r="G35" s="90"/>
     </row>
     <row r="36" customHeight="1" spans="1:7">
-      <c r="A36" s="145">
+      <c r="A36" s="80">
         <v>35</v>
       </c>
-      <c r="B36" s="153" t="s">
+      <c r="B36" s="88" t="s">
         <v>134</v>
       </c>
-      <c r="C36" s="154" t="s">
+      <c r="C36" s="89" t="s">
         <v>147</v>
       </c>
-      <c r="D36" s="155"/>
-      <c r="E36" s="155"/>
-      <c r="F36" s="155"/>
-      <c r="G36" s="155"/>
+      <c r="D36" s="90"/>
+      <c r="E36" s="90"/>
+      <c r="F36" s="90"/>
+      <c r="G36" s="90"/>
     </row>
     <row r="37" customHeight="1" spans="1:7">
-      <c r="A37" s="145">
+      <c r="A37" s="80">
         <v>36</v>
       </c>
-      <c r="B37" s="153" t="s">
+      <c r="B37" s="88" t="s">
         <v>134</v>
       </c>
-      <c r="C37" s="154" t="s">
+      <c r="C37" s="89" t="s">
         <v>148</v>
       </c>
-      <c r="D37" s="155"/>
-      <c r="E37" s="155"/>
-      <c r="F37" s="155"/>
-      <c r="G37" s="155"/>
+      <c r="D37" s="90"/>
+      <c r="E37" s="90"/>
+      <c r="F37" s="90"/>
+      <c r="G37" s="90"/>
     </row>
     <row r="38" customHeight="1" spans="1:7">
-      <c r="A38" s="145">
+      <c r="A38" s="80">
         <v>37</v>
       </c>
-      <c r="B38" s="153" t="s">
+      <c r="B38" s="88" t="s">
         <v>134</v>
       </c>
-      <c r="C38" s="154" t="s">
+      <c r="C38" s="89" t="s">
         <v>149</v>
       </c>
-      <c r="D38" s="155"/>
-      <c r="E38" s="155"/>
-      <c r="F38" s="155"/>
-      <c r="G38" s="155"/>
+      <c r="D38" s="90"/>
+      <c r="E38" s="90"/>
+      <c r="F38" s="90"/>
+      <c r="G38" s="90"/>
     </row>
     <row r="39" customHeight="1" spans="1:7">
-      <c r="A39" s="145">
+      <c r="A39" s="80">
         <v>38</v>
       </c>
-      <c r="B39" s="153" t="s">
+      <c r="B39" s="88" t="s">
         <v>134</v>
       </c>
-      <c r="C39" s="154" t="s">
+      <c r="C39" s="89" t="s">
         <v>150</v>
       </c>
-      <c r="D39" s="155"/>
-      <c r="E39" s="155"/>
-      <c r="F39" s="155"/>
-      <c r="G39" s="155"/>
+      <c r="D39" s="90"/>
+      <c r="E39" s="90"/>
+      <c r="F39" s="90"/>
+      <c r="G39" s="90"/>
     </row>
     <row r="40" customHeight="1" spans="1:7">
-      <c r="A40" s="145">
+      <c r="A40" s="80">
         <v>39</v>
       </c>
-      <c r="B40" s="153" t="s">
+      <c r="B40" s="88" t="s">
         <v>134</v>
       </c>
-      <c r="C40" s="154" t="s">
+      <c r="C40" s="89" t="s">
         <v>151</v>
       </c>
-      <c r="D40" s="155"/>
-      <c r="E40" s="155"/>
-      <c r="F40" s="155"/>
-      <c r="G40" s="155"/>
+      <c r="D40" s="90"/>
+      <c r="E40" s="90"/>
+      <c r="F40" s="90"/>
+      <c r="G40" s="90"/>
     </row>
     <row r="41" customHeight="1" spans="1:7">
-      <c r="A41" s="145">
+      <c r="A41" s="80">
         <v>40</v>
       </c>
-      <c r="B41" s="153" t="s">
+      <c r="B41" s="88" t="s">
         <v>134</v>
       </c>
-      <c r="C41" s="154" t="s">
+      <c r="C41" s="89" t="s">
         <v>152</v>
       </c>
-      <c r="D41" s="155"/>
-      <c r="E41" s="155"/>
-      <c r="F41" s="155"/>
-      <c r="G41" s="155"/>
+      <c r="D41" s="90"/>
+      <c r="E41" s="90"/>
+      <c r="F41" s="90"/>
+      <c r="G41" s="90"/>
     </row>
     <row r="42" customHeight="1" spans="1:7">
-      <c r="A42" s="145">
+      <c r="A42" s="80">
         <v>41</v>
       </c>
-      <c r="B42" s="153" t="s">
+      <c r="B42" s="88" t="s">
         <v>134</v>
       </c>
-      <c r="C42" s="154" t="s">
+      <c r="C42" s="89" t="s">
         <v>153</v>
       </c>
-      <c r="D42" s="155"/>
-      <c r="E42" s="155"/>
-      <c r="F42" s="155"/>
-      <c r="G42" s="155"/>
+      <c r="D42" s="90"/>
+      <c r="E42" s="90"/>
+      <c r="F42" s="90"/>
+      <c r="G42" s="90"/>
     </row>
     <row r="43" customHeight="1" spans="1:7">
-      <c r="A43" s="145">
+      <c r="A43" s="80">
         <v>42</v>
       </c>
-      <c r="B43" s="153" t="s">
+      <c r="B43" s="88" t="s">
         <v>134</v>
       </c>
-      <c r="C43" s="154" t="s">
+      <c r="C43" s="89" t="s">
         <v>154</v>
       </c>
-      <c r="D43" s="155"/>
-      <c r="E43" s="155"/>
-      <c r="F43" s="155"/>
-      <c r="G43" s="155"/>
+      <c r="D43" s="90"/>
+      <c r="E43" s="90"/>
+      <c r="F43" s="90"/>
+      <c r="G43" s="90"/>
     </row>
     <row r="44" customHeight="1" spans="1:7">
-      <c r="A44" s="145">
+      <c r="A44" s="80">
         <v>43</v>
       </c>
-      <c r="B44" s="156" t="s">
+      <c r="B44" s="91" t="s">
         <v>155</v>
       </c>
-      <c r="C44" s="157" t="s">
+      <c r="C44" s="92" t="s">
         <v>156</v>
       </c>
-      <c r="D44" s="158"/>
-      <c r="E44" s="158"/>
-      <c r="F44" s="158"/>
-      <c r="G44" s="158"/>
+      <c r="D44" s="93"/>
+      <c r="E44" s="93"/>
+      <c r="F44" s="93"/>
+      <c r="G44" s="93"/>
     </row>
     <row r="45" customHeight="1" spans="1:7">
-      <c r="A45" s="145">
+      <c r="A45" s="80">
         <v>44</v>
       </c>
-      <c r="B45" s="156" t="s">
+      <c r="B45" s="91" t="s">
         <v>155</v>
       </c>
-      <c r="C45" s="157" t="s">
+      <c r="C45" s="92" t="s">
         <v>157</v>
       </c>
-      <c r="D45" s="158"/>
-      <c r="E45" s="158"/>
-      <c r="F45" s="158"/>
-      <c r="G45" s="158"/>
+      <c r="D45" s="93"/>
+      <c r="E45" s="93"/>
+      <c r="F45" s="93"/>
+      <c r="G45" s="93"/>
     </row>
     <row r="46" customHeight="1" spans="1:7">
-      <c r="A46" s="145">
+      <c r="A46" s="80">
         <v>45</v>
       </c>
-      <c r="B46" s="156" t="s">
+      <c r="B46" s="91" t="s">
         <v>155</v>
       </c>
-      <c r="C46" s="157" t="s">
+      <c r="C46" s="92" t="s">
         <v>158</v>
       </c>
-      <c r="D46" s="158"/>
-      <c r="E46" s="158"/>
-      <c r="F46" s="158"/>
-      <c r="G46" s="158"/>
+      <c r="D46" s="93"/>
+      <c r="E46" s="93"/>
+      <c r="F46" s="93"/>
+      <c r="G46" s="93"/>
     </row>
     <row r="47" customHeight="1" spans="1:7">
-      <c r="A47" s="145">
+      <c r="A47" s="80">
         <v>46</v>
       </c>
-      <c r="B47" s="156" t="s">
+      <c r="B47" s="91" t="s">
         <v>155</v>
       </c>
-      <c r="C47" s="157" t="s">
+      <c r="C47" s="92" t="s">
         <v>159</v>
       </c>
-      <c r="D47" s="158"/>
-      <c r="E47" s="158"/>
-      <c r="F47" s="158"/>
-      <c r="G47" s="158"/>
+      <c r="D47" s="93"/>
+      <c r="E47" s="93"/>
+      <c r="F47" s="93"/>
+      <c r="G47" s="93"/>
     </row>
     <row r="48" customHeight="1" spans="2:9">
       <c r="B48"/>
@@ -4676,39 +4447,39 @@
       <c r="G79"/>
     </row>
     <row r="80" customHeight="1" spans="2:6">
-      <c r="B80" s="159"/>
-      <c r="C80" s="159"/>
-      <c r="D80" s="159"/>
-      <c r="E80" s="159"/>
-      <c r="F80" s="159"/>
+      <c r="B80" s="94"/>
+      <c r="C80" s="94"/>
+      <c r="D80" s="94"/>
+      <c r="E80" s="94"/>
+      <c r="F80" s="94"/>
     </row>
     <row r="81" customHeight="1" spans="2:6">
-      <c r="B81" s="159"/>
-      <c r="C81" s="159"/>
-      <c r="D81" s="159"/>
-      <c r="E81" s="159"/>
-      <c r="F81" s="159"/>
+      <c r="B81" s="94"/>
+      <c r="C81" s="94"/>
+      <c r="D81" s="94"/>
+      <c r="E81" s="94"/>
+      <c r="F81" s="94"/>
     </row>
     <row r="82" customHeight="1" spans="2:6">
-      <c r="B82" s="159"/>
-      <c r="C82" s="159"/>
-      <c r="D82" s="159"/>
-      <c r="E82" s="159"/>
-      <c r="F82" s="159"/>
+      <c r="B82" s="94"/>
+      <c r="C82" s="94"/>
+      <c r="D82" s="94"/>
+      <c r="E82" s="94"/>
+      <c r="F82" s="94"/>
     </row>
     <row r="83" customHeight="1" spans="2:6">
-      <c r="B83" s="159"/>
-      <c r="C83" s="159"/>
-      <c r="D83" s="159"/>
-      <c r="E83" s="159"/>
-      <c r="F83" s="159"/>
+      <c r="B83" s="94"/>
+      <c r="C83" s="94"/>
+      <c r="D83" s="94"/>
+      <c r="E83" s="94"/>
+      <c r="F83" s="94"/>
     </row>
     <row r="84" customHeight="1" spans="2:6">
-      <c r="B84" s="159"/>
-      <c r="C84" s="159"/>
-      <c r="D84" s="159"/>
-      <c r="E84" s="159"/>
-      <c r="F84" s="159"/>
+      <c r="B84" s="94"/>
+      <c r="C84" s="94"/>
+      <c r="D84" s="94"/>
+      <c r="E84" s="94"/>
+      <c r="F84" s="94"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -4815,1796 +4586,1681 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G119"/>
+  <dimension ref="A1:F119"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1:G1"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="24" customHeight="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="24" customHeight="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="6.75" style="2" customWidth="1"/>
+    <col min="1" max="1" width="6.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="62.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.875" style="1" customWidth="1"/>
     <col min="5" max="5" width="7.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="40.75" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="36.625" style="1" customWidth="1"/>
+    <col min="7" max="16383" width="10.625" style="1" customWidth="1"/>
+    <col min="16384" max="16384" width="10.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A1" s="3" t="s">
+    <row r="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A1" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="G1" s="3" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+    </row>
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+    </row>
+    <row r="7" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="7"/>
-    </row>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="11"/>
-    </row>
-    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="11"/>
-    </row>
-    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-    </row>
-    <row r="6" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="16" t="s">
+      <c r="B7" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-    </row>
-    <row r="7" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="16" t="s">
+      <c r="C7" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+    </row>
+    <row r="8" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-    </row>
-    <row r="8" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A8" s="4">
-        <v>7</v>
-      </c>
-      <c r="B8" s="16" t="s">
+      <c r="C8" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+    </row>
+    <row r="9" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-    </row>
-    <row r="9" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A9" s="4">
-        <v>8</v>
-      </c>
-      <c r="B9" s="20" t="s">
+      <c r="C9" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+    </row>
+    <row r="10" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="C9" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-    </row>
-    <row r="10" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A10" s="4">
-        <v>9</v>
-      </c>
-      <c r="B10" s="20" t="s">
+      <c r="C10" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+    </row>
+    <row r="11" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="C10" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-    </row>
-    <row r="11" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A11" s="4">
-        <v>10</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-    </row>
-    <row r="12" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A12" s="4">
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="49" customHeight="1" spans="1:6">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-    </row>
-    <row r="13" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A13" s="4">
+      <c r="D12" s="18">
+        <v>44134</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="C13" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-    </row>
-    <row r="14" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A14" s="4">
+      <c r="C13" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+    </row>
+    <row r="14" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="C14" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-    </row>
-    <row r="15" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A15" s="4">
+      <c r="C14" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+    </row>
+    <row r="15" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="C15" s="24" t="s">
-        <v>177</v>
-      </c>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-    </row>
-    <row r="16" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A16" s="4">
+      <c r="C15" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+    </row>
+    <row r="16" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="C16" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-    </row>
-    <row r="17" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A17" s="4">
+      <c r="C16" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+    </row>
+    <row r="17" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="C17" s="29" t="s">
-        <v>179</v>
-      </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-    </row>
-    <row r="18" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A18" s="4">
+      <c r="C17" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+    </row>
+    <row r="18" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="C18" s="29" t="s">
-        <v>180</v>
-      </c>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-    </row>
-    <row r="19" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A19" s="4">
+      <c r="C18" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+    </row>
+    <row r="19" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="C19" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-    </row>
-    <row r="20" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A20" s="4">
+      <c r="C19" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+    </row>
+    <row r="20" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="C20" s="29" t="s">
-        <v>182</v>
-      </c>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="30"/>
-    </row>
-    <row r="21" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A21" s="4">
+      <c r="C20" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="16"/>
+    </row>
+    <row r="21" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="C21" s="29" t="s">
-        <v>183</v>
-      </c>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="32"/>
-    </row>
-    <row r="22" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A22" s="4">
+      <c r="C21" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="16"/>
+    </row>
+    <row r="22" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="C22" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-    </row>
-    <row r="23" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A23" s="4">
+      <c r="C22" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+    </row>
+    <row r="23" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="C23" s="34" t="s">
-        <v>186</v>
-      </c>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-    </row>
-    <row r="24" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A24" s="4">
+      <c r="B23" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+    </row>
+    <row r="24" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="C24" s="34" t="s">
+      <c r="B24" s="23" t="s">
         <v>187</v>
       </c>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-    </row>
-    <row r="25" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A25" s="4">
+      <c r="C24" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+    </row>
+    <row r="25" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="C25" s="34" t="s">
-        <v>188</v>
-      </c>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-    </row>
-    <row r="26" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A26" s="4">
+      <c r="B25" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+    </row>
+    <row r="26" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="C26" s="34" t="s">
-        <v>189</v>
-      </c>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-    </row>
-    <row r="27" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A27" s="4">
+      <c r="B26" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+    </row>
+    <row r="27" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="C27" s="34" t="s">
-        <v>190</v>
-      </c>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-    </row>
-    <row r="28" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A28" s="4">
+      <c r="B27" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+    </row>
+    <row r="28" s="1" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="B28" s="36" t="s">
-        <v>185</v>
-      </c>
-      <c r="C28" s="37" t="s">
-        <v>191</v>
-      </c>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-    </row>
-    <row r="29" customHeight="1" spans="1:7">
-      <c r="A29" s="4">
+      <c r="B28" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+    </row>
+    <row r="29" customHeight="1" spans="1:6">
+      <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="B29" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="C29" s="34" t="s">
-        <v>192</v>
-      </c>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-    </row>
-    <row r="30" customHeight="1" spans="1:7">
-      <c r="A30" s="4">
+      <c r="B29" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+    </row>
+    <row r="30" customHeight="1" spans="1:6">
+      <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="C30" s="34" t="s">
-        <v>193</v>
-      </c>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-    </row>
-    <row r="31" customHeight="1" spans="1:7">
-      <c r="A31" s="4">
+      <c r="B30" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+    </row>
+    <row r="31" customHeight="1" spans="1:6">
+      <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="C31" s="34" t="s">
-        <v>194</v>
-      </c>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-    </row>
-    <row r="32" customHeight="1" spans="1:7">
-      <c r="A32" s="4">
+      <c r="B31" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+    </row>
+    <row r="32" customHeight="1" spans="1:6">
+      <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="B32" s="40" t="s">
-        <v>185</v>
-      </c>
-      <c r="C32" s="41" t="s">
-        <v>195</v>
-      </c>
-      <c r="D32" s="42"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-    </row>
-    <row r="33" customHeight="1" spans="1:7">
-      <c r="A33" s="4">
+      <c r="B32" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+    </row>
+    <row r="33" customHeight="1" spans="1:6">
+      <c r="A33" s="3">
         <v>32</v>
       </c>
-      <c r="B33" s="43" t="s">
-        <v>196</v>
-      </c>
-      <c r="C33" s="44" t="s">
-        <v>197</v>
-      </c>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
-    </row>
-    <row r="34" customHeight="1" spans="1:7">
-      <c r="A34" s="4">
+      <c r="B33" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+    </row>
+    <row r="34" customHeight="1" spans="1:6">
+      <c r="A34" s="3">
         <v>33</v>
       </c>
-      <c r="B34" s="46" t="s">
-        <v>196</v>
-      </c>
-      <c r="C34" s="47" t="s">
+      <c r="B34" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="D34" s="48"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="48"/>
-    </row>
-    <row r="35" customHeight="1" spans="1:7">
-      <c r="A35" s="4">
+      <c r="C34" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="26"/>
+    </row>
+    <row r="35" customHeight="1" spans="1:6">
+      <c r="A35" s="3">
         <v>34</v>
       </c>
-      <c r="B35" s="49" t="s">
-        <v>199</v>
-      </c>
-      <c r="C35" s="50" t="s">
-        <v>200</v>
-      </c>
-      <c r="D35" s="51"/>
-      <c r="E35" s="51"/>
-      <c r="F35" s="51"/>
-      <c r="G35" s="51"/>
-    </row>
-    <row r="36" customHeight="1" spans="1:7">
-      <c r="A36" s="4">
+      <c r="B35" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="C35" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+    </row>
+    <row r="36" customHeight="1" spans="1:6">
+      <c r="A36" s="3">
         <v>35</v>
       </c>
-      <c r="B36" s="52" t="s">
-        <v>199</v>
-      </c>
-      <c r="C36" s="53" t="s">
+      <c r="B36" s="30" t="s">
         <v>201</v>
       </c>
-      <c r="D36" s="54"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="54"/>
-      <c r="G36" s="54"/>
-    </row>
-    <row r="37" customHeight="1" spans="1:7">
-      <c r="A37" s="4">
+      <c r="C36" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+    </row>
+    <row r="37" customHeight="1" spans="1:6">
+      <c r="A37" s="3">
         <v>36</v>
       </c>
-      <c r="B37" s="55" t="s">
-        <v>202</v>
-      </c>
-      <c r="C37" s="56" t="s">
-        <v>203</v>
-      </c>
-      <c r="D37" s="57"/>
-      <c r="E37" s="57"/>
-      <c r="F37" s="57"/>
-      <c r="G37" s="57"/>
-    </row>
-    <row r="38" customHeight="1" spans="1:7">
-      <c r="A38" s="4">
+      <c r="B37" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="C37" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+    </row>
+    <row r="38" customHeight="1" spans="1:6">
+      <c r="A38" s="3">
         <v>37</v>
       </c>
-      <c r="B38" s="55" t="s">
-        <v>202</v>
-      </c>
-      <c r="C38" s="56" t="s">
+      <c r="B38" s="34" t="s">
         <v>204</v>
       </c>
-      <c r="D38" s="57"/>
-      <c r="E38" s="57"/>
-      <c r="F38" s="57"/>
-      <c r="G38" s="57"/>
-    </row>
-    <row r="39" customHeight="1" spans="1:7">
-      <c r="A39" s="4">
+      <c r="C38" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
+    </row>
+    <row r="39" customHeight="1" spans="1:6">
+      <c r="A39" s="3">
         <v>38</v>
       </c>
-      <c r="B39" s="58" t="s">
-        <v>205</v>
-      </c>
-      <c r="C39" s="59" t="s">
-        <v>206</v>
-      </c>
-      <c r="D39" s="58"/>
-      <c r="E39" s="58"/>
-      <c r="F39" s="58"/>
-      <c r="G39" s="58"/>
-    </row>
-    <row r="40" customHeight="1" spans="1:7">
-      <c r="A40" s="4">
+      <c r="B39" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="C39" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+    </row>
+    <row r="40" customHeight="1" spans="1:6">
+      <c r="A40" s="3">
         <v>39</v>
       </c>
-      <c r="B40" s="60" t="s">
-        <v>207</v>
-      </c>
-      <c r="C40" s="61" t="s">
-        <v>208</v>
-      </c>
-      <c r="D40" s="62"/>
-      <c r="E40" s="62"/>
-      <c r="F40" s="62"/>
-      <c r="G40" s="62"/>
-    </row>
-    <row r="41" customHeight="1" spans="1:7">
-      <c r="A41" s="4">
+      <c r="B40" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="C40" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+    </row>
+    <row r="41" customHeight="1" spans="1:6">
+      <c r="A41" s="3">
         <v>40</v>
       </c>
-      <c r="B41" s="60" t="s">
-        <v>207</v>
-      </c>
-      <c r="C41" s="63" t="s">
+      <c r="B41" s="38" t="s">
         <v>209</v>
       </c>
-      <c r="D41" s="62"/>
-      <c r="E41" s="62"/>
-      <c r="F41" s="62"/>
-      <c r="G41" s="62"/>
-    </row>
-    <row r="42" customHeight="1" spans="1:7">
-      <c r="A42" s="4">
+      <c r="C41" s="40" t="s">
+        <v>211</v>
+      </c>
+      <c r="D41" s="38"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
+    </row>
+    <row r="42" customHeight="1" spans="1:6">
+      <c r="A42" s="3">
         <v>41</v>
       </c>
-      <c r="B42" s="60" t="s">
-        <v>207</v>
-      </c>
-      <c r="C42" s="63" t="s">
-        <v>210</v>
-      </c>
-      <c r="D42" s="62"/>
-      <c r="E42" s="62"/>
-      <c r="F42" s="62"/>
-      <c r="G42" s="62"/>
-    </row>
-    <row r="43" customHeight="1" spans="1:7">
-      <c r="A43" s="4">
+      <c r="B42" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="C42" s="40" t="s">
+        <v>212</v>
+      </c>
+      <c r="D42" s="38"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="38"/>
+    </row>
+    <row r="43" customHeight="1" spans="1:6">
+      <c r="A43" s="3">
         <v>42</v>
       </c>
-      <c r="B43" s="60" t="s">
-        <v>207</v>
-      </c>
-      <c r="C43" s="64" t="s">
-        <v>211</v>
-      </c>
-      <c r="D43" s="65"/>
-      <c r="E43" s="65"/>
-      <c r="F43" s="65"/>
-      <c r="G43" s="65"/>
-    </row>
-    <row r="44" customHeight="1" spans="1:7">
-      <c r="A44" s="4">
+      <c r="B43" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="C43" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="D43" s="38"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="38"/>
+    </row>
+    <row r="44" customHeight="1" spans="1:6">
+      <c r="A44" s="3">
         <v>43</v>
       </c>
-      <c r="B44" s="60" t="s">
-        <v>207</v>
-      </c>
-      <c r="C44" s="64" t="s">
-        <v>212</v>
-      </c>
-      <c r="D44" s="65"/>
-      <c r="E44" s="65"/>
-      <c r="F44" s="65"/>
-      <c r="G44" s="65"/>
-    </row>
-    <row r="45" customHeight="1" spans="1:7">
-      <c r="A45" s="4">
+      <c r="B44" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="C44" s="40" t="s">
+        <v>214</v>
+      </c>
+      <c r="D44" s="38"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="38"/>
+    </row>
+    <row r="45" customHeight="1" spans="1:6">
+      <c r="A45" s="3">
         <v>44</v>
       </c>
-      <c r="B45" s="60" t="s">
-        <v>207</v>
-      </c>
-      <c r="C45" s="64" t="s">
-        <v>213</v>
-      </c>
-      <c r="D45" s="65"/>
-      <c r="E45" s="65"/>
-      <c r="F45" s="65"/>
-      <c r="G45" s="65"/>
-    </row>
-    <row r="46" customHeight="1" spans="1:7">
-      <c r="A46" s="4">
+      <c r="B45" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="C45" s="40" t="s">
+        <v>215</v>
+      </c>
+      <c r="D45" s="38"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="38"/>
+    </row>
+    <row r="46" customHeight="1" spans="1:6">
+      <c r="A46" s="3">
         <v>45</v>
       </c>
-      <c r="B46" s="60" t="s">
-        <v>207</v>
-      </c>
-      <c r="C46" s="61" t="s">
-        <v>214</v>
-      </c>
-      <c r="D46" s="65"/>
-      <c r="E46" s="65"/>
-      <c r="F46" s="65"/>
-      <c r="G46" s="65"/>
-    </row>
-    <row r="47" customHeight="1" spans="1:7">
-      <c r="A47" s="4">
+      <c r="B46" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="C46" s="39" t="s">
+        <v>216</v>
+      </c>
+      <c r="D46" s="38"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="38"/>
+    </row>
+    <row r="47" customHeight="1" spans="1:6">
+      <c r="A47" s="3">
         <v>46</v>
       </c>
-      <c r="B47" s="66" t="s">
-        <v>215</v>
-      </c>
-      <c r="C47" s="67" t="s">
-        <v>216</v>
-      </c>
-      <c r="D47" s="68"/>
-      <c r="E47" s="68"/>
-      <c r="F47" s="68"/>
-      <c r="G47" s="68"/>
-    </row>
-    <row r="48" customHeight="1" spans="1:7">
-      <c r="A48" s="4">
+      <c r="B47" s="41" t="s">
+        <v>217</v>
+      </c>
+      <c r="C47" s="42" t="s">
+        <v>218</v>
+      </c>
+      <c r="D47" s="41"/>
+      <c r="E47" s="41"/>
+      <c r="F47" s="41"/>
+    </row>
+    <row r="48" customHeight="1" spans="1:6">
+      <c r="A48" s="3">
         <v>47</v>
       </c>
-      <c r="B48" s="69" t="s">
-        <v>217</v>
-      </c>
-      <c r="C48" s="70" t="s">
-        <v>218</v>
-      </c>
-      <c r="D48" s="71"/>
-      <c r="E48" s="71"/>
-      <c r="F48" s="72"/>
-      <c r="G48" s="71"/>
-    </row>
-    <row r="49" customHeight="1" spans="1:7">
-      <c r="A49" s="4">
+      <c r="B48" s="43" t="s">
+        <v>219</v>
+      </c>
+      <c r="C48" s="44" t="s">
+        <v>220</v>
+      </c>
+      <c r="D48" s="45"/>
+      <c r="E48" s="45"/>
+      <c r="F48" s="43"/>
+    </row>
+    <row r="49" customHeight="1" spans="1:6">
+      <c r="A49" s="3">
         <v>48</v>
       </c>
-      <c r="B49" s="69" t="s">
-        <v>217</v>
-      </c>
-      <c r="C49" s="70" t="s">
+      <c r="B49" s="43" t="s">
         <v>219</v>
       </c>
-      <c r="D49" s="71"/>
-      <c r="E49" s="71"/>
-      <c r="F49" s="72"/>
-      <c r="G49" s="71"/>
-    </row>
-    <row r="50" customHeight="1" spans="1:7">
-      <c r="A50" s="4">
+      <c r="C49" s="44" t="s">
+        <v>221</v>
+      </c>
+      <c r="D49" s="45"/>
+      <c r="E49" s="45"/>
+      <c r="F49" s="43"/>
+    </row>
+    <row r="50" customHeight="1" spans="1:6">
+      <c r="A50" s="3">
         <v>49</v>
       </c>
-      <c r="B50" s="69" t="s">
-        <v>217</v>
-      </c>
-      <c r="C50" s="70" t="s">
-        <v>220</v>
-      </c>
-      <c r="D50" s="71"/>
-      <c r="E50" s="71"/>
-      <c r="F50" s="72"/>
-      <c r="G50" s="71"/>
-    </row>
-    <row r="51" customHeight="1" spans="1:7">
-      <c r="A51" s="4">
+      <c r="B50" s="43" t="s">
+        <v>219</v>
+      </c>
+      <c r="C50" s="44" t="s">
+        <v>222</v>
+      </c>
+      <c r="D50" s="45"/>
+      <c r="E50" s="45"/>
+      <c r="F50" s="43"/>
+    </row>
+    <row r="51" customHeight="1" spans="1:6">
+      <c r="A51" s="3">
         <v>50</v>
       </c>
-      <c r="B51" s="73" t="s">
-        <v>217</v>
-      </c>
-      <c r="C51" s="74" t="s">
-        <v>221</v>
-      </c>
-      <c r="D51" s="72"/>
-      <c r="E51" s="72"/>
-      <c r="F51" s="72"/>
-      <c r="G51" s="72"/>
-    </row>
-    <row r="52" customHeight="1" spans="1:7">
-      <c r="A52" s="4">
+      <c r="B51" s="43" t="s">
+        <v>219</v>
+      </c>
+      <c r="C51" s="46" t="s">
+        <v>223</v>
+      </c>
+      <c r="D51" s="43"/>
+      <c r="E51" s="43"/>
+      <c r="F51" s="43"/>
+    </row>
+    <row r="52" customHeight="1" spans="1:6">
+      <c r="A52" s="3">
         <v>51</v>
       </c>
-      <c r="B52" s="75" t="s">
-        <v>217</v>
-      </c>
-      <c r="C52" s="76" t="s">
-        <v>222</v>
-      </c>
-      <c r="D52" s="77"/>
-      <c r="E52" s="77"/>
-      <c r="F52" s="77"/>
-      <c r="G52" s="77"/>
-    </row>
-    <row r="53" customHeight="1" spans="1:7">
-      <c r="A53" s="4">
+      <c r="B52" s="43" t="s">
+        <v>219</v>
+      </c>
+      <c r="C52" s="44" t="s">
+        <v>224</v>
+      </c>
+      <c r="D52" s="43"/>
+      <c r="E52" s="43"/>
+      <c r="F52" s="43"/>
+    </row>
+    <row r="53" customHeight="1" spans="1:6">
+      <c r="A53" s="3">
         <v>52</v>
       </c>
-      <c r="B53" s="75" t="s">
-        <v>217</v>
-      </c>
-      <c r="C53" s="76" t="s">
-        <v>223</v>
-      </c>
-      <c r="D53" s="77"/>
-      <c r="E53" s="77"/>
-      <c r="F53" s="77"/>
-      <c r="G53" s="77"/>
-    </row>
-    <row r="54" customHeight="1" spans="1:7">
-      <c r="A54" s="4">
+      <c r="B53" s="43" t="s">
+        <v>219</v>
+      </c>
+      <c r="C53" s="44" t="s">
+        <v>225</v>
+      </c>
+      <c r="D53" s="43"/>
+      <c r="E53" s="43"/>
+      <c r="F53" s="43"/>
+    </row>
+    <row r="54" customHeight="1" spans="1:6">
+      <c r="A54" s="3">
         <v>53</v>
       </c>
-      <c r="B54" s="75" t="s">
-        <v>217</v>
-      </c>
-      <c r="C54" s="76" t="s">
-        <v>224</v>
-      </c>
-      <c r="D54" s="77"/>
-      <c r="E54" s="77"/>
-      <c r="F54" s="77"/>
-      <c r="G54" s="77"/>
-    </row>
-    <row r="55" customHeight="1" spans="1:7">
-      <c r="A55" s="4">
+      <c r="B54" s="43" t="s">
+        <v>219</v>
+      </c>
+      <c r="C54" s="44" t="s">
+        <v>226</v>
+      </c>
+      <c r="D54" s="43"/>
+      <c r="E54" s="43"/>
+      <c r="F54" s="43"/>
+    </row>
+    <row r="55" customHeight="1" spans="1:6">
+      <c r="A55" s="3">
         <v>54</v>
       </c>
-      <c r="B55" s="75" t="s">
-        <v>217</v>
-      </c>
-      <c r="C55" s="76" t="s">
-        <v>225</v>
-      </c>
-      <c r="D55" s="77"/>
-      <c r="E55" s="77"/>
-      <c r="F55" s="77"/>
-      <c r="G55" s="77"/>
-    </row>
-    <row r="56" customHeight="1" spans="1:7">
-      <c r="A56" s="4">
+      <c r="B55" s="43" t="s">
+        <v>219</v>
+      </c>
+      <c r="C55" s="44" t="s">
+        <v>227</v>
+      </c>
+      <c r="D55" s="43"/>
+      <c r="E55" s="43"/>
+      <c r="F55" s="43"/>
+    </row>
+    <row r="56" customHeight="1" spans="1:6">
+      <c r="A56" s="3">
         <v>55</v>
       </c>
-      <c r="B56" s="78" t="s">
-        <v>226</v>
-      </c>
-      <c r="C56" s="79" t="s">
-        <v>227</v>
-      </c>
-      <c r="D56" s="80"/>
-      <c r="E56" s="80"/>
-      <c r="F56" s="81"/>
-      <c r="G56" s="80"/>
-    </row>
-    <row r="57" customHeight="1" spans="1:7">
-      <c r="A57" s="4">
+      <c r="B56" s="47" t="s">
+        <v>228</v>
+      </c>
+      <c r="C56" s="48" t="s">
+        <v>229</v>
+      </c>
+      <c r="D56" s="49"/>
+      <c r="E56" s="49"/>
+      <c r="F56" s="47"/>
+    </row>
+    <row r="57" customHeight="1" spans="1:6">
+      <c r="A57" s="3">
         <v>56</v>
       </c>
-      <c r="B57" s="78" t="s">
-        <v>226</v>
-      </c>
-      <c r="C57" s="79" t="s">
+      <c r="B57" s="47" t="s">
         <v>228</v>
       </c>
-      <c r="D57" s="80"/>
-      <c r="E57" s="80"/>
-      <c r="F57" s="81"/>
-      <c r="G57" s="80"/>
-    </row>
-    <row r="58" customHeight="1" spans="1:7">
-      <c r="A58" s="4">
+      <c r="C57" s="48" t="s">
+        <v>230</v>
+      </c>
+      <c r="D57" s="49"/>
+      <c r="E57" s="49"/>
+      <c r="F57" s="47"/>
+    </row>
+    <row r="58" customHeight="1" spans="1:6">
+      <c r="A58" s="3">
         <v>57</v>
       </c>
-      <c r="B58" s="78" t="s">
-        <v>226</v>
-      </c>
-      <c r="C58" s="79" t="s">
-        <v>229</v>
-      </c>
-      <c r="D58" s="80"/>
-      <c r="E58" s="80"/>
-      <c r="F58" s="81"/>
-      <c r="G58" s="80"/>
-    </row>
-    <row r="59" customHeight="1" spans="1:7">
-      <c r="A59" s="4">
+      <c r="B58" s="47" t="s">
+        <v>228</v>
+      </c>
+      <c r="C58" s="48" t="s">
+        <v>231</v>
+      </c>
+      <c r="D58" s="49"/>
+      <c r="E58" s="49"/>
+      <c r="F58" s="47"/>
+    </row>
+    <row r="59" customHeight="1" spans="1:6">
+      <c r="A59" s="3">
         <v>58</v>
       </c>
-      <c r="B59" s="78" t="s">
-        <v>226</v>
-      </c>
-      <c r="C59" s="79" t="s">
-        <v>230</v>
-      </c>
-      <c r="D59" s="80"/>
-      <c r="E59" s="80"/>
-      <c r="F59" s="81"/>
-      <c r="G59" s="80"/>
-    </row>
-    <row r="60" customHeight="1" spans="1:7">
-      <c r="A60" s="4">
+      <c r="B59" s="47" t="s">
+        <v>228</v>
+      </c>
+      <c r="C59" s="48" t="s">
+        <v>232</v>
+      </c>
+      <c r="D59" s="49"/>
+      <c r="E59" s="49"/>
+      <c r="F59" s="47"/>
+    </row>
+    <row r="60" customHeight="1" spans="1:6">
+      <c r="A60" s="3">
         <v>59</v>
       </c>
-      <c r="B60" s="82" t="s">
-        <v>226</v>
-      </c>
-      <c r="C60" s="83" t="s">
-        <v>231</v>
-      </c>
-      <c r="D60" s="84"/>
-      <c r="E60" s="84"/>
-      <c r="F60" s="84"/>
-      <c r="G60" s="84"/>
-    </row>
-    <row r="61" customHeight="1" spans="1:7">
-      <c r="A61" s="4">
+      <c r="B60" s="47" t="s">
+        <v>228</v>
+      </c>
+      <c r="C60" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="D60" s="47"/>
+      <c r="E60" s="47"/>
+      <c r="F60" s="47"/>
+    </row>
+    <row r="61" customHeight="1" spans="1:6">
+      <c r="A61" s="3">
         <v>60</v>
       </c>
-      <c r="B61" s="85" t="s">
-        <v>232</v>
-      </c>
-      <c r="C61" s="86" t="s">
-        <v>233</v>
-      </c>
-      <c r="D61" s="87"/>
-      <c r="E61" s="87"/>
-      <c r="F61" s="88"/>
-      <c r="G61" s="87"/>
-    </row>
-    <row r="62" customHeight="1" spans="1:7">
-      <c r="A62" s="4">
+      <c r="B61" s="50" t="s">
+        <v>234</v>
+      </c>
+      <c r="C61" s="51" t="s">
+        <v>235</v>
+      </c>
+      <c r="D61" s="52"/>
+      <c r="E61" s="52"/>
+      <c r="F61" s="50"/>
+    </row>
+    <row r="62" customHeight="1" spans="1:6">
+      <c r="A62" s="3">
         <v>61</v>
       </c>
-      <c r="B62" s="88" t="s">
-        <v>234</v>
-      </c>
-      <c r="C62" s="86" t="s">
-        <v>235</v>
-      </c>
-      <c r="D62" s="88"/>
-      <c r="E62" s="88"/>
-      <c r="F62" s="88"/>
-      <c r="G62" s="88"/>
-    </row>
-    <row r="63" customHeight="1" spans="1:7">
-      <c r="A63" s="4">
+      <c r="B62" s="50" t="s">
+        <v>236</v>
+      </c>
+      <c r="C62" s="51" t="s">
+        <v>237</v>
+      </c>
+      <c r="D62" s="50"/>
+      <c r="E62" s="50"/>
+      <c r="F62" s="50"/>
+    </row>
+    <row r="63" customHeight="1" spans="1:6">
+      <c r="A63" s="3">
         <v>62</v>
       </c>
-      <c r="B63" s="89" t="s">
-        <v>236</v>
-      </c>
-      <c r="C63" s="90" t="s">
-        <v>237</v>
-      </c>
-      <c r="D63" s="91"/>
-      <c r="E63" s="91"/>
-      <c r="F63" s="91"/>
-      <c r="G63" s="91"/>
-    </row>
-    <row r="64" customHeight="1" spans="1:7">
-      <c r="A64" s="4">
+      <c r="B63" s="53" t="s">
+        <v>238</v>
+      </c>
+      <c r="C63" s="54" t="s">
+        <v>239</v>
+      </c>
+      <c r="D63" s="55"/>
+      <c r="E63" s="55"/>
+      <c r="F63" s="55"/>
+    </row>
+    <row r="64" customHeight="1" spans="1:6">
+      <c r="A64" s="3">
         <v>63</v>
       </c>
-      <c r="B64" s="89" t="s">
-        <v>236</v>
-      </c>
-      <c r="C64" s="90" t="s">
+      <c r="B64" s="53" t="s">
         <v>238</v>
       </c>
-      <c r="D64" s="91"/>
-      <c r="E64" s="91"/>
-      <c r="F64" s="91"/>
-      <c r="G64" s="91"/>
-    </row>
-    <row r="65" customHeight="1" spans="1:7">
-      <c r="A65" s="4">
+      <c r="C64" s="54" t="s">
+        <v>240</v>
+      </c>
+      <c r="D64" s="55"/>
+      <c r="E64" s="55"/>
+      <c r="F64" s="55"/>
+    </row>
+    <row r="65" customHeight="1" spans="1:6">
+      <c r="A65" s="3">
         <v>64</v>
       </c>
-      <c r="B65" s="89" t="s">
-        <v>236</v>
-      </c>
-      <c r="C65" s="90" t="s">
-        <v>239</v>
-      </c>
-      <c r="D65" s="91"/>
-      <c r="E65" s="91"/>
-      <c r="F65" s="91"/>
-      <c r="G65" s="91"/>
-    </row>
-    <row r="66" customHeight="1" spans="1:7">
-      <c r="A66" s="4">
+      <c r="B65" s="53" t="s">
+        <v>238</v>
+      </c>
+      <c r="C65" s="54" t="s">
+        <v>241</v>
+      </c>
+      <c r="D65" s="55"/>
+      <c r="E65" s="55"/>
+      <c r="F65" s="55"/>
+    </row>
+    <row r="66" customHeight="1" spans="1:6">
+      <c r="A66" s="3">
         <v>65</v>
       </c>
-      <c r="B66" s="92" t="s">
-        <v>240</v>
-      </c>
-      <c r="C66" s="93" t="s">
-        <v>241</v>
-      </c>
-      <c r="D66" s="94"/>
-      <c r="E66" s="94"/>
-      <c r="F66" s="94"/>
-      <c r="G66" s="94"/>
-    </row>
-    <row r="67" customHeight="1" spans="1:7">
-      <c r="A67" s="4">
+      <c r="B66" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="C66" s="57" t="s">
+        <v>243</v>
+      </c>
+      <c r="D66" s="56"/>
+      <c r="E66" s="56"/>
+      <c r="F66" s="56"/>
+    </row>
+    <row r="67" customHeight="1" spans="1:6">
+      <c r="A67" s="3">
         <v>66</v>
       </c>
-      <c r="B67" s="95" t="s">
-        <v>242</v>
-      </c>
-      <c r="C67" s="96" t="s">
-        <v>243</v>
-      </c>
-      <c r="D67" s="97"/>
-      <c r="E67" s="97"/>
-      <c r="F67" s="97"/>
-      <c r="G67" s="97"/>
-    </row>
-    <row r="68" customHeight="1" spans="1:7">
-      <c r="A68" s="4">
+      <c r="B67" s="58" t="s">
+        <v>244</v>
+      </c>
+      <c r="C67" s="59" t="s">
+        <v>245</v>
+      </c>
+      <c r="D67" s="60"/>
+      <c r="E67" s="60"/>
+      <c r="F67" s="60"/>
+    </row>
+    <row r="68" customHeight="1" spans="1:6">
+      <c r="A68" s="3">
         <v>67</v>
       </c>
-      <c r="B68" s="98" t="s">
-        <v>244</v>
-      </c>
-      <c r="C68" s="99" t="s">
-        <v>245</v>
-      </c>
-      <c r="D68" s="100"/>
-      <c r="E68" s="100"/>
-      <c r="F68" s="100"/>
-      <c r="G68" s="100"/>
-    </row>
-    <row r="69" customHeight="1" spans="1:7">
-      <c r="A69" s="4">
+      <c r="B68" s="61" t="s">
+        <v>246</v>
+      </c>
+      <c r="C68" s="62" t="s">
+        <v>247</v>
+      </c>
+      <c r="D68" s="61"/>
+      <c r="E68" s="61"/>
+      <c r="F68" s="61"/>
+    </row>
+    <row r="69" customHeight="1" spans="1:6">
+      <c r="A69" s="3">
         <v>68</v>
       </c>
-      <c r="B69" s="101" t="s">
-        <v>246</v>
-      </c>
-      <c r="C69" s="17" t="s">
-        <v>247</v>
-      </c>
-      <c r="D69" s="102"/>
-      <c r="E69" s="102"/>
-      <c r="F69" s="102"/>
-      <c r="G69" s="102"/>
-    </row>
-    <row r="70" customHeight="1" spans="1:7">
-      <c r="A70" s="4">
+      <c r="B69" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="C69" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="D69" s="13"/>
+      <c r="E69" s="13"/>
+      <c r="F69" s="13"/>
+    </row>
+    <row r="70" customHeight="1" spans="1:6">
+      <c r="A70" s="3">
         <v>69</v>
       </c>
-      <c r="B70" s="103" t="s">
-        <v>248</v>
-      </c>
-      <c r="C70" s="104" t="s">
-        <v>249</v>
-      </c>
-      <c r="D70" s="105"/>
-      <c r="E70" s="25"/>
-      <c r="F70" s="25"/>
-      <c r="G70" s="105"/>
-    </row>
-    <row r="71" customHeight="1" spans="1:7">
-      <c r="A71" s="4">
+      <c r="B70" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="C70" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="D70" s="22"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="16"/>
+    </row>
+    <row r="71" customHeight="1" spans="1:6">
+      <c r="A71" s="3">
         <v>70</v>
       </c>
-      <c r="B71" s="103" t="s">
-        <v>248</v>
-      </c>
-      <c r="C71" s="104" t="s">
+      <c r="B71" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="D71" s="105"/>
-      <c r="E71" s="25"/>
-      <c r="F71" s="25"/>
-      <c r="G71" s="105"/>
-    </row>
-    <row r="72" customHeight="1" spans="1:7">
-      <c r="A72" s="4">
+      <c r="C71" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="D71" s="22"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="16"/>
+    </row>
+    <row r="72" customHeight="1" spans="1:6">
+      <c r="A72" s="3">
         <v>71</v>
       </c>
-      <c r="B72" s="103" t="s">
-        <v>248</v>
-      </c>
-      <c r="C72" s="104" t="s">
-        <v>251</v>
-      </c>
-      <c r="D72" s="105"/>
-      <c r="E72" s="25"/>
-      <c r="F72" s="25"/>
-      <c r="G72" s="105"/>
-    </row>
-    <row r="73" customHeight="1" spans="1:7">
-      <c r="A73" s="4">
+      <c r="B72" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="C72" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="D72" s="22"/>
+      <c r="E72" s="16"/>
+      <c r="F72" s="16"/>
+    </row>
+    <row r="73" customHeight="1" spans="1:6">
+      <c r="A73" s="3">
         <v>72</v>
       </c>
-      <c r="B73" s="103" t="s">
-        <v>248</v>
-      </c>
-      <c r="C73" s="104" t="s">
-        <v>252</v>
-      </c>
-      <c r="D73" s="105"/>
-      <c r="E73" s="25"/>
-      <c r="F73" s="25"/>
-      <c r="G73" s="105"/>
-    </row>
-    <row r="74" customHeight="1" spans="1:7">
-      <c r="A74" s="4">
+      <c r="B73" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="C73" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="D73" s="22"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="16"/>
+    </row>
+    <row r="74" customHeight="1" spans="1:6">
+      <c r="A74" s="3">
         <v>73</v>
       </c>
-      <c r="B74" s="103" t="s">
-        <v>248</v>
-      </c>
-      <c r="C74" s="104" t="s">
-        <v>253</v>
-      </c>
-      <c r="D74" s="105"/>
-      <c r="E74" s="25"/>
-      <c r="F74" s="25"/>
-      <c r="G74" s="105"/>
-    </row>
-    <row r="75" customHeight="1" spans="1:7">
-      <c r="A75" s="4">
+      <c r="B74" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="C74" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="D74" s="22"/>
+      <c r="E74" s="16"/>
+      <c r="F74" s="16"/>
+    </row>
+    <row r="75" customHeight="1" spans="1:6">
+      <c r="A75" s="3">
         <v>74</v>
       </c>
-      <c r="B75" s="23" t="s">
-        <v>248</v>
-      </c>
-      <c r="C75" s="104" t="s">
-        <v>254</v>
-      </c>
-      <c r="D75" s="25"/>
-      <c r="E75" s="25"/>
-      <c r="F75" s="25"/>
-      <c r="G75" s="25"/>
-    </row>
-    <row r="76" customHeight="1" spans="1:7">
-      <c r="A76" s="4">
+      <c r="B75" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="C75" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="D75" s="16"/>
+      <c r="E75" s="16"/>
+      <c r="F75" s="16"/>
+    </row>
+    <row r="76" customHeight="1" spans="1:6">
+      <c r="A76" s="3">
         <v>75</v>
       </c>
-      <c r="B76" s="106" t="s">
-        <v>248</v>
-      </c>
-      <c r="C76" s="107" t="s">
-        <v>255</v>
-      </c>
-      <c r="D76" s="108"/>
-      <c r="E76" s="108"/>
-      <c r="F76" s="108"/>
-      <c r="G76" s="108"/>
-    </row>
-    <row r="77" customHeight="1" spans="1:7">
-      <c r="A77" s="4">
+      <c r="B76" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="C76" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="D76" s="16"/>
+      <c r="E76" s="16"/>
+      <c r="F76" s="16"/>
+    </row>
+    <row r="77" customHeight="1" spans="1:6">
+      <c r="A77" s="3">
         <v>76</v>
       </c>
-      <c r="B77" s="109" t="s">
-        <v>256</v>
-      </c>
-      <c r="C77" s="110" t="s">
-        <v>257</v>
-      </c>
-      <c r="D77" s="111"/>
-      <c r="E77" s="111"/>
-      <c r="F77" s="111"/>
-      <c r="G77" s="111"/>
-    </row>
-    <row r="78" customHeight="1" spans="1:7">
-      <c r="A78" s="4">
+      <c r="B77" s="63" t="s">
+        <v>258</v>
+      </c>
+      <c r="C77" s="64" t="s">
+        <v>259</v>
+      </c>
+      <c r="D77" s="65"/>
+      <c r="E77" s="65"/>
+      <c r="F77" s="65"/>
+    </row>
+    <row r="78" customHeight="1" spans="1:6">
+      <c r="A78" s="3">
         <v>77</v>
       </c>
-      <c r="B78" s="112" t="s">
-        <v>258</v>
-      </c>
-      <c r="C78" s="113" t="s">
-        <v>259</v>
-      </c>
-      <c r="D78" s="114"/>
-      <c r="E78" s="114"/>
-      <c r="F78" s="114"/>
-      <c r="G78" s="114"/>
-    </row>
-    <row r="79" customHeight="1" spans="1:7">
-      <c r="A79" s="4">
+      <c r="B78" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="C78" s="28" t="s">
+        <v>261</v>
+      </c>
+      <c r="D78" s="29"/>
+      <c r="E78" s="29"/>
+      <c r="F78" s="29"/>
+    </row>
+    <row r="79" customHeight="1" spans="1:6">
+      <c r="A79" s="3">
         <v>78</v>
       </c>
-      <c r="B79" s="112" t="s">
-        <v>258</v>
-      </c>
-      <c r="C79" s="113" t="s">
+      <c r="B79" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="D79" s="114"/>
-      <c r="E79" s="114"/>
-      <c r="F79" s="114"/>
-      <c r="G79" s="114"/>
-    </row>
-    <row r="80" customHeight="1" spans="1:7">
-      <c r="A80" s="4">
+      <c r="C79" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="D79" s="29"/>
+      <c r="E79" s="29"/>
+      <c r="F79" s="29"/>
+    </row>
+    <row r="80" customHeight="1" spans="1:6">
+      <c r="A80" s="3">
         <v>79</v>
       </c>
-      <c r="B80" s="112" t="s">
-        <v>258</v>
-      </c>
-      <c r="C80" s="113" t="s">
-        <v>261</v>
-      </c>
-      <c r="D80" s="114"/>
-      <c r="E80" s="114"/>
-      <c r="F80" s="114"/>
-      <c r="G80" s="114"/>
-    </row>
-    <row r="81" customHeight="1" spans="1:7">
-      <c r="A81" s="4">
+      <c r="B80" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="C80" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D80" s="29"/>
+      <c r="E80" s="29"/>
+      <c r="F80" s="29"/>
+    </row>
+    <row r="81" customHeight="1" spans="1:6">
+      <c r="A81" s="3">
         <v>80</v>
       </c>
-      <c r="B81" s="112" t="s">
-        <v>258</v>
-      </c>
-      <c r="C81" s="113" t="s">
-        <v>262</v>
-      </c>
-      <c r="D81" s="114"/>
-      <c r="E81" s="114"/>
-      <c r="F81" s="114"/>
-      <c r="G81" s="114"/>
-    </row>
-    <row r="82" customHeight="1" spans="1:7">
-      <c r="A82" s="4">
+      <c r="B81" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="C81" s="28" t="s">
+        <v>264</v>
+      </c>
+      <c r="D81" s="29"/>
+      <c r="E81" s="29"/>
+      <c r="F81" s="29"/>
+    </row>
+    <row r="82" customHeight="1" spans="1:6">
+      <c r="A82" s="3">
         <v>81</v>
       </c>
-      <c r="B82" s="112" t="s">
-        <v>258</v>
-      </c>
-      <c r="C82" s="113" t="s">
-        <v>263</v>
-      </c>
-      <c r="D82" s="114"/>
-      <c r="E82" s="114"/>
-      <c r="F82" s="114"/>
-      <c r="G82" s="114"/>
-    </row>
-    <row r="83" customHeight="1" spans="1:7">
-      <c r="A83" s="4">
+      <c r="B82" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="C82" s="28" t="s">
+        <v>265</v>
+      </c>
+      <c r="D82" s="29"/>
+      <c r="E82" s="29"/>
+      <c r="F82" s="29"/>
+    </row>
+    <row r="83" customHeight="1" spans="1:6">
+      <c r="A83" s="3">
         <v>82</v>
       </c>
-      <c r="B83" s="112" t="s">
-        <v>258</v>
-      </c>
-      <c r="C83" s="113" t="s">
-        <v>264</v>
-      </c>
-      <c r="D83" s="114"/>
-      <c r="E83" s="114"/>
-      <c r="F83" s="114"/>
-      <c r="G83" s="114"/>
-    </row>
-    <row r="84" customHeight="1" spans="1:7">
-      <c r="A84" s="4">
+      <c r="B83" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="C83" s="28" t="s">
+        <v>266</v>
+      </c>
+      <c r="D83" s="29"/>
+      <c r="E83" s="29"/>
+      <c r="F83" s="29"/>
+    </row>
+    <row r="84" customHeight="1" spans="1:6">
+      <c r="A84" s="3">
         <v>83</v>
       </c>
-      <c r="B84" s="112" t="s">
-        <v>258</v>
-      </c>
-      <c r="C84" s="113" t="s">
-        <v>265</v>
-      </c>
-      <c r="D84" s="114"/>
-      <c r="E84" s="114"/>
-      <c r="F84" s="114"/>
-      <c r="G84" s="114"/>
-    </row>
-    <row r="85" customHeight="1" spans="1:7">
-      <c r="A85" s="4">
+      <c r="B84" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="C84" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="D84" s="29"/>
+      <c r="E84" s="29"/>
+      <c r="F84" s="29"/>
+    </row>
+    <row r="85" customHeight="1" spans="1:6">
+      <c r="A85" s="3">
         <v>84</v>
       </c>
-      <c r="B85" s="112" t="s">
-        <v>258</v>
-      </c>
-      <c r="C85" s="113" t="s">
-        <v>266</v>
-      </c>
-      <c r="D85" s="114"/>
-      <c r="E85" s="114"/>
-      <c r="F85" s="114"/>
-      <c r="G85" s="114"/>
-    </row>
-    <row r="86" customHeight="1" spans="1:7">
-      <c r="A86" s="4">
+      <c r="B85" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="C85" s="28" t="s">
+        <v>268</v>
+      </c>
+      <c r="D85" s="29"/>
+      <c r="E85" s="29"/>
+      <c r="F85" s="29"/>
+    </row>
+    <row r="86" customHeight="1" spans="1:6">
+      <c r="A86" s="3">
         <v>85</v>
       </c>
-      <c r="B86" s="112" t="s">
-        <v>258</v>
-      </c>
-      <c r="C86" s="113" t="s">
-        <v>267</v>
-      </c>
-      <c r="D86" s="114"/>
-      <c r="E86" s="114"/>
-      <c r="F86" s="114"/>
-      <c r="G86" s="114"/>
-    </row>
-    <row r="87" customHeight="1" spans="1:7">
-      <c r="A87" s="4">
+      <c r="B86" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="C86" s="28" t="s">
+        <v>269</v>
+      </c>
+      <c r="D86" s="29"/>
+      <c r="E86" s="29"/>
+      <c r="F86" s="29"/>
+    </row>
+    <row r="87" customHeight="1" spans="1:6">
+      <c r="A87" s="3">
         <v>86</v>
       </c>
-      <c r="B87" s="115" t="s">
-        <v>258</v>
-      </c>
-      <c r="C87" s="116" t="s">
-        <v>268</v>
-      </c>
-      <c r="D87" s="117"/>
-      <c r="E87" s="117"/>
-      <c r="F87" s="117"/>
-      <c r="G87" s="117"/>
-    </row>
-    <row r="88" customHeight="1" spans="1:7">
-      <c r="A88" s="4">
+      <c r="B87" s="66" t="s">
+        <v>260</v>
+      </c>
+      <c r="C87" s="67" t="s">
+        <v>270</v>
+      </c>
+      <c r="D87" s="29"/>
+      <c r="E87" s="29"/>
+      <c r="F87" s="29"/>
+    </row>
+    <row r="88" customHeight="1" spans="1:6">
+      <c r="A88" s="3">
         <v>87</v>
       </c>
-      <c r="B88" s="112" t="s">
-        <v>258</v>
-      </c>
-      <c r="C88" s="113" t="s">
-        <v>269</v>
-      </c>
-      <c r="D88" s="117"/>
-      <c r="E88" s="117"/>
-      <c r="F88" s="117"/>
-      <c r="G88" s="117"/>
-    </row>
-    <row r="89" customHeight="1" spans="1:7">
-      <c r="A89" s="4">
+      <c r="B88" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="C88" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="D88" s="29"/>
+      <c r="E88" s="29"/>
+      <c r="F88" s="29"/>
+    </row>
+    <row r="89" customHeight="1" spans="1:6">
+      <c r="A89" s="3">
         <v>88</v>
       </c>
-      <c r="B89" s="112" t="s">
-        <v>258</v>
-      </c>
-      <c r="C89" s="113" t="s">
-        <v>270</v>
-      </c>
-      <c r="D89" s="117"/>
-      <c r="E89" s="117"/>
-      <c r="F89" s="117"/>
-      <c r="G89" s="117"/>
-    </row>
-    <row r="90" customHeight="1" spans="1:7">
-      <c r="A90" s="4">
+      <c r="B89" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="C89" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="D89" s="29"/>
+      <c r="E89" s="29"/>
+      <c r="F89" s="29"/>
+    </row>
+    <row r="90" customHeight="1" spans="1:6">
+      <c r="A90" s="3">
         <v>89</v>
       </c>
-      <c r="B90" s="118" t="s">
-        <v>271</v>
-      </c>
-      <c r="C90" s="119" t="s">
-        <v>272</v>
-      </c>
-      <c r="D90" s="120"/>
-      <c r="E90" s="120"/>
-      <c r="F90" s="120"/>
-      <c r="G90" s="120"/>
-    </row>
-    <row r="91" customHeight="1" spans="1:7">
-      <c r="A91" s="4">
+      <c r="B90" s="34" t="s">
+        <v>273</v>
+      </c>
+      <c r="C90" s="35" t="s">
+        <v>274</v>
+      </c>
+      <c r="D90" s="34"/>
+      <c r="E90" s="34"/>
+      <c r="F90" s="34"/>
+    </row>
+    <row r="91" customHeight="1" spans="1:6">
+      <c r="A91" s="3">
         <v>90</v>
       </c>
-      <c r="B91" s="121" t="s">
-        <v>273</v>
-      </c>
-      <c r="C91" s="122" t="s">
-        <v>274</v>
-      </c>
-      <c r="D91" s="123"/>
-      <c r="E91" s="123"/>
-      <c r="F91" s="123"/>
-      <c r="G91" s="123"/>
-    </row>
-    <row r="92" customHeight="1" spans="1:7">
-      <c r="A92" s="4">
+      <c r="B91" s="68" t="s">
+        <v>275</v>
+      </c>
+      <c r="C91" s="69" t="s">
+        <v>276</v>
+      </c>
+      <c r="D91" s="68"/>
+      <c r="E91" s="68"/>
+      <c r="F91" s="68"/>
+    </row>
+    <row r="92" customHeight="1" spans="1:6">
+      <c r="A92" s="3">
         <v>91</v>
       </c>
-      <c r="B92" s="124" t="s">
-        <v>275</v>
-      </c>
-      <c r="C92" s="61" t="s">
-        <v>276</v>
-      </c>
-      <c r="D92" s="125"/>
-      <c r="E92" s="125"/>
-      <c r="F92" s="125"/>
-      <c r="G92" s="125"/>
-    </row>
-    <row r="93" customHeight="1" spans="1:7">
-      <c r="A93" s="4">
+      <c r="B92" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="C92" s="39" t="s">
+        <v>278</v>
+      </c>
+      <c r="D92" s="70"/>
+      <c r="E92" s="70"/>
+      <c r="F92" s="70"/>
+    </row>
+    <row r="93" customHeight="1" spans="1:6">
+      <c r="A93" s="3">
         <v>92</v>
       </c>
-      <c r="B93" s="124" t="s">
-        <v>275</v>
-      </c>
-      <c r="C93" s="61" t="s">
+      <c r="B93" s="38" t="s">
         <v>277</v>
       </c>
-      <c r="D93" s="125"/>
-      <c r="E93" s="125"/>
-      <c r="F93" s="125"/>
-      <c r="G93" s="125"/>
-    </row>
-    <row r="94" customHeight="1" spans="1:7">
-      <c r="A94" s="4">
+      <c r="C93" s="39" t="s">
+        <v>279</v>
+      </c>
+      <c r="D93" s="70"/>
+      <c r="E93" s="70"/>
+      <c r="F93" s="70"/>
+    </row>
+    <row r="94" customHeight="1" spans="1:6">
+      <c r="A94" s="3">
         <v>93</v>
       </c>
-      <c r="B94" s="126" t="s">
-        <v>275</v>
-      </c>
-      <c r="C94" s="127" t="s">
-        <v>278</v>
-      </c>
-      <c r="D94" s="128"/>
-      <c r="E94" s="128"/>
-      <c r="F94" s="128"/>
-      <c r="G94" s="128"/>
-    </row>
-    <row r="95" customHeight="1" spans="1:7">
-      <c r="A95" s="4">
+      <c r="B94" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="C94" s="39" t="s">
+        <v>280</v>
+      </c>
+      <c r="D94" s="38"/>
+      <c r="E94" s="38"/>
+      <c r="F94" s="38"/>
+    </row>
+    <row r="95" customHeight="1" spans="1:6">
+      <c r="A95" s="3">
         <v>94</v>
       </c>
-      <c r="B95" s="126" t="s">
-        <v>275</v>
-      </c>
-      <c r="C95" s="127" t="s">
-        <v>279</v>
-      </c>
-      <c r="D95" s="128"/>
-      <c r="E95" s="128"/>
-      <c r="F95" s="128"/>
-      <c r="G95" s="128"/>
-    </row>
-    <row r="96" customHeight="1" spans="1:7">
-      <c r="A96" s="4">
+      <c r="B95" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="C95" s="39" t="s">
+        <v>281</v>
+      </c>
+      <c r="D95" s="38"/>
+      <c r="E95" s="38"/>
+      <c r="F95" s="38"/>
+    </row>
+    <row r="96" customHeight="1" spans="1:6">
+      <c r="A96" s="3">
         <v>95</v>
       </c>
-      <c r="B96" s="126" t="s">
-        <v>275</v>
-      </c>
-      <c r="C96" s="127" t="s">
-        <v>280</v>
-      </c>
-      <c r="D96" s="128"/>
-      <c r="E96" s="128"/>
-      <c r="F96" s="128"/>
-      <c r="G96" s="128"/>
-    </row>
-    <row r="97" customHeight="1" spans="1:7">
-      <c r="A97" s="4">
+      <c r="B96" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="C96" s="39" t="s">
+        <v>282</v>
+      </c>
+      <c r="D96" s="38"/>
+      <c r="E96" s="38"/>
+      <c r="F96" s="38"/>
+    </row>
+    <row r="97" customHeight="1" spans="1:6">
+      <c r="A97" s="3">
         <v>96</v>
       </c>
-      <c r="B97" s="126" t="s">
-        <v>275</v>
-      </c>
-      <c r="C97" s="129" t="s">
-        <v>281</v>
-      </c>
-      <c r="D97" s="128"/>
-      <c r="E97" s="128"/>
-      <c r="F97" s="128"/>
-      <c r="G97" s="128"/>
-    </row>
-    <row r="98" customHeight="1" spans="1:7">
-      <c r="A98" s="4">
+      <c r="B97" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="C97" s="71" t="s">
+        <v>283</v>
+      </c>
+      <c r="D97" s="38"/>
+      <c r="E97" s="38"/>
+      <c r="F97" s="38"/>
+    </row>
+    <row r="98" customHeight="1" spans="1:6">
+      <c r="A98" s="3">
         <v>97</v>
       </c>
-      <c r="B98" s="130" t="s">
-        <v>282</v>
-      </c>
-      <c r="C98" s="131" t="s">
-        <v>283</v>
-      </c>
-      <c r="D98" s="132"/>
-      <c r="E98" s="132"/>
-      <c r="F98" s="132"/>
-      <c r="G98" s="132"/>
-    </row>
-    <row r="99" customHeight="1" spans="1:7">
-      <c r="A99" s="4">
+      <c r="B98" s="72" t="s">
+        <v>284</v>
+      </c>
+      <c r="C98" s="73" t="s">
+        <v>285</v>
+      </c>
+      <c r="D98" s="74"/>
+      <c r="E98" s="74"/>
+      <c r="F98" s="74"/>
+    </row>
+    <row r="99" customHeight="1" spans="1:6">
+      <c r="A99" s="3">
         <v>98</v>
       </c>
-      <c r="B99" s="130" t="s">
-        <v>282</v>
-      </c>
-      <c r="C99" s="131" t="s">
+      <c r="B99" s="72" t="s">
         <v>284</v>
       </c>
-      <c r="D99" s="132"/>
-      <c r="E99" s="132"/>
-      <c r="F99" s="132"/>
-      <c r="G99" s="132"/>
-    </row>
-    <row r="100" customHeight="1" spans="1:7">
-      <c r="A100" s="4">
+      <c r="C99" s="73" t="s">
+        <v>286</v>
+      </c>
+      <c r="D99" s="74"/>
+      <c r="E99" s="74"/>
+      <c r="F99" s="74"/>
+    </row>
+    <row r="100" customHeight="1" spans="1:6">
+      <c r="A100" s="3">
         <v>99</v>
       </c>
-      <c r="B100" s="133" t="s">
-        <v>282</v>
-      </c>
-      <c r="C100" s="67" t="s">
-        <v>285</v>
-      </c>
-      <c r="D100" s="132"/>
-      <c r="E100" s="132"/>
-      <c r="F100" s="132"/>
-      <c r="G100" s="132"/>
-    </row>
-    <row r="101" customHeight="1" spans="1:7">
-      <c r="A101" s="4">
+      <c r="B100" s="41" t="s">
+        <v>284</v>
+      </c>
+      <c r="C100" s="42" t="s">
+        <v>287</v>
+      </c>
+      <c r="D100" s="74"/>
+      <c r="E100" s="74"/>
+      <c r="F100" s="74"/>
+    </row>
+    <row r="101" customHeight="1" spans="1:6">
+      <c r="A101" s="3">
         <v>100</v>
       </c>
-      <c r="B101" s="134" t="s">
-        <v>286</v>
-      </c>
-      <c r="C101" s="135" t="s">
-        <v>287</v>
-      </c>
-      <c r="D101" s="71"/>
-      <c r="E101" s="71"/>
-      <c r="F101" s="71"/>
-      <c r="G101" s="71"/>
-    </row>
-    <row r="102" customHeight="1" spans="1:7">
-      <c r="A102" s="4">
+      <c r="B101" s="75" t="s">
+        <v>288</v>
+      </c>
+      <c r="C101" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="D101" s="45"/>
+      <c r="E101" s="45"/>
+      <c r="F101" s="45"/>
+    </row>
+    <row r="102" customHeight="1" spans="1:6">
+      <c r="A102" s="3">
         <v>101</v>
       </c>
-      <c r="B102" s="75" t="s">
-        <v>286</v>
-      </c>
-      <c r="C102" s="76" t="s">
+      <c r="B102" s="43" t="s">
         <v>288</v>
       </c>
-      <c r="D102" s="77"/>
-      <c r="E102" s="77"/>
-      <c r="F102" s="77"/>
-      <c r="G102" s="77"/>
-    </row>
-    <row r="103" customHeight="1" spans="1:7">
-      <c r="A103" s="4">
+      <c r="C102" s="44" t="s">
+        <v>290</v>
+      </c>
+      <c r="D102" s="43"/>
+      <c r="E102" s="43"/>
+      <c r="F102" s="43"/>
+    </row>
+    <row r="103" customHeight="1" spans="1:6">
+      <c r="A103" s="3">
         <v>102</v>
       </c>
-      <c r="B103" s="78" t="s">
-        <v>289</v>
-      </c>
-      <c r="C103" s="79" t="s">
-        <v>290</v>
-      </c>
-      <c r="D103" s="80"/>
-      <c r="E103" s="80"/>
-      <c r="F103" s="80"/>
-      <c r="G103" s="80"/>
-    </row>
-    <row r="104" customHeight="1" spans="1:7">
-      <c r="A104" s="4">
+      <c r="B103" s="47" t="s">
+        <v>291</v>
+      </c>
+      <c r="C103" s="48" t="s">
+        <v>292</v>
+      </c>
+      <c r="D103" s="49"/>
+      <c r="E103" s="49"/>
+      <c r="F103" s="49"/>
+    </row>
+    <row r="104" customHeight="1" spans="1:6">
+      <c r="A104" s="3">
         <v>103</v>
       </c>
-      <c r="B104" s="136" t="s">
-        <v>289</v>
-      </c>
-      <c r="C104" s="79" t="s">
+      <c r="B104" s="47" t="s">
         <v>291</v>
       </c>
-      <c r="D104" s="81"/>
-      <c r="E104" s="81"/>
-      <c r="F104" s="81"/>
-      <c r="G104" s="81"/>
-    </row>
-    <row r="105" customHeight="1" spans="1:7">
-      <c r="A105" s="4">
+      <c r="C104" s="48" t="s">
+        <v>293</v>
+      </c>
+      <c r="D104" s="47"/>
+      <c r="E104" s="47"/>
+      <c r="F104" s="47"/>
+    </row>
+    <row r="105" customHeight="1" spans="1:6">
+      <c r="A105" s="3">
         <v>104</v>
       </c>
-      <c r="B105" s="137" t="s">
-        <v>292</v>
-      </c>
-      <c r="C105" s="138" t="s">
-        <v>293</v>
-      </c>
-      <c r="D105" s="139"/>
-      <c r="E105" s="139"/>
-      <c r="F105" s="139"/>
-      <c r="G105" s="139"/>
-    </row>
-    <row r="106" customHeight="1" spans="1:7">
-      <c r="A106" s="4">
+      <c r="B105" s="77" t="s">
+        <v>294</v>
+      </c>
+      <c r="C105" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="D105" s="77"/>
+      <c r="E105" s="77"/>
+      <c r="F105" s="77"/>
+    </row>
+    <row r="106" customHeight="1" spans="1:6">
+      <c r="A106" s="3">
         <v>105</v>
       </c>
-      <c r="B106" s="89" t="s">
-        <v>294</v>
-      </c>
-      <c r="C106" s="90" t="s">
-        <v>295</v>
-      </c>
-      <c r="D106" s="140"/>
-      <c r="E106" s="140"/>
-      <c r="F106" s="140"/>
-      <c r="G106" s="140"/>
-    </row>
-    <row r="107" customHeight="1" spans="1:7">
-      <c r="A107" s="4">
+      <c r="B106" s="53" t="s">
+        <v>296</v>
+      </c>
+      <c r="C106" s="54" t="s">
+        <v>297</v>
+      </c>
+      <c r="D106" s="55"/>
+      <c r="E106" s="55"/>
+      <c r="F106" s="55"/>
+    </row>
+    <row r="107" customHeight="1" spans="1:6">
+      <c r="A107" s="3">
         <v>106</v>
       </c>
-      <c r="B107" s="89" t="s">
-        <v>294</v>
-      </c>
-      <c r="C107" s="90" t="s">
+      <c r="B107" s="53" t="s">
         <v>296</v>
       </c>
-      <c r="D107" s="140"/>
-      <c r="E107" s="140"/>
-      <c r="F107" s="140"/>
-      <c r="G107" s="140"/>
-    </row>
-    <row r="108" customHeight="1" spans="1:7">
-      <c r="A108" s="4">
+      <c r="C107" s="54" t="s">
+        <v>298</v>
+      </c>
+      <c r="D107" s="55"/>
+      <c r="E107" s="55"/>
+      <c r="F107" s="55"/>
+    </row>
+    <row r="108" customHeight="1" spans="1:6">
+      <c r="A108" s="3">
         <v>107</v>
       </c>
-      <c r="B108" s="89" t="s">
-        <v>294</v>
-      </c>
-      <c r="C108" s="90" t="s">
-        <v>297</v>
-      </c>
-      <c r="D108" s="140"/>
-      <c r="E108" s="140"/>
-      <c r="F108" s="140"/>
-      <c r="G108" s="140"/>
-    </row>
-    <row r="109" customHeight="1" spans="1:7">
-      <c r="A109" s="4">
+      <c r="B108" s="53" t="s">
+        <v>296</v>
+      </c>
+      <c r="C108" s="54" t="s">
+        <v>299</v>
+      </c>
+      <c r="D108" s="55"/>
+      <c r="E108" s="55"/>
+      <c r="F108" s="55"/>
+    </row>
+    <row r="109" customHeight="1" spans="1:6">
+      <c r="A109" s="3">
         <v>108</v>
       </c>
-      <c r="B109" s="141"/>
-      <c r="C109" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="D109" s="142"/>
-      <c r="E109" s="142"/>
-      <c r="F109" s="12"/>
-      <c r="G109" s="142"/>
-    </row>
-    <row r="110" customHeight="1" spans="1:7">
-      <c r="A110" s="4">
+      <c r="B109" s="7"/>
+      <c r="C109" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="D109" s="79"/>
+      <c r="E109" s="79"/>
+      <c r="F109" s="7"/>
+    </row>
+    <row r="110" customHeight="1" spans="1:6">
+      <c r="A110" s="3">
         <v>109</v>
       </c>
-      <c r="B110" s="141"/>
-      <c r="C110" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="D110" s="142"/>
-      <c r="E110" s="142"/>
-      <c r="F110" s="12"/>
-      <c r="G110" s="142"/>
-    </row>
-    <row r="111" customHeight="1" spans="1:7">
-      <c r="A111" s="4">
+      <c r="B110" s="7"/>
+      <c r="C110" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="D110" s="79"/>
+      <c r="E110" s="79"/>
+      <c r="F110" s="7"/>
+    </row>
+    <row r="111" customHeight="1" spans="1:6">
+      <c r="A111" s="3">
         <v>110</v>
       </c>
-      <c r="B111" s="141"/>
-      <c r="C111" s="10" t="s">
-        <v>300</v>
-      </c>
-      <c r="D111" s="142"/>
-      <c r="E111" s="142"/>
-      <c r="F111" s="12"/>
-      <c r="G111" s="142"/>
-    </row>
-    <row r="112" customHeight="1" spans="1:7">
-      <c r="A112" s="4">
+      <c r="B111" s="7"/>
+      <c r="C111" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="D111" s="79"/>
+      <c r="E111" s="79"/>
+      <c r="F111" s="7"/>
+    </row>
+    <row r="112" customHeight="1" spans="1:6">
+      <c r="A112" s="3">
         <v>111</v>
       </c>
-      <c r="B112" s="141"/>
-      <c r="C112" s="10" t="s">
-        <v>301</v>
-      </c>
-      <c r="D112" s="142"/>
-      <c r="E112" s="142"/>
-      <c r="F112" s="12"/>
-      <c r="G112" s="142"/>
-    </row>
-    <row r="113" customHeight="1" spans="1:7">
-      <c r="A113" s="4">
+      <c r="B112" s="7"/>
+      <c r="C112" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="D112" s="79"/>
+      <c r="E112" s="79"/>
+      <c r="F112" s="7"/>
+    </row>
+    <row r="113" customHeight="1" spans="1:6">
+      <c r="A113" s="3">
         <v>112</v>
       </c>
-      <c r="B113" s="141"/>
-      <c r="C113" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="D113" s="142"/>
-      <c r="E113" s="142"/>
-      <c r="F113" s="12"/>
-      <c r="G113" s="142"/>
-    </row>
-    <row r="114" customHeight="1" spans="1:7">
-      <c r="A114" s="4">
+      <c r="B113" s="7"/>
+      <c r="C113" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="D113" s="79"/>
+      <c r="E113" s="79"/>
+      <c r="F113" s="7"/>
+    </row>
+    <row r="114" customHeight="1" spans="1:6">
+      <c r="A114" s="3">
         <v>113</v>
       </c>
-      <c r="B114" s="141"/>
-      <c r="C114" s="10" t="s">
-        <v>303</v>
-      </c>
-      <c r="D114" s="142"/>
-      <c r="E114" s="142"/>
-      <c r="F114" s="12"/>
-      <c r="G114" s="142"/>
-    </row>
-    <row r="115" customHeight="1" spans="1:7">
-      <c r="A115" s="4">
+      <c r="B114" s="7"/>
+      <c r="C114" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="D114" s="79"/>
+      <c r="E114" s="79"/>
+      <c r="F114" s="7"/>
+    </row>
+    <row r="115" customHeight="1" spans="1:6">
+      <c r="A115" s="3">
         <v>114</v>
       </c>
-      <c r="B115" s="141"/>
-      <c r="C115" s="10" t="s">
-        <v>304</v>
-      </c>
-      <c r="D115" s="142"/>
-      <c r="E115" s="142"/>
-      <c r="F115" s="12"/>
-      <c r="G115" s="142"/>
-    </row>
-    <row r="116" customHeight="1" spans="1:7">
-      <c r="A116" s="4">
+      <c r="B115" s="7"/>
+      <c r="C115" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="D115" s="79"/>
+      <c r="E115" s="79"/>
+      <c r="F115" s="7"/>
+    </row>
+    <row r="116" customHeight="1" spans="1:6">
+      <c r="A116" s="3">
         <v>115</v>
       </c>
-      <c r="B116" s="12"/>
-      <c r="C116" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="D116" s="12"/>
-      <c r="E116" s="12"/>
-      <c r="F116" s="12"/>
-      <c r="G116" s="12"/>
-    </row>
-    <row r="117" customHeight="1" spans="1:7">
-      <c r="A117" s="4">
+      <c r="B116" s="7"/>
+      <c r="C116" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="D116" s="7"/>
+      <c r="E116" s="7"/>
+      <c r="F116" s="7"/>
+    </row>
+    <row r="117" customHeight="1" spans="1:6">
+      <c r="A117" s="3">
         <v>116</v>
       </c>
-      <c r="B117" s="12"/>
-      <c r="C117" s="10" t="s">
-        <v>306</v>
-      </c>
-      <c r="D117" s="12"/>
-      <c r="E117" s="12"/>
-      <c r="F117" s="12"/>
-      <c r="G117" s="12"/>
-    </row>
-    <row r="118" customHeight="1" spans="1:7">
-      <c r="A118" s="4">
+      <c r="B117" s="7"/>
+      <c r="C117" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="D117" s="7"/>
+      <c r="E117" s="7"/>
+      <c r="F117" s="7"/>
+    </row>
+    <row r="118" customHeight="1" spans="1:6">
+      <c r="A118" s="3">
         <v>117</v>
       </c>
-      <c r="B118" s="143"/>
-      <c r="C118" s="144" t="s">
-        <v>307</v>
-      </c>
-      <c r="D118" s="143"/>
-      <c r="E118" s="143"/>
-      <c r="F118" s="143"/>
-      <c r="G118" s="143"/>
-    </row>
-    <row r="119" customHeight="1" spans="1:7">
-      <c r="A119" s="4">
+      <c r="B118" s="7"/>
+      <c r="C118" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="D118" s="7"/>
+      <c r="E118" s="7"/>
+      <c r="F118" s="7"/>
+    </row>
+    <row r="119" customHeight="1" spans="1:6">
+      <c r="A119" s="3">
         <v>118</v>
       </c>
-      <c r="B119" s="143"/>
-      <c r="C119" s="144" t="s">
-        <v>308</v>
-      </c>
-      <c r="D119" s="143"/>
-      <c r="E119" s="143"/>
-      <c r="F119" s="143"/>
-      <c r="G119" s="143"/>
+      <c r="B119" s="7"/>
+      <c r="C119" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="D119" s="7"/>
+      <c r="E119" s="7"/>
+      <c r="F119" s="7"/>
     </row>
   </sheetData>
   <sortState ref="A2:G141">
